--- a/plotpackage/myproject/sites/sites.xlsx
+++ b/plotpackage/myproject/sites/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="overly_b" sheetId="11" r:id="rId12"/>
     <sheet name="selectivity" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="79">
   <si>
     <t>single_doping</t>
   </si>
@@ -348,6 +348,9 @@
   <si>
     <t>top2:Cu</t>
   </si>
+  <si>
+    <t>hollow1(top)</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -558,12 +561,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -730,13 +759,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -744,6 +770,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -757,8 +789,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1118,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -1159,7 +1194,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
@@ -1175,19 +1210,19 @@
       <c r="F3" s="64">
         <v>-299.59373061000002</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$4, MATCH(MIN(C2:C4),C2:C4,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$4, MATCH(MIN(D2:D4),D2:D4,0))</f>
         <v>top</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>top</v>
       </c>
@@ -1219,7 +1254,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="64" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1298,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -1341,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="64" t="s">
         <v>8</v>
       </c>
@@ -1357,19 +1392,19 @@
       <c r="F6" s="64">
         <v>-300.24812918999999</v>
       </c>
-      <c r="L6" s="77" t="str">
+      <c r="L6" s="68" t="str">
         <f>INDEX($B$2:$B$4, MATCH(MIN(C5:C7),C5:C7,0))</f>
         <v>top</v>
       </c>
-      <c r="M6" s="77" t="str">
+      <c r="M6" s="68" t="str">
         <f t="shared" ref="M6" si="14">INDEX($B$2:$B$4, MATCH(MIN(D5:D7),D5:D7,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N6" s="77" t="str">
+      <c r="N6" s="68" t="str">
         <f t="shared" ref="N6" si="15">INDEX($B$2:$B$4, MATCH(MIN(E5:E7),E5:E7,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O6" s="77" t="str">
+      <c r="O6" s="68" t="str">
         <f t="shared" ref="O6" si="16">INDEX($B$2:$B$4, MATCH(MIN(F5:F7),F5:F7,0))</f>
         <v>hollow1</v>
       </c>
@@ -1401,7 +1436,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="64" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1474,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
@@ -1511,7 +1546,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="64" t="s">
@@ -1529,19 +1564,19 @@
       <c r="F9" s="64">
         <v>-299.51915525999999</v>
       </c>
-      <c r="L9" s="77" t="str">
+      <c r="L9" s="68" t="str">
         <f>INDEX($B$2:$B$4, MATCH(MIN(C8:C10),C8:C10,0))</f>
         <v>top</v>
       </c>
-      <c r="M9" s="77" t="str">
+      <c r="M9" s="68" t="str">
         <f t="shared" ref="M9" si="24">INDEX($B$2:$B$4, MATCH(MIN(D8:D10),D8:D10,0))</f>
         <v>top</v>
       </c>
-      <c r="N9" s="77" t="str">
+      <c r="N9" s="68" t="str">
         <f t="shared" ref="N9" si="25">INDEX($B$2:$B$4, MATCH(MIN(E8:E10),E8:E10,0))</f>
         <v>top</v>
       </c>
-      <c r="O9" s="77" t="str">
+      <c r="O9" s="68" t="str">
         <f t="shared" ref="O9" si="26">INDEX($B$2:$B$4, MATCH(MIN(F8:F10),F8:F10,0))</f>
         <v>hollow1</v>
       </c>
@@ -1567,7 +1602,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="64" t="s">
@@ -1607,7 +1642,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="64" t="s">
@@ -1679,7 +1714,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
@@ -1697,19 +1732,19 @@
       <c r="F12" s="64">
         <v>-297.46975631999999</v>
       </c>
-      <c r="L12" s="77" t="str">
+      <c r="L12" s="68" t="str">
         <f>INDEX($B$2:$B$4, MATCH(MIN(C11:C13),C11:C13,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M12" s="77" t="str">
+      <c r="M12" s="68" t="str">
         <f t="shared" ref="M12" si="34">INDEX($B$2:$B$4, MATCH(MIN(D11:D13),D11:D13,0))</f>
         <v>top</v>
       </c>
-      <c r="N12" s="77" t="str">
+      <c r="N12" s="68" t="str">
         <f t="shared" ref="N12" si="35">INDEX($B$2:$B$4, MATCH(MIN(E11:E13),E11:E13,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O12" s="77" t="str">
+      <c r="O12" s="68" t="str">
         <f t="shared" ref="O12" si="36">INDEX($B$2:$B$4, MATCH(MIN(F11:F13),F11:F13,0))</f>
         <v>top</v>
       </c>
@@ -1735,7 +1770,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="64" t="s">
@@ -1775,7 +1810,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="64" t="s">
@@ -1847,7 +1882,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="64" t="s">
@@ -1865,20 +1900,20 @@
       <c r="F15" s="64">
         <v>-296.54859580999999</v>
       </c>
-      <c r="L15" s="77" t="str">
-        <f t="shared" ref="L15:L49" si="45">INDEX($B$2:$B$4, MATCH(MIN(C14:C16),C14:C16,0))</f>
+      <c r="L15" s="68" t="str">
+        <f t="shared" ref="L15" si="45">INDEX($B$2:$B$4, MATCH(MIN(C14:C16),C14:C16,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M15" s="77" t="str">
-        <f t="shared" ref="M15:M49" si="46">INDEX($B$2:$B$4, MATCH(MIN(D14:D16),D14:D16,0))</f>
+      <c r="M15" s="68" t="str">
+        <f t="shared" ref="M15" si="46">INDEX($B$2:$B$4, MATCH(MIN(D14:D16),D14:D16,0))</f>
         <v>top</v>
       </c>
-      <c r="N15" s="77" t="str">
-        <f t="shared" ref="N15:N49" si="47">INDEX($B$2:$B$4, MATCH(MIN(E14:E16),E14:E16,0))</f>
+      <c r="N15" s="68" t="str">
+        <f t="shared" ref="N15" si="47">INDEX($B$2:$B$4, MATCH(MIN(E14:E16),E14:E16,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O15" s="77" t="str">
-        <f t="shared" ref="O15:O49" si="48">INDEX($B$2:$B$4, MATCH(MIN(F14:F16),F14:F16,0))</f>
+      <c r="O15" s="68" t="str">
+        <f t="shared" ref="O15" si="48">INDEX($B$2:$B$4, MATCH(MIN(F14:F16),F14:F16,0))</f>
         <v>hollow1</v>
       </c>
       <c r="S15" s="12"/>
@@ -1903,7 +1938,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="64" t="s">
@@ -1943,7 +1978,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="64" t="s">
@@ -2015,7 +2050,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="64" t="s">
@@ -2033,25 +2068,25 @@
       <c r="F18" s="64">
         <v>-296.03012351000001</v>
       </c>
-      <c r="L18" s="77" t="str">
-        <f t="shared" ref="L18:L49" si="56">INDEX($B$2:$B$4, MATCH(MIN(C17:C19),C17:C19,0))</f>
+      <c r="L18" s="68" t="str">
+        <f t="shared" ref="L18" si="56">INDEX($B$2:$B$4, MATCH(MIN(C17:C19),C17:C19,0))</f>
         <v>top2</v>
       </c>
-      <c r="M18" s="77" t="str">
-        <f t="shared" ref="M18:M49" si="57">INDEX($B$2:$B$4, MATCH(MIN(D17:D19),D17:D19,0))</f>
+      <c r="M18" s="68" t="str">
+        <f t="shared" ref="M18" si="57">INDEX($B$2:$B$4, MATCH(MIN(D17:D19),D17:D19,0))</f>
         <v>top</v>
       </c>
-      <c r="N18" s="77" t="str">
-        <f t="shared" ref="N18:N49" si="58">INDEX($B$2:$B$4, MATCH(MIN(E17:E19),E17:E19,0))</f>
+      <c r="N18" s="68" t="str">
+        <f t="shared" ref="N18" si="58">INDEX($B$2:$B$4, MATCH(MIN(E17:E19),E17:E19,0))</f>
         <v>top</v>
       </c>
-      <c r="O18" s="77" t="str">
-        <f t="shared" ref="O18:O49" si="59">INDEX($B$2:$B$4, MATCH(MIN(F17:F19),F17:F19,0))</f>
+      <c r="O18" s="68" t="str">
+        <f t="shared" ref="O18" si="59">INDEX($B$2:$B$4, MATCH(MIN(F17:F19),F17:F19,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="64" t="s">
@@ -2071,7 +2106,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
@@ -2123,7 +2158,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -2141,25 +2176,25 @@
       <c r="F21" s="64">
         <v>-294.09274377000003</v>
       </c>
-      <c r="L21" s="77" t="str">
-        <f t="shared" ref="L21:L49" si="68">INDEX($B$2:$B$4, MATCH(MIN(C20:C22),C20:C22,0))</f>
+      <c r="L21" s="68" t="str">
+        <f t="shared" ref="L21" si="68">INDEX($B$2:$B$4, MATCH(MIN(C20:C22),C20:C22,0))</f>
         <v>top2</v>
       </c>
-      <c r="M21" s="77" t="str">
-        <f t="shared" ref="M21:M49" si="69">INDEX($B$2:$B$4, MATCH(MIN(D20:D22),D20:D22,0))</f>
+      <c r="M21" s="68" t="str">
+        <f t="shared" ref="M21" si="69">INDEX($B$2:$B$4, MATCH(MIN(D20:D22),D20:D22,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N21" s="77" t="str">
-        <f t="shared" ref="N21:N49" si="70">INDEX($B$2:$B$4, MATCH(MIN(E20:E22),E20:E22,0))</f>
+      <c r="N21" s="68" t="str">
+        <f t="shared" ref="N21" si="70">INDEX($B$2:$B$4, MATCH(MIN(E20:E22),E20:E22,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O21" s="77" t="str">
-        <f t="shared" ref="O21:O49" si="71">INDEX($B$2:$B$4, MATCH(MIN(F20:F22),F20:F22,0))</f>
+      <c r="O21" s="68" t="str">
+        <f t="shared" ref="O21" si="71">INDEX($B$2:$B$4, MATCH(MIN(F20:F22),F20:F22,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="64" t="s">
@@ -2179,7 +2214,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="64" t="s">
@@ -2231,7 +2266,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -2249,25 +2284,25 @@
       <c r="F24" s="64">
         <v>-291.84187272999998</v>
       </c>
-      <c r="L24" s="77" t="str">
-        <f t="shared" ref="L24:L49" si="80">INDEX($B$2:$B$4, MATCH(MIN(C23:C25),C23:C25,0))</f>
+      <c r="L24" s="68" t="str">
+        <f t="shared" ref="L24" si="80">INDEX($B$2:$B$4, MATCH(MIN(C23:C25),C23:C25,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M24" s="77" t="str">
-        <f t="shared" ref="M24:M49" si="81">INDEX($B$2:$B$4, MATCH(MIN(D23:D25),D23:D25,0))</f>
+      <c r="M24" s="68" t="str">
+        <f t="shared" ref="M24" si="81">INDEX($B$2:$B$4, MATCH(MIN(D23:D25),D23:D25,0))</f>
         <v>top</v>
       </c>
-      <c r="N24" s="77" t="str">
-        <f t="shared" ref="N24:N49" si="82">INDEX($B$2:$B$4, MATCH(MIN(E23:E25),E23:E25,0))</f>
+      <c r="N24" s="68" t="str">
+        <f t="shared" ref="N24" si="82">INDEX($B$2:$B$4, MATCH(MIN(E23:E25),E23:E25,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O24" s="77" t="str">
-        <f t="shared" ref="O24:O49" si="83">INDEX($B$2:$B$4, MATCH(MIN(F23:F25),F23:F25,0))</f>
+      <c r="O24" s="68" t="str">
+        <f t="shared" ref="O24" si="83">INDEX($B$2:$B$4, MATCH(MIN(F23:F25),F23:F25,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -2287,7 +2322,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -2339,7 +2374,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -2357,25 +2392,25 @@
       <c r="F27" s="64">
         <v>-290.36720731999998</v>
       </c>
-      <c r="L27" s="77" t="str">
-        <f t="shared" ref="L27:L49" si="92">INDEX($B$2:$B$4, MATCH(MIN(C26:C28),C26:C28,0))</f>
+      <c r="L27" s="68" t="str">
+        <f t="shared" ref="L27" si="92">INDEX($B$2:$B$4, MATCH(MIN(C26:C28),C26:C28,0))</f>
         <v>top2</v>
       </c>
-      <c r="M27" s="77" t="str">
-        <f t="shared" ref="M27:M49" si="93">INDEX($B$2:$B$4, MATCH(MIN(D26:D28),D26:D28,0))</f>
+      <c r="M27" s="68" t="str">
+        <f t="shared" ref="M27" si="93">INDEX($B$2:$B$4, MATCH(MIN(D26:D28),D26:D28,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N27" s="77" t="str">
-        <f t="shared" ref="N27:N49" si="94">INDEX($B$2:$B$4, MATCH(MIN(E26:E28),E26:E28,0))</f>
+      <c r="N27" s="68" t="str">
+        <f t="shared" ref="N27" si="94">INDEX($B$2:$B$4, MATCH(MIN(E26:E28),E26:E28,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O27" s="77" t="str">
-        <f t="shared" ref="O27:O49" si="95">INDEX($B$2:$B$4, MATCH(MIN(F26:F28),F26:F28,0))</f>
+      <c r="O27" s="68" t="str">
+        <f t="shared" ref="O27" si="95">INDEX($B$2:$B$4, MATCH(MIN(F26:F28),F26:F28,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -2395,7 +2430,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -2447,7 +2482,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -2465,25 +2500,25 @@
       <c r="F30" s="64">
         <v>-300.45287836</v>
       </c>
-      <c r="L30" s="77" t="str">
-        <f t="shared" ref="L30:L49" si="104">INDEX($B$2:$B$4, MATCH(MIN(C29:C31),C29:C31,0))</f>
+      <c r="L30" s="68" t="str">
+        <f t="shared" ref="L30" si="104">INDEX($B$2:$B$4, MATCH(MIN(C29:C31),C29:C31,0))</f>
         <v>top</v>
       </c>
-      <c r="M30" s="77" t="str">
-        <f t="shared" ref="M30:M49" si="105">INDEX($B$2:$B$4, MATCH(MIN(D29:D31),D29:D31,0))</f>
+      <c r="M30" s="68" t="str">
+        <f t="shared" ref="M30" si="105">INDEX($B$2:$B$4, MATCH(MIN(D29:D31),D29:D31,0))</f>
         <v>top</v>
       </c>
-      <c r="N30" s="77" t="str">
-        <f t="shared" ref="N30:N49" si="106">INDEX($B$2:$B$4, MATCH(MIN(E29:E31),E29:E31,0))</f>
+      <c r="N30" s="68" t="str">
+        <f t="shared" ref="N30" si="106">INDEX($B$2:$B$4, MATCH(MIN(E29:E31),E29:E31,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O30" s="77" t="str">
-        <f t="shared" ref="O30:O49" si="107">INDEX($B$2:$B$4, MATCH(MIN(F29:F31),F29:F31,0))</f>
+      <c r="O30" s="68" t="str">
+        <f t="shared" ref="O30" si="107">INDEX($B$2:$B$4, MATCH(MIN(F29:F31),F29:F31,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -2503,7 +2538,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -2555,7 +2590,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -2573,25 +2608,25 @@
       <c r="F33" s="64">
         <v>-301.34004463000002</v>
       </c>
-      <c r="L33" s="77" t="str">
-        <f t="shared" ref="L33:L49" si="116">INDEX($B$2:$B$4, MATCH(MIN(C32:C34),C32:C34,0))</f>
+      <c r="L33" s="68" t="str">
+        <f t="shared" ref="L33" si="116">INDEX($B$2:$B$4, MATCH(MIN(C32:C34),C32:C34,0))</f>
         <v>top</v>
       </c>
-      <c r="M33" s="77" t="str">
-        <f t="shared" ref="M33:M49" si="117">INDEX($B$2:$B$4, MATCH(MIN(D32:D34),D32:D34,0))</f>
+      <c r="M33" s="68" t="str">
+        <f t="shared" ref="M33" si="117">INDEX($B$2:$B$4, MATCH(MIN(D32:D34),D32:D34,0))</f>
         <v>top</v>
       </c>
-      <c r="N33" s="77" t="str">
-        <f t="shared" ref="N33:N49" si="118">INDEX($B$2:$B$4, MATCH(MIN(E32:E34),E32:E34,0))</f>
+      <c r="N33" s="68" t="str">
+        <f t="shared" ref="N33" si="118">INDEX($B$2:$B$4, MATCH(MIN(E32:E34),E32:E34,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O33" s="77" t="str">
-        <f t="shared" ref="O33:O49" si="119">INDEX($B$2:$B$4, MATCH(MIN(F32:F34),F32:F34,0))</f>
+      <c r="O33" s="68" t="str">
+        <f t="shared" ref="O33" si="119">INDEX($B$2:$B$4, MATCH(MIN(F32:F34),F32:F34,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -2611,7 +2646,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -2663,7 +2698,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -2681,25 +2716,25 @@
       <c r="F36" s="64">
         <v>-300.77902576999998</v>
       </c>
-      <c r="L36" s="77" t="str">
-        <f t="shared" ref="L36:L49" si="128">INDEX($B$2:$B$4, MATCH(MIN(C35:C37),C35:C37,0))</f>
+      <c r="L36" s="68" t="str">
+        <f t="shared" ref="L36" si="128">INDEX($B$2:$B$4, MATCH(MIN(C35:C37),C35:C37,0))</f>
         <v>top</v>
       </c>
-      <c r="M36" s="77" t="str">
-        <f t="shared" ref="M36:M49" si="129">INDEX($B$2:$B$4, MATCH(MIN(D35:D37),D35:D37,0))</f>
+      <c r="M36" s="68" t="str">
+        <f t="shared" ref="M36" si="129">INDEX($B$2:$B$4, MATCH(MIN(D35:D37),D35:D37,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N36" s="77" t="str">
-        <f t="shared" ref="N36:N49" si="130">INDEX($B$2:$B$4, MATCH(MIN(E35:E37),E35:E37,0))</f>
+      <c r="N36" s="68" t="str">
+        <f t="shared" ref="N36" si="130">INDEX($B$2:$B$4, MATCH(MIN(E35:E37),E35:E37,0))</f>
         <v>top2</v>
       </c>
-      <c r="O36" s="77" t="str">
-        <f t="shared" ref="O36:O49" si="131">INDEX($B$2:$B$4, MATCH(MIN(F35:F37),F35:F37,0))</f>
+      <c r="O36" s="68" t="str">
+        <f t="shared" ref="O36" si="131">INDEX($B$2:$B$4, MATCH(MIN(F35:F37),F35:F37,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="64" t="s">
@@ -2719,7 +2754,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="64" t="s">
@@ -2771,7 +2806,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -2789,25 +2824,25 @@
       <c r="F39" s="64">
         <v>-300.06399046000001</v>
       </c>
-      <c r="L39" s="77" t="str">
-        <f t="shared" ref="L39:L49" si="140">INDEX($B$2:$B$4, MATCH(MIN(C38:C40),C38:C40,0))</f>
+      <c r="L39" s="68" t="str">
+        <f t="shared" ref="L39" si="140">INDEX($B$2:$B$4, MATCH(MIN(C38:C40),C38:C40,0))</f>
         <v>top</v>
       </c>
-      <c r="M39" s="77" t="str">
-        <f t="shared" ref="M39:M49" si="141">INDEX($B$2:$B$4, MATCH(MIN(D38:D40),D38:D40,0))</f>
+      <c r="M39" s="68" t="str">
+        <f t="shared" ref="M39" si="141">INDEX($B$2:$B$4, MATCH(MIN(D38:D40),D38:D40,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N39" s="77" t="str">
-        <f t="shared" ref="N39:N49" si="142">INDEX($B$2:$B$4, MATCH(MIN(E38:E40),E38:E40,0))</f>
+      <c r="N39" s="68" t="str">
+        <f t="shared" ref="N39" si="142">INDEX($B$2:$B$4, MATCH(MIN(E38:E40),E38:E40,0))</f>
         <v>top</v>
       </c>
-      <c r="O39" s="77" t="str">
-        <f t="shared" ref="O39:O49" si="143">INDEX($B$2:$B$4, MATCH(MIN(F38:F40),F38:F40,0))</f>
+      <c r="O39" s="68" t="str">
+        <f t="shared" ref="O39" si="143">INDEX($B$2:$B$4, MATCH(MIN(F38:F40),F38:F40,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -2827,7 +2862,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="64" t="s">
@@ -2879,7 +2914,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -2897,25 +2932,25 @@
       <c r="F42" s="64">
         <v>-297.11931737999998</v>
       </c>
-      <c r="L42" s="77" t="str">
-        <f t="shared" ref="L42:L49" si="152">INDEX($B$2:$B$4, MATCH(MIN(C41:C43),C41:C43,0))</f>
+      <c r="L42" s="68" t="str">
+        <f t="shared" ref="L42" si="152">INDEX($B$2:$B$4, MATCH(MIN(C41:C43),C41:C43,0))</f>
         <v>top</v>
       </c>
-      <c r="M42" s="77" t="str">
-        <f t="shared" ref="M42:M49" si="153">INDEX($B$2:$B$4, MATCH(MIN(D41:D43),D41:D43,0))</f>
+      <c r="M42" s="68" t="str">
+        <f t="shared" ref="M42" si="153">INDEX($B$2:$B$4, MATCH(MIN(D41:D43),D41:D43,0))</f>
         <v>top</v>
       </c>
-      <c r="N42" s="77" t="str">
-        <f t="shared" ref="N42:N49" si="154">INDEX($B$2:$B$4, MATCH(MIN(E41:E43),E41:E43,0))</f>
+      <c r="N42" s="68" t="str">
+        <f t="shared" ref="N42" si="154">INDEX($B$2:$B$4, MATCH(MIN(E41:E43),E41:E43,0))</f>
         <v>top</v>
       </c>
-      <c r="O42" s="77" t="str">
-        <f t="shared" ref="O42:O49" si="155">INDEX($B$2:$B$4, MATCH(MIN(F41:F43),F41:F43,0))</f>
+      <c r="O42" s="68" t="str">
+        <f t="shared" ref="O42" si="155">INDEX($B$2:$B$4, MATCH(MIN(F41:F43),F41:F43,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="64" t="s">
@@ -2935,7 +2970,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="64" t="s">
@@ -2987,7 +3022,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -3005,25 +3040,25 @@
       <c r="F45" s="64">
         <v>-295.62164246999998</v>
       </c>
-      <c r="L45" s="77" t="str">
-        <f t="shared" ref="L45:L49" si="164">INDEX($B$2:$B$4, MATCH(MIN(C44:C46),C44:C46,0))</f>
+      <c r="L45" s="68" t="str">
+        <f t="shared" ref="L45" si="164">INDEX($B$2:$B$4, MATCH(MIN(C44:C46),C44:C46,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M45" s="77" t="str">
-        <f t="shared" ref="M45:M49" si="165">INDEX($B$2:$B$4, MATCH(MIN(D44:D46),D44:D46,0))</f>
+      <c r="M45" s="68" t="str">
+        <f t="shared" ref="M45" si="165">INDEX($B$2:$B$4, MATCH(MIN(D44:D46),D44:D46,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N45" s="77" t="str">
-        <f t="shared" ref="N45:N49" si="166">INDEX($B$2:$B$4, MATCH(MIN(E44:E46),E44:E46,0))</f>
+      <c r="N45" s="68" t="str">
+        <f t="shared" ref="N45" si="166">INDEX($B$2:$B$4, MATCH(MIN(E44:E46),E44:E46,0))</f>
         <v>top</v>
       </c>
-      <c r="O45" s="77" t="str">
-        <f t="shared" ref="O45:O49" si="167">INDEX($B$2:$B$4, MATCH(MIN(F44:F46),F44:F46,0))</f>
+      <c r="O45" s="68" t="str">
+        <f t="shared" ref="O45" si="167">INDEX($B$2:$B$4, MATCH(MIN(F44:F46),F44:F46,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="69" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="64" t="s">
@@ -3043,7 +3078,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="64" t="s">
@@ -3095,7 +3130,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="64" t="s">
@@ -3113,25 +3148,25 @@
       <c r="F48" s="64">
         <v>-290.32110375000002</v>
       </c>
-      <c r="L48" s="77" t="str">
-        <f t="shared" ref="L48:L49" si="176">INDEX($B$2:$B$4, MATCH(MIN(C47:C49),C47:C49,0))</f>
+      <c r="L48" s="68" t="str">
+        <f t="shared" ref="L48" si="176">INDEX($B$2:$B$4, MATCH(MIN(C47:C49),C47:C49,0))</f>
         <v>top2</v>
       </c>
-      <c r="M48" s="77" t="str">
-        <f t="shared" ref="M48:M49" si="177">INDEX($B$2:$B$4, MATCH(MIN(D47:D49),D47:D49,0))</f>
+      <c r="M48" s="68" t="str">
+        <f t="shared" ref="M48" si="177">INDEX($B$2:$B$4, MATCH(MIN(D47:D49),D47:D49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N48" s="77" t="str">
-        <f t="shared" ref="N48:N49" si="178">INDEX($B$2:$B$4, MATCH(MIN(E47:E49),E47:E49,0))</f>
+      <c r="N48" s="68" t="str">
+        <f t="shared" ref="N48" si="178">INDEX($B$2:$B$4, MATCH(MIN(E47:E49),E47:E49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O48" s="77" t="str">
-        <f t="shared" ref="O48:O49" si="179">INDEX($B$2:$B$4, MATCH(MIN(F47:F49),F47:F49,0))</f>
+      <c r="O48" s="68" t="str">
+        <f t="shared" ref="O48" si="179">INDEX($B$2:$B$4, MATCH(MIN(F47:F49),F47:F49,0))</f>
         <v>top2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="68" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="64" t="s">
@@ -3150,18 +3185,101 @@
         <v>-290.48866231</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L51" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-306.97920599000003</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-297.85147833000002</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-288.55203122</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-293.14565368000001</v>
+      </c>
+      <c r="G54">
+        <f>MIN(C54:C55)-C54</f>
+        <v>-2.3997959999974228E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54:J54" si="180">MIN(D54:D55)-D54</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="180"/>
+        <v>-5.523475000001099E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="180"/>
+        <v>-0.23082404999996697</v>
+      </c>
+      <c r="L54">
+        <f>MIN(C54:C55)</f>
+        <v>-307.00320395</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:O54" si="181">MIN(D54:D55)</f>
+        <v>-297.85147833000002</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="181"/>
+        <v>-288.60726597000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="181"/>
+        <v>-293.37647772999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="79"/>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4">
+        <v>-307.00320395</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-297.71114064</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-288.60726597000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-293.37647772999998</v>
+      </c>
+      <c r="L55" t="s">
+        <v>78</v>
+      </c>
+      <c r="M55" t="s">
+        <v>7</v>
+      </c>
+      <c r="N55" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -3180,6 +3298,7 @@
     <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -3187,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3197,22 +3316,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="Q1" s="75" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="Q1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="75"/>
-      <c r="T1" s="74" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C2" s="40" t="s">
@@ -3288,16 +3407,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3" s="40">
-        <v>-306.97920599000003</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3" s="40">
+        <f>single!M54</f>
         <v>-297.85147833000002</v>
       </c>
       <c r="F3" s="40">
-        <v>-288.55203122</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3" s="40">
-        <v>-293.14565368000001</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>36</v>
@@ -3310,7 +3433,7 @@
       </c>
       <c r="L3" s="40">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42967677999995457</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3" s="40">
         <f>E3-C3-$J$6</f>
@@ -3318,15 +3441,15 @@
       </c>
       <c r="N3" s="40">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39785154999997685</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3" s="40">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792290899999707</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="46">
         <f>D3+$Y$33</f>
-        <v>-306.49320599000004</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="46">
         <f>E3+$Y$34</f>
@@ -3340,7 +3463,7 @@
       </c>
       <c r="U3" s="43">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="48">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
@@ -3353,7 +3476,7 @@
       <c r="X3" s="46"/>
       <c r="Y3" s="46">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="46">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
@@ -3361,15 +3484,15 @@
       </c>
       <c r="AA3" s="46">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55585154999999808</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="46">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122290899999616</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="46">
         <f>Y3-AA3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.35">
@@ -4822,17 +4945,17 @@
       </c>
     </row>
     <row r="23" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q23" s="76" t="s">
+      <c r="Q23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q24" s="49"/>
@@ -5154,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5194,7 +5317,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5270,7 +5393,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5286,19 +5409,19 @@
       <c r="F3" s="4">
         <v>-325.04792830000002</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$3, MATCH(MIN(C2:C3),C2:C3,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$3, MATCH(MIN(D2:D3),D2:D3,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
@@ -5330,7 +5453,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -5365,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L33" si="10">MIN(C4:C5)</f>
+        <f t="shared" ref="L4" si="10">MIN(C4:C5)</f>
         <v>-351.90123779999999</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M33" si="11">MIN(D4:D5)</f>
+        <f t="shared" ref="M4" si="11">MIN(D4:D5)</f>
         <v>-342.8658317</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N33" si="12">MIN(E4:E5)</f>
+        <f t="shared" ref="N4" si="12">MIN(E4:E5)</f>
         <v>-333.6363465</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O33" si="13">MIN(F4:F5)</f>
+        <f t="shared" ref="O4" si="13">MIN(F4:F5)</f>
         <v>-339.90428659999998</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -5408,7 +5531,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -5424,20 +5547,20 @@
       <c r="F5" s="4">
         <v>-339.81943710000002</v>
       </c>
-      <c r="L5" s="77" t="str">
-        <f t="shared" ref="L5:L33" si="14">INDEX($B$2:$B$3, MATCH(MIN(C4:C5),C4:C5,0))</f>
+      <c r="L5" s="68" t="str">
+        <f t="shared" ref="L5" si="14">INDEX($B$2:$B$3, MATCH(MIN(C4:C5),C4:C5,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M5" s="77" t="str">
-        <f t="shared" ref="M5:M33" si="15">INDEX($B$2:$B$3, MATCH(MIN(D4:D5),D4:D5,0))</f>
+      <c r="M5" s="68" t="str">
+        <f t="shared" ref="M5" si="15">INDEX($B$2:$B$3, MATCH(MIN(D4:D5),D4:D5,0))</f>
         <v>top</v>
       </c>
-      <c r="N5" s="77" t="str">
-        <f t="shared" ref="N5:N33" si="16">INDEX($B$2:$B$3, MATCH(MIN(E4:E5),E4:E5,0))</f>
+      <c r="N5" s="68" t="str">
+        <f t="shared" ref="N5" si="16">INDEX($B$2:$B$3, MATCH(MIN(E4:E5),E4:E5,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O5" s="77" t="str">
-        <f t="shared" ref="O5:O33" si="17">INDEX($B$2:$B$3, MATCH(MIN(F4:F5),F4:F5,0))</f>
+      <c r="O5" s="68" t="str">
+        <f t="shared" ref="O5" si="17">INDEX($B$2:$B$3, MATCH(MIN(F4:F5),F4:F5,0))</f>
         <v>top</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -5468,7 +5591,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5503,19 +5626,19 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L33" si="21">MIN(C6:C7)</f>
+        <f t="shared" ref="L6" si="21">MIN(C6:C7)</f>
         <v>-350.84033010000002</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M33" si="22">MIN(D6:D7)</f>
+        <f t="shared" ref="M6" si="22">MIN(D6:D7)</f>
         <v>-342.03091339999997</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N33" si="23">MIN(E6:E7)</f>
+        <f t="shared" ref="N6" si="23">MIN(E6:E7)</f>
         <v>-332.32629559999998</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O33" si="24">MIN(F6:F7)</f>
+        <f t="shared" ref="O6" si="24">MIN(F6:F7)</f>
         <v>-338.48749299999997</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -5546,7 +5669,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -5564,20 +5687,20 @@
       <c r="F7" s="4">
         <v>-338.14610449999998</v>
       </c>
-      <c r="L7" s="77" t="str">
-        <f t="shared" ref="L7:L33" si="25">INDEX($B$2:$B$3, MATCH(MIN(C6:C7),C6:C7,0))</f>
+      <c r="L7" s="68" t="str">
+        <f t="shared" ref="L7" si="25">INDEX($B$2:$B$3, MATCH(MIN(C6:C7),C6:C7,0))</f>
         <v>top</v>
       </c>
-      <c r="M7" s="77" t="str">
-        <f t="shared" ref="M7:M33" si="26">INDEX($B$2:$B$3, MATCH(MIN(D6:D7),D6:D7,0))</f>
+      <c r="M7" s="68" t="str">
+        <f t="shared" ref="M7" si="26">INDEX($B$2:$B$3, MATCH(MIN(D6:D7),D6:D7,0))</f>
         <v>top</v>
       </c>
-      <c r="N7" s="77" t="str">
-        <f t="shared" ref="N7:N33" si="27">INDEX($B$2:$B$3, MATCH(MIN(E6:E7),E6:E7,0))</f>
+      <c r="N7" s="68" t="str">
+        <f t="shared" ref="N7" si="27">INDEX($B$2:$B$3, MATCH(MIN(E6:E7),E6:E7,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O7" s="77" t="str">
-        <f t="shared" ref="O7:O33" si="28">INDEX($B$2:$B$3, MATCH(MIN(F6:F7),F6:F7,0))</f>
+      <c r="O7" s="68" t="str">
+        <f t="shared" ref="O7" si="28">INDEX($B$2:$B$3, MATCH(MIN(F6:F7),F6:F7,0))</f>
         <v>top</v>
       </c>
       <c r="S7" s="12"/>
@@ -5602,7 +5725,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5637,19 +5760,19 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L33" si="32">MIN(C8:C9)</f>
+        <f t="shared" ref="L8" si="32">MIN(C8:C9)</f>
         <v>-338.48363289999998</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M33" si="33">MIN(D8:D9)</f>
+        <f t="shared" ref="M8" si="33">MIN(D8:D9)</f>
         <v>-329.67194119999999</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N33" si="34">MIN(E8:E9)</f>
+        <f t="shared" ref="N8" si="34">MIN(E8:E9)</f>
         <v>-319.4787159</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O33" si="35">MIN(F8:F9)</f>
+        <f t="shared" ref="O8" si="35">MIN(F8:F9)</f>
         <v>-325.83103849999998</v>
       </c>
       <c r="S8" s="12"/>
@@ -5674,7 +5797,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5692,20 +5815,20 @@
       <c r="F9" s="4">
         <v>-324.76077249999997</v>
       </c>
-      <c r="L9" s="77" t="str">
-        <f t="shared" ref="L9:L33" si="36">INDEX($B$2:$B$3, MATCH(MIN(C8:C9),C8:C9,0))</f>
+      <c r="L9" s="68" t="str">
+        <f t="shared" ref="L9" si="36">INDEX($B$2:$B$3, MATCH(MIN(C8:C9),C8:C9,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M9" s="77" t="str">
-        <f t="shared" ref="M9:M33" si="37">INDEX($B$2:$B$3, MATCH(MIN(D8:D9),D8:D9,0))</f>
+      <c r="M9" s="68" t="str">
+        <f t="shared" ref="M9" si="37">INDEX($B$2:$B$3, MATCH(MIN(D8:D9),D8:D9,0))</f>
         <v>top</v>
       </c>
-      <c r="N9" s="77" t="str">
-        <f t="shared" ref="N9:N33" si="38">INDEX($B$2:$B$3, MATCH(MIN(E8:E9),E8:E9,0))</f>
+      <c r="N9" s="68" t="str">
+        <f t="shared" ref="N9" si="38">INDEX($B$2:$B$3, MATCH(MIN(E8:E9),E8:E9,0))</f>
         <v>top</v>
       </c>
-      <c r="O9" s="77" t="str">
-        <f t="shared" ref="O9:O33" si="39">INDEX($B$2:$B$3, MATCH(MIN(F8:F9),F8:F9,0))</f>
+      <c r="O9" s="68" t="str">
+        <f t="shared" ref="O9" si="39">INDEX($B$2:$B$3, MATCH(MIN(F8:F9),F8:F9,0))</f>
         <v>top</v>
       </c>
       <c r="S9" s="12"/>
@@ -5726,11 +5849,11 @@
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="6"/>
-        <v>-279.42382259999999</v>
+        <v>-278.32116409999998</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -5765,19 +5888,19 @@
         <v>-0.74254650000000311</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L33" si="43">MIN(C10:C11)</f>
+        <f t="shared" ref="L10" si="43">MIN(C10:C11)</f>
         <v>-330.61574289999999</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M33" si="44">MIN(D10:D11)</f>
+        <f t="shared" ref="M10" si="44">MIN(D10:D11)</f>
         <v>-321.16718809999998</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N33" si="45">MIN(E10:E11)</f>
+        <f t="shared" ref="N10" si="45">MIN(E10:E11)</f>
         <v>-310.6238176</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O33" si="46">MIN(F10:F11)</f>
+        <f t="shared" ref="O10" si="46">MIN(F10:F11)</f>
         <v>-317.06582639999999</v>
       </c>
       <c r="S10" s="12"/>
@@ -5802,7 +5925,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -5820,20 +5943,20 @@
       <c r="F11" s="4">
         <v>-317.06582639999999</v>
       </c>
-      <c r="L11" s="77" t="str">
-        <f t="shared" ref="L11:L33" si="47">INDEX($B$2:$B$3, MATCH(MIN(C10:C11),C10:C11,0))</f>
+      <c r="L11" s="68" t="str">
+        <f t="shared" ref="L11" si="47">INDEX($B$2:$B$3, MATCH(MIN(C10:C11),C10:C11,0))</f>
         <v>top</v>
       </c>
-      <c r="M11" s="77" t="str">
-        <f t="shared" ref="M11:M33" si="48">INDEX($B$2:$B$3, MATCH(MIN(D10:D11),D10:D11,0))</f>
+      <c r="M11" s="68" t="str">
+        <f t="shared" ref="M11" si="48">INDEX($B$2:$B$3, MATCH(MIN(D10:D11),D10:D11,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N11" s="77" t="str">
-        <f t="shared" ref="N11:N33" si="49">INDEX($B$2:$B$3, MATCH(MIN(E10:E11),E10:E11,0))</f>
+      <c r="N11" s="68" t="str">
+        <f t="shared" ref="N11" si="49">INDEX($B$2:$B$3, MATCH(MIN(E10:E11),E10:E11,0))</f>
         <v>top</v>
       </c>
-      <c r="O11" s="77" t="str">
-        <f t="shared" ref="O11:O33" si="50">INDEX($B$2:$B$3, MATCH(MIN(F10:F11),F10:F11,0))</f>
+      <c r="O11" s="68" t="str">
+        <f t="shared" ref="O11" si="50">INDEX($B$2:$B$3, MATCH(MIN(F10:F11),F10:F11,0))</f>
         <v>hollow1</v>
       </c>
       <c r="S11" s="12"/>
@@ -5858,7 +5981,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5893,19 +6016,19 @@
         <v>-0.61808980000000702</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L33" si="54">MIN(C12:C13)</f>
+        <f t="shared" ref="L12" si="54">MIN(C12:C13)</f>
         <v>-321.0154321</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M33" si="55">MIN(D12:D13)</f>
+        <f t="shared" ref="M12" si="55">MIN(D12:D13)</f>
         <v>-312.22010449999999</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N33" si="56">MIN(E12:E13)</f>
+        <f t="shared" ref="N12" si="56">MIN(E12:E13)</f>
         <v>-301.60185960000001</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O33" si="57">MIN(F12:F13)</f>
+        <f t="shared" ref="O12" si="57">MIN(F12:F13)</f>
         <v>-307.82089439999999</v>
       </c>
       <c r="S12" s="12"/>
@@ -5930,7 +6053,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5948,20 +6071,20 @@
       <c r="F13" s="4">
         <v>-307.82089439999999</v>
       </c>
-      <c r="L13" s="77" t="str">
-        <f t="shared" ref="L13:L33" si="58">INDEX($B$2:$B$3, MATCH(MIN(C12:C13),C12:C13,0))</f>
+      <c r="L13" s="68" t="str">
+        <f t="shared" ref="L13" si="58">INDEX($B$2:$B$3, MATCH(MIN(C12:C13),C12:C13,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M13" s="77" t="str">
-        <f t="shared" ref="M13:M33" si="59">INDEX($B$2:$B$3, MATCH(MIN(D12:D13),D12:D13,0))</f>
+      <c r="M13" s="68" t="str">
+        <f t="shared" ref="M13" si="59">INDEX($B$2:$B$3, MATCH(MIN(D12:D13),D12:D13,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N13" s="77" t="str">
-        <f t="shared" ref="N13:N33" si="60">INDEX($B$2:$B$3, MATCH(MIN(E12:E13),E12:E13,0))</f>
+      <c r="N13" s="68" t="str">
+        <f t="shared" ref="N13" si="60">INDEX($B$2:$B$3, MATCH(MIN(E12:E13),E12:E13,0))</f>
         <v>top</v>
       </c>
-      <c r="O13" s="77" t="str">
-        <f t="shared" ref="O13:O33" si="61">INDEX($B$2:$B$3, MATCH(MIN(F12:F13),F12:F13,0))</f>
+      <c r="O13" s="68" t="str">
+        <f t="shared" ref="O13" si="61">INDEX($B$2:$B$3, MATCH(MIN(F12:F13),F12:F13,0))</f>
         <v>hollow1</v>
       </c>
       <c r="S13" s="12"/>
@@ -5986,7 +6109,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -6021,19 +6144,19 @@
         <v>-1.3988039000000185</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L33" si="65">MIN(C14:C15)</f>
+        <f t="shared" ref="L14" si="65">MIN(C14:C15)</f>
         <v>-309.6807632</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M33" si="66">MIN(D14:D15)</f>
+        <f t="shared" ref="M14" si="66">MIN(D14:D15)</f>
         <v>-300.32129579999997</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N33" si="67">MIN(E14:E15)</f>
+        <f t="shared" ref="N14" si="67">MIN(E14:E15)</f>
         <v>-290.51623310000002</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O33" si="68">MIN(F14:F15)</f>
+        <f t="shared" ref="O14" si="68">MIN(F14:F15)</f>
         <v>-296.9272302</v>
       </c>
       <c r="S14" s="12"/>
@@ -6058,7 +6181,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6076,20 +6199,20 @@
       <c r="F15" s="4">
         <v>-296.9272302</v>
       </c>
-      <c r="L15" s="77" t="str">
-        <f t="shared" ref="L15:L33" si="69">INDEX($B$2:$B$3, MATCH(MIN(C14:C15),C14:C15,0))</f>
+      <c r="L15" s="68" t="str">
+        <f t="shared" ref="L15" si="69">INDEX($B$2:$B$3, MATCH(MIN(C14:C15),C14:C15,0))</f>
         <v>top</v>
       </c>
-      <c r="M15" s="77" t="str">
-        <f t="shared" ref="M15:M33" si="70">INDEX($B$2:$B$3, MATCH(MIN(D14:D15),D14:D15,0))</f>
+      <c r="M15" s="68" t="str">
+        <f t="shared" ref="M15" si="70">INDEX($B$2:$B$3, MATCH(MIN(D14:D15),D14:D15,0))</f>
         <v>top</v>
       </c>
-      <c r="N15" s="77" t="str">
-        <f t="shared" ref="N15:N33" si="71">INDEX($B$2:$B$3, MATCH(MIN(E14:E15),E14:E15,0))</f>
+      <c r="N15" s="68" t="str">
+        <f t="shared" ref="N15" si="71">INDEX($B$2:$B$3, MATCH(MIN(E14:E15),E14:E15,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O15" s="77" t="str">
-        <f t="shared" ref="O15:O33" si="72">INDEX($B$2:$B$3, MATCH(MIN(F14:F15),F14:F15,0))</f>
+      <c r="O15" s="68" t="str">
+        <f t="shared" ref="O15" si="72">INDEX($B$2:$B$3, MATCH(MIN(F14:F15),F14:F15,0))</f>
         <v>hollow1</v>
       </c>
       <c r="S15" s="12"/>
@@ -6114,7 +6237,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -6149,20 +6272,20 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L33" si="76">MIN(C16:C17)</f>
+        <f t="shared" ref="L16" si="76">MIN(C16:C17)</f>
         <v>-291.1315558</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M33" si="77">MIN(D16:D17)</f>
+        <f t="shared" ref="M16" si="77">MIN(D16:D17)</f>
         <v>-282.51854489999999</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N33" si="78">MIN(E16:E17)</f>
+        <f t="shared" ref="N16" si="78">MIN(E16:E17)</f>
         <v>-272.72633660000002</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O33" si="79">MIN(F16:F17)</f>
-        <v>-279.42382259999999</v>
+        <f>MIN(F17)</f>
+        <v>-278.32116409999998</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" s="12" t="s">
@@ -6186,7 +6309,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -6204,20 +6327,20 @@
       <c r="F17" s="4">
         <v>-278.32116409999998</v>
       </c>
-      <c r="L17" s="77" t="str">
-        <f t="shared" ref="L17:L33" si="80">INDEX($B$2:$B$3, MATCH(MIN(C16:C17),C16:C17,0))</f>
+      <c r="L17" s="68" t="str">
+        <f t="shared" ref="L17" si="79">INDEX($B$2:$B$3, MATCH(MIN(C16:C17),C16:C17,0))</f>
         <v>top</v>
       </c>
-      <c r="M17" s="77" t="str">
-        <f t="shared" ref="M17:M33" si="81">INDEX($B$2:$B$3, MATCH(MIN(D16:D17),D16:D17,0))</f>
+      <c r="M17" s="68" t="str">
+        <f t="shared" ref="M17" si="80">INDEX($B$2:$B$3, MATCH(MIN(D16:D17),D16:D17,0))</f>
         <v>top</v>
       </c>
-      <c r="N17" s="77" t="str">
-        <f t="shared" ref="N17:N33" si="82">INDEX($B$2:$B$3, MATCH(MIN(E16:E17),E16:E17,0))</f>
+      <c r="N17" s="68" t="str">
+        <f t="shared" ref="N17" si="81">INDEX($B$2:$B$3, MATCH(MIN(E16:E17),E16:E17,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O17" s="77" t="str">
-        <f t="shared" ref="O17:O33" si="83">INDEX($B$2:$B$3, MATCH(MIN(F16:F17),F16:F17,0))</f>
+      <c r="O17" s="68" t="str">
+        <f t="shared" ref="O17" si="82">INDEX($B$2:$B$3, MATCH(MIN(F16:F17),F16:F17,0))</f>
         <v>top</v>
       </c>
       <c r="S17" s="12"/>
@@ -6242,7 +6365,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -6265,36 +6388,36 @@
         <v>-0.13072579999999334</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="84">MIN(D18:D19)-D18</f>
+        <f t="shared" ref="H18" si="83">MIN(D18:D19)-D18</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18" si="85">MIN(E18:E19)-E18</f>
+        <f t="shared" ref="I18" si="84">MIN(E18:E19)-E18</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18" si="86">MIN(F18:F19)-F18</f>
+        <f t="shared" ref="J18" si="85">MIN(F18:F19)-F18</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L33" si="87">MIN(C18:C19)</f>
+        <f t="shared" ref="L18" si="86">MIN(C18:C19)</f>
         <v>-268.79816779999999</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M33" si="88">MIN(D18:D19)</f>
+        <f t="shared" ref="M18" si="87">MIN(D18:D19)</f>
         <v>-259.8222859</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N33" si="89">MIN(E18:E19)</f>
+        <f t="shared" ref="N18" si="88">MIN(E18:E19)</f>
         <v>-250.609666</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O33" si="90">MIN(F18:F19)</f>
+        <f t="shared" ref="O18" si="89">MIN(F18:F19)</f>
         <v>-257.14038399999998</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -6312,25 +6435,25 @@
       <c r="F19" s="4">
         <v>-256.8490458</v>
       </c>
-      <c r="L19" s="77" t="str">
-        <f t="shared" ref="L19:L33" si="91">INDEX($B$2:$B$3, MATCH(MIN(C18:C19),C18:C19,0))</f>
+      <c r="L19" s="68" t="str">
+        <f t="shared" ref="L19" si="90">INDEX($B$2:$B$3, MATCH(MIN(C18:C19),C18:C19,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M19" s="77" t="str">
-        <f t="shared" ref="M19:M33" si="92">INDEX($B$2:$B$3, MATCH(MIN(D18:D19),D18:D19,0))</f>
+      <c r="M19" s="68" t="str">
+        <f t="shared" ref="M19" si="91">INDEX($B$2:$B$3, MATCH(MIN(D18:D19),D18:D19,0))</f>
         <v>top</v>
       </c>
-      <c r="N19" s="77" t="str">
-        <f t="shared" ref="N19:N33" si="93">INDEX($B$2:$B$3, MATCH(MIN(E18:E19),E18:E19,0))</f>
+      <c r="N19" s="68" t="str">
+        <f t="shared" ref="N19" si="92">INDEX($B$2:$B$3, MATCH(MIN(E18:E19),E18:E19,0))</f>
         <v>top</v>
       </c>
-      <c r="O19" s="77" t="str">
-        <f t="shared" ref="O19:O33" si="94">INDEX($B$2:$B$3, MATCH(MIN(F18:F19),F18:F19,0))</f>
+      <c r="O19" s="68" t="str">
+        <f t="shared" ref="O19" si="93">INDEX($B$2:$B$3, MATCH(MIN(F18:F19),F18:F19,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -6353,23 +6476,23 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="95">MIN(D20:D21)-D20</f>
+        <f t="shared" ref="H20" si="94">MIN(D20:D21)-D20</f>
         <v>-6.5332230999999865</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20" si="96">MIN(E20:E21)-E20</f>
+        <f t="shared" ref="I20" si="95">MIN(E20:E21)-E20</f>
         <v>-0.91445040000002109</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="97">MIN(F20:F21)-F20</f>
+        <f t="shared" ref="J20" si="96">MIN(F20:F21)-F20</f>
         <v>-3.4154474999999707</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L33" si="98">MIN(C20:C21)</f>
+        <f t="shared" ref="L20" si="97">MIN(C20:C21)</f>
         <v>-342.82512450000002</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M33" si="99">MIN(D20:D21)</f>
+        <f t="shared" ref="M20" si="98">MIN(D20:D21)</f>
         <v>-333.07806529999999</v>
       </c>
       <c r="N20">
@@ -6377,12 +6500,12 @@
         <v>-324.28744710000001</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O33" si="100">MIN(F20:F21)</f>
+        <f t="shared" ref="O20" si="99">MIN(F20:F21)</f>
         <v>-327.65507559999998</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -6400,25 +6523,25 @@
       <c r="F21" s="4">
         <v>-327.65507559999998</v>
       </c>
-      <c r="L21" s="77" t="str">
-        <f t="shared" ref="L21:L33" si="101">INDEX($B$2:$B$3, MATCH(MIN(C20:C21),C20:C21,0))</f>
+      <c r="L21" s="68" t="str">
+        <f t="shared" ref="L21" si="100">INDEX($B$2:$B$3, MATCH(MIN(C20:C21),C20:C21,0))</f>
         <v>top</v>
       </c>
-      <c r="M21" s="77" t="str">
-        <f t="shared" ref="M21:M33" si="102">INDEX($B$2:$B$3, MATCH(MIN(D20:D21),D20:D21,0))</f>
+      <c r="M21" s="68" t="str">
+        <f t="shared" ref="M21" si="101">INDEX($B$2:$B$3, MATCH(MIN(D20:D21),D20:D21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N21" s="77" t="str">
-        <f t="shared" ref="N21:N33" si="103">INDEX($B$2:$B$3, MATCH(MIN(E20:E21),E20:E21,0))</f>
+      <c r="N21" s="68" t="str">
+        <f t="shared" ref="N21" si="102">INDEX($B$2:$B$3, MATCH(MIN(E20:E21),E20:E21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O21" s="77" t="str">
-        <f t="shared" ref="O21:O33" si="104">INDEX($B$2:$B$3, MATCH(MIN(F20:F21),F20:F21,0))</f>
+      <c r="O21" s="68" t="str">
+        <f t="shared" ref="O21" si="103">INDEX($B$2:$B$3, MATCH(MIN(F20:F21),F20:F21,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -6441,36 +6564,36 @@
         <v>-0.32564810000002353</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22" si="105">MIN(D22:D23)-D22</f>
+        <f t="shared" ref="H22" si="104">MIN(D22:D23)-D22</f>
         <v>-1.8890000000055807E-3</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="106">MIN(E22:E23)-E22</f>
+        <f t="shared" ref="I22" si="105">MIN(E22:E23)-E22</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22" si="107">MIN(F22:F23)-F22</f>
+        <f t="shared" ref="J22" si="106">MIN(F22:F23)-F22</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L33" si="108">MIN(C22:C23)</f>
+        <f t="shared" ref="L22" si="107">MIN(C22:C23)</f>
         <v>-351.24990320000001</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M33" si="109">MIN(D22:D23)</f>
+        <f t="shared" ref="M22" si="108">MIN(D22:D23)</f>
         <v>-340.50231339999999</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N33" si="110">MIN(E22:E23)</f>
+        <f t="shared" ref="N22" si="109">MIN(E22:E23)</f>
         <v>-331.25346730000001</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O33" si="111">MIN(F22:F23)</f>
+        <f t="shared" ref="O22" si="110">MIN(F22:F23)</f>
         <v>-338.83313129999999</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -6488,25 +6611,25 @@
       <c r="F23" s="4">
         <v>-338.6715385</v>
       </c>
-      <c r="L23" s="77" t="str">
-        <f t="shared" ref="L23:L33" si="112">INDEX($B$2:$B$3, MATCH(MIN(C22:C23),C22:C23,0))</f>
+      <c r="L23" s="68" t="str">
+        <f t="shared" ref="L23" si="111">INDEX($B$2:$B$3, MATCH(MIN(C22:C23),C22:C23,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M23" s="77" t="str">
-        <f t="shared" ref="M23:M33" si="113">INDEX($B$2:$B$3, MATCH(MIN(D22:D23),D22:D23,0))</f>
+      <c r="M23" s="68" t="str">
+        <f t="shared" ref="M23" si="112">INDEX($B$2:$B$3, MATCH(MIN(D22:D23),D22:D23,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N23" s="77" t="str">
-        <f t="shared" ref="N23:N33" si="114">INDEX($B$2:$B$3, MATCH(MIN(E22:E23),E22:E23,0))</f>
+      <c r="N23" s="68" t="str">
+        <f t="shared" ref="N23" si="113">INDEX($B$2:$B$3, MATCH(MIN(E22:E23),E22:E23,0))</f>
         <v>top</v>
       </c>
-      <c r="O23" s="77" t="str">
-        <f t="shared" ref="O23:O33" si="115">INDEX($B$2:$B$3, MATCH(MIN(F22:F23),F22:F23,0))</f>
+      <c r="O23" s="68" t="str">
+        <f t="shared" ref="O23" si="114">INDEX($B$2:$B$3, MATCH(MIN(F22:F23),F22:F23,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6529,36 +6652,36 @@
         <v>-0.30936239999999771</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="116">MIN(D24:D25)-D24</f>
+        <f t="shared" ref="H24" si="115">MIN(D24:D25)-D24</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="117">MIN(E24:E25)-E24</f>
+        <f t="shared" ref="I24" si="116">MIN(E24:E25)-E24</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="118">MIN(F24:F25)-F24</f>
+        <f t="shared" ref="J24" si="117">MIN(F24:F25)-F24</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L33" si="119">MIN(C24:C25)</f>
+        <f t="shared" ref="L24" si="118">MIN(C24:C25)</f>
         <v>-358.11986439999998</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M33" si="120">MIN(D24:D25)</f>
+        <f t="shared" ref="M24" si="119">MIN(D24:D25)</f>
         <v>-349.08960200000001</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N33" si="121">MIN(E24:E25)</f>
+        <f t="shared" ref="N24" si="120">MIN(E24:E25)</f>
         <v>-339.5621673</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O33" si="122">MIN(F24:F25)</f>
+        <f t="shared" ref="O24" si="121">MIN(F24:F25)</f>
         <v>-346.0113073</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -6576,25 +6699,25 @@
       <c r="F25" s="4">
         <v>-345.40550009999998</v>
       </c>
-      <c r="L25" s="77" t="str">
-        <f t="shared" ref="L25:L33" si="123">INDEX($B$2:$B$3, MATCH(MIN(C24:C25),C24:C25,0))</f>
+      <c r="L25" s="68" t="str">
+        <f t="shared" ref="L25" si="122">INDEX($B$2:$B$3, MATCH(MIN(C24:C25),C24:C25,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M25" s="77" t="str">
-        <f t="shared" ref="M25:M33" si="124">INDEX($B$2:$B$3, MATCH(MIN(D24:D25),D24:D25,0))</f>
+      <c r="M25" s="68" t="str">
+        <f t="shared" ref="M25" si="123">INDEX($B$2:$B$3, MATCH(MIN(D24:D25),D24:D25,0))</f>
         <v>top</v>
       </c>
-      <c r="N25" s="77" t="str">
-        <f t="shared" ref="N25:N33" si="125">INDEX($B$2:$B$3, MATCH(MIN(E24:E25),E24:E25,0))</f>
+      <c r="N25" s="68" t="str">
+        <f t="shared" ref="N25" si="124">INDEX($B$2:$B$3, MATCH(MIN(E24:E25),E24:E25,0))</f>
         <v>top</v>
       </c>
-      <c r="O25" s="77" t="str">
-        <f t="shared" ref="O25:O33" si="126">INDEX($B$2:$B$3, MATCH(MIN(F24:F25),F24:F25,0))</f>
+      <c r="O25" s="68" t="str">
+        <f t="shared" ref="O25" si="125">INDEX($B$2:$B$3, MATCH(MIN(F24:F25),F24:F25,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -6617,36 +6740,36 @@
         <v>-0.22654349999999113</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="127">MIN(D26:D27)-D26</f>
+        <f t="shared" ref="H26" si="126">MIN(D26:D27)-D26</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="128">MIN(E26:E27)-E26</f>
+        <f t="shared" ref="I26" si="127">MIN(E26:E27)-E26</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="129">MIN(F26:F27)-F26</f>
+        <f t="shared" ref="J26" si="128">MIN(F26:F27)-F26</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L33" si="130">MIN(C26:C27)</f>
+        <f t="shared" ref="L26" si="129">MIN(C26:C27)</f>
         <v>-358.90967360000002</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M33" si="131">MIN(D26:D27)</f>
+        <f t="shared" ref="M26" si="130">MIN(D26:D27)</f>
         <v>-350.22237589999997</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N33" si="132">MIN(E26:E27)</f>
+        <f t="shared" ref="N26" si="131">MIN(E26:E27)</f>
         <v>-340.51733410000003</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O33" si="133">MIN(F26:F27)</f>
+        <f t="shared" ref="O26" si="132">MIN(F26:F27)</f>
         <v>-346.37681429999998</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6664,25 +6787,25 @@
       <c r="F27" s="4">
         <v>-345.81237590000001</v>
       </c>
-      <c r="L27" s="77" t="str">
-        <f t="shared" ref="L27:L33" si="134">INDEX($B$2:$B$3, MATCH(MIN(C26:C27),C26:C27,0))</f>
+      <c r="L27" s="68" t="str">
+        <f t="shared" ref="L27" si="133">INDEX($B$2:$B$3, MATCH(MIN(C26:C27),C26:C27,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M27" s="77" t="str">
-        <f t="shared" ref="M27:M33" si="135">INDEX($B$2:$B$3, MATCH(MIN(D26:D27),D26:D27,0))</f>
+      <c r="M27" s="68" t="str">
+        <f t="shared" ref="M27" si="134">INDEX($B$2:$B$3, MATCH(MIN(D26:D27),D26:D27,0))</f>
         <v>top</v>
       </c>
-      <c r="N27" s="77" t="str">
-        <f t="shared" ref="N27:N33" si="136">INDEX($B$2:$B$3, MATCH(MIN(E26:E27),E26:E27,0))</f>
+      <c r="N27" s="68" t="str">
+        <f t="shared" ref="N27" si="135">INDEX($B$2:$B$3, MATCH(MIN(E26:E27),E26:E27,0))</f>
         <v>top</v>
       </c>
-      <c r="O27" s="77" t="str">
-        <f t="shared" ref="O27:O33" si="137">INDEX($B$2:$B$3, MATCH(MIN(F26:F27),F26:F27,0))</f>
+      <c r="O27" s="68" t="str">
+        <f t="shared" ref="O27" si="136">INDEX($B$2:$B$3, MATCH(MIN(F26:F27),F26:F27,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -6705,36 +6828,36 @@
         <v>-0.12013569999999163</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="138">MIN(D28:D29)-D28</f>
+        <f t="shared" ref="H28" si="137">MIN(D28:D29)-D28</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="139">MIN(E28:E29)-E28</f>
+        <f t="shared" ref="I28" si="138">MIN(E28:E29)-E28</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="140">MIN(F28:F29)-F28</f>
+        <f t="shared" ref="J28" si="139">MIN(F28:F29)-F28</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:L33" si="141">MIN(C28:C29)</f>
+        <f t="shared" ref="L28" si="140">MIN(C28:C29)</f>
         <v>-338.75253099999998</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M33" si="142">MIN(D28:D29)</f>
+        <f t="shared" ref="M28" si="141">MIN(D28:D29)</f>
         <v>-330.31515889999997</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N33" si="143">MIN(E28:E29)</f>
+        <f t="shared" ref="N28" si="142">MIN(E28:E29)</f>
         <v>-320.3400451</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O33" si="144">MIN(F28:F29)</f>
+        <f t="shared" ref="O28" si="143">MIN(F28:F29)</f>
         <v>-325.19349720000002</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -6752,25 +6875,25 @@
       <c r="F29" s="4">
         <v>-325.10488379999998</v>
       </c>
-      <c r="L29" s="77" t="str">
-        <f t="shared" ref="L29:L33" si="145">INDEX($B$2:$B$3, MATCH(MIN(C28:C29),C28:C29,0))</f>
+      <c r="L29" s="68" t="str">
+        <f t="shared" ref="L29" si="144">INDEX($B$2:$B$3, MATCH(MIN(C28:C29),C28:C29,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M29" s="77" t="str">
-        <f t="shared" ref="M29:M33" si="146">INDEX($B$2:$B$3, MATCH(MIN(D28:D29),D28:D29,0))</f>
+      <c r="M29" s="68" t="str">
+        <f t="shared" ref="M29" si="145">INDEX($B$2:$B$3, MATCH(MIN(D28:D29),D28:D29,0))</f>
         <v>top</v>
       </c>
-      <c r="N29" s="77" t="str">
-        <f t="shared" ref="N29:N33" si="147">INDEX($B$2:$B$3, MATCH(MIN(E28:E29),E28:E29,0))</f>
+      <c r="N29" s="68" t="str">
+        <f t="shared" ref="N29" si="146">INDEX($B$2:$B$3, MATCH(MIN(E28:E29),E28:E29,0))</f>
         <v>top</v>
       </c>
-      <c r="O29" s="77" t="str">
-        <f t="shared" ref="O29:O33" si="148">INDEX($B$2:$B$3, MATCH(MIN(F28:F29),F28:F29,0))</f>
+      <c r="O29" s="68" t="str">
+        <f t="shared" ref="O29" si="147">INDEX($B$2:$B$3, MATCH(MIN(F28:F29),F28:F29,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -6793,36 +6916,36 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30" si="149">MIN(D30:D31)-D30</f>
+        <f t="shared" ref="H30" si="148">MIN(D30:D31)-D30</f>
         <v>-0.19784570000001622</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="150">MIN(E30:E31)-E30</f>
+        <f t="shared" ref="I30" si="149">MIN(E30:E31)-E30</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30" si="151">MIN(F30:F31)-F30</f>
+        <f t="shared" ref="J30" si="150">MIN(F30:F31)-F30</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L33" si="152">MIN(C30:C31)</f>
+        <f t="shared" ref="L30" si="151">MIN(C30:C31)</f>
         <v>-326.06019909999998</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:M33" si="153">MIN(D30:D31)</f>
+        <f t="shared" ref="M30" si="152">MIN(D30:D31)</f>
         <v>-317.4606149</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N33" si="154">MIN(E30:E31)</f>
+        <f t="shared" ref="N30" si="153">MIN(E30:E31)</f>
         <v>-307.73869910000002</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O33" si="155">MIN(F30:F31)</f>
+        <f t="shared" ref="O30" si="154">MIN(F30:F31)</f>
         <v>-312.23937640000003</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -6840,25 +6963,25 @@
       <c r="F31" s="4">
         <v>-311.99198999999999</v>
       </c>
-      <c r="L31" s="77" t="str">
-        <f t="shared" ref="L31:L33" si="156">INDEX($B$2:$B$3, MATCH(MIN(C30:C31),C30:C31,0))</f>
+      <c r="L31" s="68" t="str">
+        <f t="shared" ref="L31" si="155">INDEX($B$2:$B$3, MATCH(MIN(C30:C31),C30:C31,0))</f>
         <v>top</v>
       </c>
-      <c r="M31" s="77" t="str">
-        <f t="shared" ref="M31:M33" si="157">INDEX($B$2:$B$3, MATCH(MIN(D30:D31),D30:D31,0))</f>
+      <c r="M31" s="68" t="str">
+        <f t="shared" ref="M31" si="156">INDEX($B$2:$B$3, MATCH(MIN(D30:D31),D30:D31,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N31" s="77" t="str">
-        <f t="shared" ref="N31:N33" si="158">INDEX($B$2:$B$3, MATCH(MIN(E30:E31),E30:E31,0))</f>
+      <c r="N31" s="68" t="str">
+        <f t="shared" ref="N31" si="157">INDEX($B$2:$B$3, MATCH(MIN(E30:E31),E30:E31,0))</f>
         <v>top</v>
       </c>
-      <c r="O31" s="77" t="str">
-        <f t="shared" ref="O31:O33" si="159">INDEX($B$2:$B$3, MATCH(MIN(F30:F31),F30:F31,0))</f>
+      <c r="O31" s="68" t="str">
+        <f t="shared" ref="O31" si="158">INDEX($B$2:$B$3, MATCH(MIN(F30:F31),F30:F31,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -6881,15 +7004,15 @@
         <v>-2.393818500000009</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="160">MIN(D32:D33)-D32</f>
+        <f t="shared" ref="H32" si="159">MIN(D32:D33)-D32</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32" si="161">MIN(E32:E33)-E32</f>
+        <f t="shared" ref="I32" si="160">MIN(E32:E33)-E32</f>
         <v>-0.51435199999997394</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32" si="162">MIN(F32:F33)-F32</f>
+        <f t="shared" ref="J32" si="161">MIN(F32:F33)-F32</f>
         <v>-2.605843880000009</v>
       </c>
       <c r="L32">
@@ -6897,11 +7020,11 @@
         <v>-278.3497246</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M33" si="163">MIN(D32:D33)</f>
+        <f t="shared" ref="M32" si="162">MIN(D32:D33)</f>
         <v>-270.01116619999999</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32" si="164">MIN(E32:E33)</f>
+        <f t="shared" ref="N32" si="163">MIN(E32:E33)</f>
         <v>-260.18731359999998</v>
       </c>
       <c r="O32">
@@ -6910,7 +7033,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -6928,20 +7051,20 @@
       <c r="F33" s="4">
         <v>-268.02694860000003</v>
       </c>
-      <c r="L33" s="77" t="str">
-        <f t="shared" ref="L33" si="165">INDEX($B$2:$B$3, MATCH(MIN(C32:C33),C32:C33,0))</f>
+      <c r="L33" s="68" t="str">
+        <f t="shared" ref="L33" si="164">INDEX($B$2:$B$3, MATCH(MIN(C32:C33),C32:C33,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M33" s="77" t="str">
-        <f t="shared" ref="M33" si="166">INDEX($B$2:$B$3, MATCH(MIN(D32:D33),D32:D33,0))</f>
+      <c r="M33" s="68" t="str">
+        <f t="shared" ref="M33" si="165">INDEX($B$2:$B$3, MATCH(MIN(D32:D33),D32:D33,0))</f>
         <v>top</v>
       </c>
-      <c r="N33" s="77" t="str">
-        <f t="shared" ref="N33" si="167">INDEX($B$2:$B$3, MATCH(MIN(E32:E33),E32:E33,0))</f>
+      <c r="N33" s="68" t="str">
+        <f t="shared" ref="N33" si="166">INDEX($B$2:$B$3, MATCH(MIN(E32:E33),E32:E33,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O33" s="77" t="str">
-        <f t="shared" ref="O33" si="168">INDEX($B$2:$B$3, MATCH(MIN(F32:F33),F32:F33,0))</f>
+      <c r="O33" s="68" t="str">
+        <f t="shared" ref="O33" si="167">INDEX($B$2:$B$3, MATCH(MIN(F32:F33),F32:F33,0))</f>
         <v>hollow1</v>
       </c>
     </row>
@@ -6973,7 +7096,7 @@
   <dimension ref="B1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6982,22 +7105,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="Q1" s="75" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="Q1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="75"/>
-      <c r="T1" s="74" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C2" s="40" t="s">
@@ -7073,16 +7196,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3" s="40">
-        <v>-306.97920599000003</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3" s="40">
+        <f>single!M54</f>
         <v>-297.85147833000002</v>
       </c>
       <c r="F3" s="40">
-        <v>-288.55203122</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3" s="40">
-        <v>-293.14565368000001</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>36</v>
@@ -7095,7 +7222,7 @@
       </c>
       <c r="L3" s="40">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42967677999995457</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3" s="40">
         <f>E3-C3-$J$6</f>
@@ -7103,15 +7230,15 @@
       </c>
       <c r="N3" s="40">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39785154999997685</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3" s="40">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792290899999707</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="46">
         <f>D3+$Y$33</f>
-        <v>-306.49320599000004</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="46">
         <f>E3+$Y$34</f>
@@ -7125,7 +7252,7 @@
       </c>
       <c r="U3" s="43">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="48">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
@@ -7137,7 +7264,7 @@
       </c>
       <c r="Y3" s="46">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="46">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
@@ -7145,15 +7272,15 @@
       </c>
       <c r="AA3" s="46">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55585154999999808</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="46">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122290899999616</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="46">
         <f>Y3-AA3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.35">
@@ -7818,7 +7945,7 @@
       </c>
       <c r="G11" s="40">
         <f ca="1">overly!X9</f>
-        <v>-279.42382259999999</v>
+        <v>-278.32116409999998</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>15</v>
@@ -7837,7 +7964,7 @@
       </c>
       <c r="O11" s="40">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.10200534999997535</v>
+        <v>1.0006531500000428</v>
       </c>
       <c r="Q11" s="46">
         <f t="shared" ca="1" si="4"/>
@@ -7879,7 +8006,7 @@
       </c>
       <c r="AB11" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>0.23099465000001551</v>
+        <v>1.3336531500000337</v>
       </c>
       <c r="AC11" s="46">
         <f t="shared" ca="1" si="12"/>
@@ -8599,17 +8726,17 @@
       </c>
     </row>
     <row r="23" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q23" s="76" t="s">
+      <c r="Q23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q24" s="49"/>
@@ -8932,7 +9059,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8966,27 +9093,27 @@
       </c>
       <c r="B2">
         <f>single_b!AC3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
       <c r="C2">
         <f>dimer_b!AC3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
       <c r="D2">
         <f>triangle_b!AC3</f>
-        <v>0.28742701999999021</v>
+        <v>0.31906201999998451</v>
       </c>
       <c r="E2">
         <f>paral_b!AC3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
       <c r="F2">
         <f>island_b!AC3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
       <c r="G2">
         <f>overly_b!AC3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -9462,29 +9589,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="Q1" s="72" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="Q1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="T1" s="71" t="s">
+      <c r="R1" s="71"/>
+      <c r="T1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
@@ -9560,16 +9687,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3">
-        <v>-306.97920599000003</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3">
+        <f>single!M54</f>
         <v>-297.85147833000002</v>
       </c>
       <c r="F3">
-        <v>-288.55203122</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3">
-        <v>-293.14565368000001</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
@@ -9582,7 +9713,7 @@
       </c>
       <c r="L3">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42967677999995457</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3">
         <f>E3-C3-$J$6</f>
@@ -9590,15 +9721,15 @@
       </c>
       <c r="N3">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39785154999997685</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792290899999707</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="15">
         <f>D3+$Y$33</f>
-        <v>-306.49320599000004</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="15">
         <f>E3+$Y$34</f>
@@ -9612,7 +9743,7 @@
       </c>
       <c r="U3" s="14">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="16">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
@@ -9624,7 +9755,7 @@
       </c>
       <c r="Y3" s="15">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="15">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
@@ -9632,15 +9763,15 @@
       </c>
       <c r="AA3" s="15">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55585154999999808</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="15">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122290899999616</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="15">
         <f>Y3-AA3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -11146,6 +11277,9 @@
         <f t="shared" ca="1" si="12"/>
         <v>0.41966399999994941</v>
       </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="66"/>
@@ -11189,17 +11323,17 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="69" t="s">
+      <c r="Q23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="67"/>
@@ -11729,7 +11863,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -11804,7 +11938,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -11820,19 +11954,19 @@
       <c r="F3" s="4">
         <v>-303.37876469000003</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$5, MATCH(MIN(C2:C5),C2:C5,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$5, MATCH(MIN(D2:D5),D2:D5,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow2</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
@@ -11863,7 +11997,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -11906,7 +12040,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
@@ -11949,7 +12083,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -12026,7 +12160,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -12042,19 +12176,19 @@
       <c r="F7" s="4">
         <v>-305.21065016</v>
       </c>
-      <c r="L7" s="77" t="str">
+      <c r="L7" s="68" t="str">
         <f t="shared" ref="L7" si="14">INDEX($B$2:$B$5, MATCH(MIN(C6:C9),C6:C9,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M7" s="77" t="str">
+      <c r="M7" s="68" t="str">
         <f t="shared" ref="M7" si="15">INDEX($B$2:$B$5, MATCH(MIN(D6:D9),D6:D9,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N7" s="77" t="str">
+      <c r="N7" s="68" t="str">
         <f t="shared" ref="N7" si="16">INDEX($B$2:$B$5, MATCH(MIN(E6:E9),E6:E9,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O7" s="77" t="str">
+      <c r="O7" s="68" t="str">
         <f t="shared" ref="O7" si="17">INDEX($B$2:$B$5, MATCH(MIN(F6:F9),F6:F9,0))</f>
         <v>top</v>
       </c>
@@ -12079,7 +12213,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -12116,7 +12250,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
@@ -12153,7 +12287,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -12224,7 +12358,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -12242,19 +12376,19 @@
       <c r="F11" s="4">
         <v>-303.74097647000002</v>
       </c>
-      <c r="L11" s="77" t="str">
+      <c r="L11" s="68" t="str">
         <f t="shared" ref="L11" si="25">INDEX($B$2:$B$5, MATCH(MIN(C10:C13),C10:C13,0))</f>
         <v>top</v>
       </c>
-      <c r="M11" s="77" t="str">
+      <c r="M11" s="68" t="str">
         <f t="shared" ref="M11" si="26">INDEX($B$2:$B$5, MATCH(MIN(D10:D13),D10:D13,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N11" s="77" t="str">
+      <c r="N11" s="68" t="str">
         <f t="shared" ref="N11" si="27">INDEX($B$2:$B$5, MATCH(MIN(E10:E13),E10:E13,0))</f>
         <v>top</v>
       </c>
-      <c r="O11" s="77" t="str">
+      <c r="O11" s="68" t="str">
         <f t="shared" ref="O11" si="28">INDEX($B$2:$B$5, MATCH(MIN(F10:F13),F10:F13,0))</f>
         <v>top</v>
       </c>
@@ -12279,7 +12413,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -12318,7 +12452,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -12357,7 +12491,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -12428,7 +12562,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -12446,19 +12580,19 @@
       <c r="F15" s="4">
         <v>-299.85870648999997</v>
       </c>
-      <c r="L15" s="77" t="str">
+      <c r="L15" s="68" t="str">
         <f t="shared" ref="L15" si="36">INDEX($B$2:$B$5, MATCH(MIN(C14:C17),C14:C17,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M15" s="77" t="str">
+      <c r="M15" s="68" t="str">
         <f t="shared" ref="M15" si="37">INDEX($B$2:$B$5, MATCH(MIN(D14:D17),D14:D17,0))</f>
         <v>top</v>
       </c>
-      <c r="N15" s="77" t="str">
+      <c r="N15" s="68" t="str">
         <f t="shared" ref="N15" si="38">INDEX($B$2:$B$5, MATCH(MIN(E14:E17),E14:E17,0))</f>
         <v>top</v>
       </c>
-      <c r="O15" s="77" t="str">
+      <c r="O15" s="68" t="str">
         <f t="shared" ref="O15" si="39">INDEX($B$2:$B$5, MATCH(MIN(F14:F17),F14:F17,0))</f>
         <v>hollow1</v>
       </c>
@@ -12483,7 +12617,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -12522,7 +12656,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -12561,7 +12695,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -12613,7 +12747,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -12631,25 +12765,25 @@
       <c r="F19" s="4">
         <v>-298.21995132000001</v>
       </c>
-      <c r="L19" s="77" t="str">
+      <c r="L19" s="68" t="str">
         <f t="shared" ref="L19" si="47">INDEX($B$2:$B$5, MATCH(MIN(C18:C21),C18:C21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M19" s="77" t="str">
+      <c r="M19" s="68" t="str">
         <f t="shared" ref="M19" si="48">INDEX($B$2:$B$5, MATCH(MIN(D18:D21),D18:D21,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N19" s="77" t="str">
+      <c r="N19" s="68" t="str">
         <f t="shared" ref="N19" si="49">INDEX($B$2:$B$5, MATCH(MIN(E18:E21),E18:E21,0))</f>
         <v>top</v>
       </c>
-      <c r="O19" s="77" t="str">
+      <c r="O19" s="68" t="str">
         <f t="shared" ref="O19" si="50">INDEX($B$2:$B$5, MATCH(MIN(F18:F21),F18:F21,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -12669,7 +12803,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -12689,7 +12823,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -12741,7 +12875,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -12759,25 +12893,25 @@
       <c r="F23" s="4">
         <v>-296.47038538999999</v>
       </c>
-      <c r="L23" s="77" t="str">
+      <c r="L23" s="68" t="str">
         <f t="shared" ref="L23" si="58">INDEX($B$2:$B$5, MATCH(MIN(C22:C25),C22:C25,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M23" s="77" t="str">
+      <c r="M23" s="68" t="str">
         <f t="shared" ref="M23" si="59">INDEX($B$2:$B$5, MATCH(MIN(D22:D25),D22:D25,0))</f>
         <v>top</v>
       </c>
-      <c r="N23" s="77" t="str">
+      <c r="N23" s="68" t="str">
         <f t="shared" ref="N23" si="60">INDEX($B$2:$B$5, MATCH(MIN(E22:E25),E22:E25,0))</f>
         <v>top</v>
       </c>
-      <c r="O23" s="77" t="str">
+      <c r="O23" s="68" t="str">
         <f t="shared" ref="O23" si="61">INDEX($B$2:$B$5, MATCH(MIN(F22:F25),F22:F25,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -12797,7 +12931,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -12817,7 +12951,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -12869,7 +13003,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -12887,25 +13021,25 @@
       <c r="F27" s="4">
         <v>-293.88141166999998</v>
       </c>
-      <c r="L27" s="77" t="str">
+      <c r="L27" s="68" t="str">
         <f t="shared" ref="L27" si="67">INDEX($B$2:$B$5, MATCH(MIN(C26:C29),C26:C29,0))</f>
         <v>top2</v>
       </c>
-      <c r="M27" s="77" t="str">
+      <c r="M27" s="68" t="str">
         <f t="shared" ref="M27" si="68">INDEX($B$2:$B$5, MATCH(MIN(D26:D29),D26:D29,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N27" s="77" t="str">
+      <c r="N27" s="68" t="str">
         <f t="shared" ref="N27" si="69">INDEX($B$2:$B$5, MATCH(MIN(E26:E29),E26:E29,0))</f>
         <v>top</v>
       </c>
-      <c r="O27" s="77" t="str">
+      <c r="O27" s="68" t="str">
         <f>INDEX($B$2:$B$5, MATCH(MIN(F26:F29),F26:F29,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -12928,7 +13062,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -12948,7 +13082,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -13000,7 +13134,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -13018,25 +13152,25 @@
       <c r="F31" s="4">
         <v>-290.00583559</v>
       </c>
-      <c r="L31" s="77" t="str">
+      <c r="L31" s="68" t="str">
         <f t="shared" ref="L31" si="75">INDEX($B$2:$B$5, MATCH(MIN(C30:C33),C30:C33,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M31" s="77" t="str">
+      <c r="M31" s="68" t="str">
         <f t="shared" ref="M31" si="76">INDEX($B$2:$B$5, MATCH(MIN(D30:D33),D30:D33,0))</f>
         <v>top</v>
       </c>
-      <c r="N31" s="77" t="str">
+      <c r="N31" s="68" t="str">
         <f t="shared" ref="N31" si="77">INDEX($B$2:$B$5, MATCH(MIN(E30:E33),E30:E33,0))</f>
         <v>top</v>
       </c>
-      <c r="O31" s="77" t="str">
+      <c r="O31" s="68" t="str">
         <f t="shared" ref="O31" si="78">INDEX($B$2:$B$5, MATCH(MIN(F30:F33),F30:F33,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -13056,7 +13190,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -13079,7 +13213,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -13131,7 +13265,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -13149,25 +13283,25 @@
       <c r="F35" s="4">
         <v>-286.76377459999998</v>
       </c>
-      <c r="L35" s="77" t="str">
+      <c r="L35" s="68" t="str">
         <f t="shared" ref="L35" si="85">INDEX($B$2:$B$5, MATCH(MIN(C34:C37),C34:C37,0))</f>
         <v>top</v>
       </c>
-      <c r="M35" s="77" t="str">
+      <c r="M35" s="68" t="str">
         <f t="shared" ref="M35" si="86">INDEX($B$2:$B$5, MATCH(MIN(D34:D37),D34:D37,0))</f>
         <v>top2</v>
       </c>
-      <c r="N35" s="77" t="str">
+      <c r="N35" s="68" t="str">
         <f t="shared" ref="N35" si="87">INDEX($B$2:$B$5, MATCH(MIN(E34:E37),E34:E37,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O35" s="77" t="str">
+      <c r="O35" s="68" t="str">
         <f t="shared" ref="O35" si="88">INDEX($B$2:$B$5, MATCH(MIN(F34:F37),F34:F37,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -13187,7 +13321,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -13207,7 +13341,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -13259,7 +13393,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -13277,25 +13411,25 @@
       <c r="F39" s="4">
         <v>-304.31403046000003</v>
       </c>
-      <c r="L39" s="77" t="str">
+      <c r="L39" s="68" t="str">
         <f t="shared" ref="L39" si="96">INDEX($B$2:$B$5, MATCH(MIN(C38:C41),C38:C41,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M39" s="77" t="str">
+      <c r="M39" s="68" t="str">
         <f t="shared" ref="M39" si="97">INDEX($B$2:$B$5, MATCH(MIN(D38:D41),D38:D41,0))</f>
         <v>top</v>
       </c>
-      <c r="N39" s="77" t="str">
+      <c r="N39" s="68" t="str">
         <f t="shared" ref="N39" si="98">INDEX($B$2:$B$5, MATCH(MIN(E38:E41),E38:E41,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O39" s="77" t="str">
+      <c r="O39" s="68" t="str">
         <f t="shared" ref="O39" si="99">INDEX($B$2:$B$5, MATCH(MIN(F38:F41),F38:F41,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -13315,7 +13449,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -13335,7 +13469,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -13387,7 +13521,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -13405,25 +13539,25 @@
       <c r="F43" s="4">
         <v>-306.28620345000002</v>
       </c>
-      <c r="L43" s="77" t="str">
+      <c r="L43" s="68" t="str">
         <f t="shared" ref="L43" si="107">INDEX($B$2:$B$5, MATCH(MIN(C42:C45),C42:C45,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M43" s="77" t="str">
+      <c r="M43" s="68" t="str">
         <f t="shared" ref="M43" si="108">INDEX($B$2:$B$5, MATCH(MIN(D42:D45),D42:D45,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N43" s="77" t="str">
+      <c r="N43" s="68" t="str">
         <f t="shared" ref="N43" si="109">INDEX($B$2:$B$5, MATCH(MIN(E42:E45),E42:E45,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O43" s="77" t="str">
+      <c r="O43" s="68" t="str">
         <f t="shared" ref="O43" si="110">INDEX($B$2:$B$5, MATCH(MIN(F42:F45),F42:F45,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -13443,7 +13577,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -13463,7 +13597,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -13515,7 +13649,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -13533,25 +13667,25 @@
       <c r="F47" s="4">
         <v>-305.87888800000002</v>
       </c>
-      <c r="L47" s="77" t="str">
+      <c r="L47" s="68" t="str">
         <f t="shared" ref="L47" si="118">INDEX($B$2:$B$5, MATCH(MIN(C46:C49),C46:C49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M47" s="77" t="str">
+      <c r="M47" s="68" t="str">
         <f t="shared" ref="M47" si="119">INDEX($B$2:$B$5, MATCH(MIN(D46:D49),D46:D49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N47" s="77" t="str">
+      <c r="N47" s="68" t="str">
         <f t="shared" ref="N47" si="120">INDEX($B$2:$B$5, MATCH(MIN(E46:E49),E46:E49,0))</f>
         <v>top</v>
       </c>
-      <c r="O47" s="77" t="str">
+      <c r="O47" s="68" t="str">
         <f t="shared" ref="O47" si="121">INDEX($B$2:$B$5, MATCH(MIN(F46:F49),F46:F49,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -13571,7 +13705,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -13591,7 +13725,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -13643,7 +13777,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -13661,25 +13795,25 @@
       <c r="F51" s="4">
         <v>-304.01365630999999</v>
       </c>
-      <c r="L51" s="77" t="str">
+      <c r="L51" s="68" t="str">
         <f t="shared" ref="L51" si="129">INDEX($B$2:$B$5, MATCH(MIN(C50:C53),C50:C53,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M51" s="77" t="str">
+      <c r="M51" s="68" t="str">
         <f t="shared" ref="M51" si="130">INDEX($B$2:$B$5, MATCH(MIN(D50:D53),D50:D53,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N51" s="77" t="str">
+      <c r="N51" s="68" t="str">
         <f t="shared" ref="N51" si="131">INDEX($B$2:$B$5, MATCH(MIN(E50:E53),E50:E53,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O51" s="77" t="str">
+      <c r="O51" s="68" t="str">
         <f t="shared" ref="O51" si="132">INDEX($B$2:$B$5, MATCH(MIN(F50:F53),F50:F53,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -13699,7 +13833,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -13719,7 +13853,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -13771,7 +13905,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -13789,25 +13923,25 @@
       <c r="F55" s="4">
         <v>-300.20758216000002</v>
       </c>
-      <c r="L55" s="77" t="str">
+      <c r="L55" s="68" t="str">
         <f t="shared" ref="L55" si="140">INDEX($B$2:$B$5, MATCH(MIN(C54:C57),C54:C57,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M55" s="77" t="str">
+      <c r="M55" s="68" t="str">
         <f t="shared" ref="M55" si="141">INDEX($B$2:$B$5, MATCH(MIN(D54:D57),D54:D57,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N55" s="77" t="str">
+      <c r="N55" s="68" t="str">
         <f t="shared" ref="N55" si="142">INDEX($B$2:$B$5, MATCH(MIN(E54:E57),E54:E57,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O55" s="77" t="str">
+      <c r="O55" s="68" t="str">
         <f t="shared" ref="O55" si="143">INDEX($B$2:$B$5, MATCH(MIN(F54:F57),F54:F57,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -13827,7 +13961,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -13847,7 +13981,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -13895,7 +14029,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -13913,25 +14047,25 @@
       <c r="F59" s="4">
         <v>-297.51800698</v>
       </c>
-      <c r="L59" s="77" t="str">
+      <c r="L59" s="68" t="str">
         <f t="shared" ref="L59" si="148">INDEX($B$2:$B$5, MATCH(MIN(C58:C61),C58:C61,0))</f>
         <v>top</v>
       </c>
-      <c r="M59" s="77" t="str">
+      <c r="M59" s="68" t="str">
         <f t="shared" ref="M59" si="149">INDEX($B$2:$B$5, MATCH(MIN(D58:D61),D58:D61,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N59" s="77" t="str">
+      <c r="N59" s="68" t="str">
         <f t="shared" ref="N59" si="150">INDEX($B$2:$B$5, MATCH(MIN(E58:E61),E58:E61,0))</f>
         <v>top</v>
       </c>
-      <c r="O59" s="77" t="str">
+      <c r="O59" s="68" t="str">
         <f t="shared" ref="O59" si="151">INDEX($B$2:$B$5, MATCH(MIN(F58:F61),F58:F61,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -13951,7 +14085,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -13971,7 +14105,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -14023,7 +14157,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -14041,25 +14175,25 @@
       <c r="F63" s="4">
         <v>-287.53870759</v>
       </c>
-      <c r="L63" s="77" t="str">
+      <c r="L63" s="68" t="str">
         <f t="shared" ref="L63" si="158">INDEX($B$2:$B$5, MATCH(MIN(C62:C65),C62:C65,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M63" s="77" t="str">
+      <c r="M63" s="68" t="str">
         <f t="shared" ref="M63" si="159">INDEX($B$2:$B$5, MATCH(MIN(D62:D65),D62:D65,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N63" s="77" t="str">
+      <c r="N63" s="68" t="str">
         <f t="shared" ref="N63" si="160">INDEX($B$2:$B$5, MATCH(MIN(E62:E65),E62:E65,0))</f>
         <v>top</v>
       </c>
-      <c r="O63" s="77" t="str">
+      <c r="O63" s="68" t="str">
         <f t="shared" ref="O63" si="161">INDEX($B$2:$B$5, MATCH(MIN(F62:F65),F62:F65,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -14079,7 +14213,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -14125,29 +14259,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="Q1" s="72" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="Q1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="T1" s="71" t="s">
+      <c r="R1" s="71"/>
+      <c r="T1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
@@ -14223,16 +14357,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3">
-        <v>-306.97920599000003</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3">
+        <f>single!M54</f>
         <v>-297.85147833000002</v>
       </c>
       <c r="F3">
-        <v>-288.55203122</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3">
-        <v>-293.14565368000001</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
@@ -14245,7 +14383,7 @@
       </c>
       <c r="L3">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42967677999995457</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3">
         <f>E3-C3-$J$6</f>
@@ -14253,15 +14391,15 @@
       </c>
       <c r="N3">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39785154999997685</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792290899999707</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="15">
         <f>D3+$Y$33</f>
-        <v>-306.49320599000004</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="15">
         <f>E3+$Y$34</f>
@@ -14275,7 +14413,7 @@
       </c>
       <c r="U3" s="14">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="16">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
@@ -14287,7 +14425,7 @@
       </c>
       <c r="Y3" s="15">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="15">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
@@ -14295,15 +14433,15 @@
       </c>
       <c r="AA3" s="15">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55585154999999808</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="15">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122290899999616</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="15">
         <f>Y3-AA3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -15800,17 +15938,17 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q23" s="69" t="s">
+      <c r="Q23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Q24" s="24"/>
@@ -16132,8 +16270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16172,7 +16310,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -16248,7 +16386,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -16264,19 +16402,19 @@
       <c r="F3" s="4">
         <v>-306.92283006000002</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$5, MATCH(MIN(C2:C5),C2:C5,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$5, MATCH(MIN(D2:D5),D2:D5,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow3</v>
       </c>
@@ -16308,7 +16446,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -16352,7 +16490,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -16396,7 +16534,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -16474,7 +16612,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -16490,19 +16628,19 @@
       <c r="F7" s="4">
         <v>-309.76656703999998</v>
       </c>
-      <c r="L7" s="77" t="str">
+      <c r="L7" s="68" t="str">
         <f t="shared" ref="L7" si="14">INDEX($B$2:$B$5, MATCH(MIN(C6:C9),C6:C9,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M7" s="77" t="str">
+      <c r="M7" s="68" t="str">
         <f t="shared" ref="M7" si="15">INDEX($B$2:$B$5, MATCH(MIN(D6:D9),D6:D9,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N7" s="77" t="str">
+      <c r="N7" s="68" t="str">
         <f t="shared" ref="N7" si="16">INDEX($B$2:$B$5, MATCH(MIN(E6:E9),E6:E9,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O7" s="77" t="str">
+      <c r="O7" s="68" t="str">
         <f t="shared" ref="O7" si="17">INDEX($B$2:$B$5, MATCH(MIN(F6:F9),F6:F9,0))</f>
         <v>hollow3</v>
       </c>
@@ -16528,7 +16666,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -16566,7 +16704,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -16604,7 +16742,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -16676,7 +16814,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -16694,19 +16832,19 @@
       <c r="F11" s="4">
         <v>-308.77642302999999</v>
       </c>
-      <c r="L11" s="77" t="str">
+      <c r="L11" s="68" t="str">
         <f t="shared" ref="L11" si="25">INDEX($B$2:$B$5, MATCH(MIN(C10:C13),C10:C13,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M11" s="77" t="str">
+      <c r="M11" s="68" t="str">
         <f t="shared" ref="M11" si="26">INDEX($B$2:$B$5, MATCH(MIN(D10:D13),D10:D13,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N11" s="77" t="str">
+      <c r="N11" s="68" t="str">
         <f t="shared" ref="N11" si="27">INDEX($B$2:$B$5, MATCH(MIN(E10:E13),E10:E13,0))</f>
         <v>top2</v>
       </c>
-      <c r="O11" s="77" t="str">
+      <c r="O11" s="68" t="str">
         <f t="shared" ref="O11" si="28">INDEX($B$2:$B$5, MATCH(MIN(F10:F13),F10:F13,0))</f>
         <v>hollow3</v>
       </c>
@@ -16732,7 +16870,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -16772,7 +16910,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -16812,7 +16950,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -16884,7 +17022,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -16902,19 +17040,19 @@
       <c r="F15" s="4">
         <v>-303.21869576</v>
       </c>
-      <c r="L15" s="77" t="str">
+      <c r="L15" s="68" t="str">
         <f t="shared" ref="L15" si="36">INDEX($B$2:$B$5, MATCH(MIN(C14:C17),C14:C17,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M15" s="77" t="str">
+      <c r="M15" s="68" t="str">
         <f t="shared" ref="M15" si="37">INDEX($B$2:$B$5, MATCH(MIN(D14:D17),D14:D17,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N15" s="77" t="str">
+      <c r="N15" s="68" t="str">
         <f t="shared" ref="N15" si="38">INDEX($B$2:$B$5, MATCH(MIN(E14:E17),E14:E17,0))</f>
         <v>top2</v>
       </c>
-      <c r="O15" s="77" t="str">
+      <c r="O15" s="68" t="str">
         <f t="shared" ref="O15" si="39">INDEX($B$2:$B$5, MATCH(MIN(F14:F17),F14:F17,0))</f>
         <v>top2</v>
       </c>
@@ -16940,7 +17078,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -16980,7 +17118,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -17020,7 +17158,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -17072,7 +17210,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -17090,25 +17228,25 @@
       <c r="F19" s="4">
         <v>-301.02369152</v>
       </c>
-      <c r="L19" s="77" t="str">
+      <c r="L19" s="68" t="str">
         <f t="shared" ref="L19" si="47">INDEX($B$2:$B$5, MATCH(MIN(C18:C21),C18:C21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M19" s="77" t="str">
+      <c r="M19" s="68" t="str">
         <f t="shared" ref="M19" si="48">INDEX($B$2:$B$5, MATCH(MIN(D18:D21),D18:D21,0))</f>
         <v>top2</v>
       </c>
-      <c r="N19" s="77" t="str">
+      <c r="N19" s="68" t="str">
         <f t="shared" ref="N19" si="49">INDEX($B$2:$B$5, MATCH(MIN(E18:E21),E18:E21,0))</f>
         <v>top2</v>
       </c>
-      <c r="O19" s="77" t="str">
+      <c r="O19" s="68" t="str">
         <f t="shared" ref="O19" si="50">INDEX($B$2:$B$5, MATCH(MIN(F18:F21),F18:F21,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -17128,7 +17266,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -17148,7 +17286,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -17200,7 +17338,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -17218,25 +17356,25 @@
       <c r="F23" s="4">
         <v>-298.07209560000001</v>
       </c>
-      <c r="L23" s="77" t="str">
+      <c r="L23" s="68" t="str">
         <f t="shared" ref="L23" si="57">INDEX($B$2:$B$5, MATCH(MIN(C22:C25),C22:C25,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M23" s="77" t="str">
+      <c r="M23" s="68" t="str">
         <f t="shared" ref="M23" si="58">INDEX($B$2:$B$5, MATCH(MIN(D22:D25),D22:D25,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N23" s="77" t="str">
+      <c r="N23" s="68" t="str">
         <f t="shared" ref="N23" si="59">INDEX($B$2:$B$5, MATCH(MIN(E22:E25),E22:E25,0))</f>
         <v>top2</v>
       </c>
-      <c r="O23" s="77" t="str">
+      <c r="O23" s="68" t="str">
         <f t="shared" ref="O23" si="60">INDEX($B$2:$B$5, MATCH(MIN(F22:F25),F22:F25,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -17256,7 +17394,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -17276,7 +17414,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -17328,7 +17466,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -17346,25 +17484,25 @@
       <c r="F27" s="4">
         <v>-294.14165150000002</v>
       </c>
-      <c r="L27" s="77" t="str">
+      <c r="L27" s="68" t="str">
         <f t="shared" ref="L27" si="66">INDEX($B$2:$B$5, MATCH(MIN(C26:C29),C26:C29,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M27" s="77" t="str">
+      <c r="M27" s="68" t="str">
         <f t="shared" ref="M27" si="67">INDEX($B$2:$B$5, MATCH(MIN(D26:D29),D26:D29,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N27" s="77" t="str">
+      <c r="N27" s="68" t="str">
         <f t="shared" ref="N27" si="68">INDEX($B$2:$B$5, MATCH(MIN(E26:E29),E26:E29,0))</f>
         <v>top2</v>
       </c>
-      <c r="O27" s="77" t="str">
+      <c r="O27" s="68" t="str">
         <f t="shared" ref="O27" si="69">INDEX($B$2:$B$5, MATCH(MIN(F26:F29),F26:F29,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -17384,7 +17522,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -17404,7 +17542,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -17456,7 +17594,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -17474,25 +17612,25 @@
       <c r="F31" s="4">
         <v>-288.27986436999998</v>
       </c>
-      <c r="L31" s="77" t="str">
+      <c r="L31" s="68" t="str">
         <f t="shared" ref="L31" si="76">INDEX($B$2:$B$5, MATCH(MIN(C30:C33),C30:C33,0))</f>
         <v>top</v>
       </c>
-      <c r="M31" s="77" t="str">
+      <c r="M31" s="68" t="str">
         <f t="shared" ref="M31" si="77">INDEX($B$2:$B$5, MATCH(MIN(D30:D33),D30:D33,0))</f>
         <v>top2</v>
       </c>
-      <c r="N31" s="77" t="str">
+      <c r="N31" s="68" t="str">
         <f t="shared" ref="N31" si="78">INDEX($B$2:$B$5, MATCH(MIN(E30:E33),E30:E33,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="O31" s="77" t="str">
+      <c r="O31" s="68" t="str">
         <f t="shared" ref="O31" si="79">INDEX($B$2:$B$5, MATCH(MIN(F30:F33),F30:F33,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -17512,7 +17650,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -17532,7 +17670,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -17584,7 +17722,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -17602,25 +17740,25 @@
       <c r="F35" s="4">
         <v>-282.74574138999998</v>
       </c>
-      <c r="L35" s="77" t="str">
+      <c r="L35" s="68" t="str">
         <f t="shared" ref="L35" si="87">INDEX($B$2:$B$5, MATCH(MIN(C34:C37),C34:C37,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M35" s="77" t="str">
+      <c r="M35" s="68" t="str">
         <f t="shared" ref="M35" si="88">INDEX($B$2:$B$5, MATCH(MIN(D34:D37),D34:D37,0))</f>
         <v>top</v>
       </c>
-      <c r="N35" s="77" t="str">
+      <c r="N35" s="68" t="str">
         <f t="shared" ref="N35" si="89">INDEX($B$2:$B$5, MATCH(MIN(E34:E37),E34:E37,0))</f>
         <v>top2</v>
       </c>
-      <c r="O35" s="77" t="str">
+      <c r="O35" s="68" t="str">
         <f t="shared" ref="O35" si="90">INDEX($B$2:$B$5, MATCH(MIN(F34:F37),F34:F37,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -17640,7 +17778,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -17660,7 +17798,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -17712,7 +17850,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -17730,25 +17868,25 @@
       <c r="F39" s="4">
         <v>-308.26331519000001</v>
       </c>
-      <c r="L39" s="77" t="str">
+      <c r="L39" s="68" t="str">
         <f t="shared" ref="L39" si="98">INDEX($B$2:$B$5, MATCH(MIN(C38:C41),C38:C41,0))</f>
         <v>top</v>
       </c>
-      <c r="M39" s="77" t="str">
+      <c r="M39" s="68" t="str">
         <f t="shared" ref="M39" si="99">INDEX($B$2:$B$5, MATCH(MIN(D38:D41),D38:D41,0))</f>
         <v>top2</v>
       </c>
-      <c r="N39" s="77" t="str">
+      <c r="N39" s="68" t="str">
         <f t="shared" ref="N39" si="100">INDEX($B$2:$B$5, MATCH(MIN(E38:E41),E38:E41,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="O39" s="77" t="str">
+      <c r="O39" s="68" t="str">
         <f t="shared" ref="O39" si="101">INDEX($B$2:$B$5, MATCH(MIN(F38:F41),F38:F41,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -17768,7 +17906,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -17788,7 +17926,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -17840,7 +17978,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -17858,25 +17996,25 @@
       <c r="F43" s="4">
         <v>-311.55382573999998</v>
       </c>
-      <c r="L43" s="77" t="str">
+      <c r="L43" s="68" t="str">
         <f t="shared" ref="L43" si="109">INDEX($B$2:$B$5, MATCH(MIN(C42:C45),C42:C45,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M43" s="77" t="str">
+      <c r="M43" s="68" t="str">
         <f t="shared" ref="M43" si="110">INDEX($B$2:$B$5, MATCH(MIN(D42:D45),D42:D45,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N43" s="77" t="str">
+      <c r="N43" s="68" t="str">
         <f t="shared" ref="N43" si="111">INDEX($B$2:$B$5, MATCH(MIN(E42:E45),E42:E45,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="O43" s="77" t="str">
+      <c r="O43" s="68" t="str">
         <f t="shared" ref="O43" si="112">INDEX($B$2:$B$5, MATCH(MIN(F42:F45),F42:F45,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -17896,7 +18034,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -17916,7 +18054,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -17968,7 +18106,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -17986,25 +18124,25 @@
       <c r="F47" s="4">
         <v>-311.53914632999999</v>
       </c>
-      <c r="L47" s="77" t="str">
+      <c r="L47" s="68" t="str">
         <f t="shared" ref="L47" si="120">INDEX($B$2:$B$5, MATCH(MIN(C46:C49),C46:C49,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M47" s="77" t="str">
+      <c r="M47" s="68" t="str">
         <f t="shared" ref="M47" si="121">INDEX($B$2:$B$5, MATCH(MIN(D46:D49),D46:D49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N47" s="77" t="str">
+      <c r="N47" s="68" t="str">
         <f t="shared" ref="N47" si="122">INDEX($B$2:$B$5, MATCH(MIN(E46:E49),E46:E49,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O47" s="77" t="str">
+      <c r="O47" s="68" t="str">
         <f t="shared" ref="O47" si="123">INDEX($B$2:$B$5, MATCH(MIN(F46:F49),F46:F49,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -18024,7 +18162,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -18044,7 +18182,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -18096,7 +18234,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -18114,25 +18252,25 @@
       <c r="F51" s="4">
         <v>-309.42469705000002</v>
       </c>
-      <c r="L51" s="77" t="str">
+      <c r="L51" s="68" t="str">
         <f t="shared" ref="L51" si="131">INDEX($B$2:$B$5, MATCH(MIN(C50:C53),C50:C53,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M51" s="77" t="str">
+      <c r="M51" s="68" t="str">
         <f t="shared" ref="M51" si="132">INDEX($B$2:$B$5, MATCH(MIN(D50:D53),D50:D53,0))</f>
         <v>top2</v>
       </c>
-      <c r="N51" s="77" t="str">
+      <c r="N51" s="68" t="str">
         <f t="shared" ref="N51" si="133">INDEX($B$2:$B$5, MATCH(MIN(E50:E53),E50:E53,0))</f>
         <v>top2</v>
       </c>
-      <c r="O51" s="77" t="str">
+      <c r="O51" s="68" t="str">
         <f t="shared" ref="O51" si="134">INDEX($B$2:$B$5, MATCH(MIN(F50:F53),F50:F53,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -18152,7 +18290,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -18172,7 +18310,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -18224,7 +18362,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -18242,25 +18380,25 @@
       <c r="F55" s="4">
         <v>-303.60708612000002</v>
       </c>
-      <c r="L55" s="77" t="str">
+      <c r="L55" s="68" t="str">
         <f t="shared" ref="L55" si="142">INDEX($B$2:$B$5, MATCH(MIN(C54:C57),C54:C57,0))</f>
         <v>top2</v>
       </c>
-      <c r="M55" s="77" t="str">
+      <c r="M55" s="68" t="str">
         <f t="shared" ref="M55" si="143">INDEX($B$2:$B$5, MATCH(MIN(D54:D57),D54:D57,0))</f>
         <v>top2</v>
       </c>
-      <c r="N55" s="77" t="str">
+      <c r="N55" s="68" t="str">
         <f t="shared" ref="N55" si="144">INDEX($B$2:$B$5, MATCH(MIN(E54:E57),E54:E57,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="O55" s="77" t="str">
+      <c r="O55" s="68" t="str">
         <f t="shared" ref="O55" si="145">INDEX($B$2:$B$5, MATCH(MIN(F54:F57),F54:F57,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -18280,7 +18418,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -18300,7 +18438,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -18352,7 +18490,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -18370,25 +18508,25 @@
       <c r="F59" s="4">
         <v>-299.72449420999999</v>
       </c>
-      <c r="L59" s="77" t="str">
+      <c r="L59" s="68" t="str">
         <f t="shared" ref="L59" si="152">INDEX($B$2:$B$5, MATCH(MIN(C58:C61),C58:C61,0))</f>
         <v>top2</v>
       </c>
-      <c r="M59" s="77" t="str">
+      <c r="M59" s="68" t="str">
         <f t="shared" ref="M59" si="153">INDEX($B$2:$B$5, MATCH(MIN(D58:D61),D58:D61,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N59" s="77" t="str">
+      <c r="N59" s="68" t="str">
         <f t="shared" ref="N59" si="154">INDEX($B$2:$B$5, MATCH(MIN(E58:E61),E58:E61,0))</f>
         <v>top2</v>
       </c>
-      <c r="O59" s="77" t="str">
+      <c r="O59" s="68" t="str">
         <f t="shared" ref="O59" si="155">INDEX($B$2:$B$5, MATCH(MIN(F58:F61),F58:F61,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -18408,7 +18546,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -18428,7 +18566,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -18480,7 +18618,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -18498,25 +18636,25 @@
       <c r="F63" s="4">
         <v>-284.54875597</v>
       </c>
-      <c r="L63" s="77" t="str">
+      <c r="L63" s="68" t="str">
         <f t="shared" ref="L63" si="162">INDEX($B$2:$B$5, MATCH(MIN(C62:C65),C62:C65,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="M63" s="77" t="str">
+      <c r="M63" s="68" t="str">
         <f t="shared" ref="M63" si="163">INDEX($B$2:$B$5, MATCH(MIN(D62:D65),D62:D65,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="N63" s="77" t="str">
+      <c r="N63" s="68" t="str">
         <f t="shared" ref="N63" si="164">INDEX($B$2:$B$5, MATCH(MIN(E62:E65),E62:E65,0))</f>
         <v>hollow3</v>
       </c>
-      <c r="O63" s="77" t="str">
+      <c r="O63" s="68" t="str">
         <f t="shared" ref="O63" si="165">INDEX($B$2:$B$5, MATCH(MIN(F62:F65),F62:F65,0))</f>
         <v>hollow3</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -18536,7 +18674,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -18582,29 +18720,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="Q1" s="72" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="Q1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="T1" s="71" t="s">
+      <c r="R1" s="71"/>
+      <c r="T1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
@@ -18680,16 +18818,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3">
-        <v>-306.97954665999998</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3">
-        <v>-297.85172666</v>
+        <f>single!M54</f>
+        <v>-297.85147833000002</v>
       </c>
       <c r="F3">
-        <v>-288.55197368</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3">
-        <v>-293.14566452999998</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
@@ -18702,27 +18844,27 @@
       </c>
       <c r="L3">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42933610999999727</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3">
         <f>E3-C3-$J$6</f>
-        <v>-0.3628438900000166</v>
+        <v>-0.3625955600000399</v>
       </c>
       <c r="N3">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39790908999997709</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792182400000038</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="15">
         <f>D3+$Y$33</f>
-        <v>-306.49354665999999</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="15">
         <f>E3+$Y$34</f>
-        <v>-297.84172666000001</v>
+        <v>-297.84147833000003</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>70</v>
@@ -18732,11 +18874,11 @@
       </c>
       <c r="U3" s="14">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84333610999998854</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="16">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
-        <v>0.21615610999997514</v>
+        <v>0.21640443999995185</v>
       </c>
       <c r="W3" s="14">
         <f>$Y$28+$Y$27-$Y$26-$Y$25</f>
@@ -18744,23 +18886,23 @@
       </c>
       <c r="Y3" s="15">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84333610999998854</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="15">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
-        <v>0.2161561099999858</v>
+        <v>0.21640443999996251</v>
       </c>
       <c r="AA3" s="15">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55590908999999833</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="15">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122182399999947</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="15">
         <f>Y3-AA3</f>
-        <v>0.28742701999999021</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -20257,17 +20399,17 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q23" s="69" t="s">
+      <c r="Q23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Q24" s="24"/>
@@ -20590,7 +20732,7 @@
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20629,7 +20771,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -20639,7 +20781,7 @@
         <v>-322.23119816000002</v>
       </c>
       <c r="D2" s="4">
-        <v>-312.97939695999997</v>
+        <v>-312.64972712000002</v>
       </c>
       <c r="E2" s="4">
         <v>-303.28144557000002</v>
@@ -20653,7 +20795,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:J2" si="0">MIN(D2:D6)-D2</f>
-        <v>-4.1393000003608904E-4</v>
+        <v>-0.33008376999998745</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -20705,7 +20847,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -20721,19 +20863,19 @@
       <c r="F3" s="4">
         <v>-310.55383452000001</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$6, MATCH(MIN(C2:C6),C2:C6,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$6, MATCH(MIN(D2:D6),D2:D6,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow1</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>hollow4</v>
       </c>
@@ -20765,7 +20907,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -20809,7 +20951,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
@@ -20853,7 +20995,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -20897,7 +21039,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -20969,7 +21111,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -20985,19 +21127,19 @@
       <c r="F8" s="4">
         <v>-312.76316173999999</v>
       </c>
-      <c r="L8" s="77" t="str">
+      <c r="L8" s="68" t="str">
         <f t="shared" ref="L8" si="14">INDEX($B$2:$B$6, MATCH(MIN(C7:C11),C7:C11,0))</f>
         <v>top</v>
       </c>
-      <c r="M8" s="77" t="str">
+      <c r="M8" s="68" t="str">
         <f t="shared" ref="M8" si="15">INDEX($B$2:$B$6, MATCH(MIN(D7:D11),D7:D11,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N8" s="77" t="str">
+      <c r="N8" s="68" t="str">
         <f t="shared" ref="N8" si="16">INDEX($B$2:$B$6, MATCH(MIN(E7:E11),E7:E11,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O8" s="77" t="str">
+      <c r="O8" s="68" t="str">
         <f t="shared" ref="O8" si="17">INDEX($B$2:$B$6, MATCH(MIN(F7:F11),F7:F11,0))</f>
         <v>hollow4</v>
       </c>
@@ -21023,7 +21165,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -21061,7 +21203,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -21099,7 +21241,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -21137,7 +21279,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -21209,7 +21351,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -21227,19 +21369,19 @@
       <c r="F13" s="4">
         <v>-313.48834471999999</v>
       </c>
-      <c r="L13" s="77" t="str">
+      <c r="L13" s="68" t="str">
         <f t="shared" ref="L13" si="25">INDEX($B$2:$B$6, MATCH(MIN(C12:C16),C12:C16,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M13" s="77" t="str">
+      <c r="M13" s="68" t="str">
         <f t="shared" ref="M13" si="26">INDEX($B$2:$B$6, MATCH(MIN(D12:D16),D12:D16,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N13" s="77" t="str">
+      <c r="N13" s="68" t="str">
         <f t="shared" ref="N13" si="27">INDEX($B$2:$B$6, MATCH(MIN(E12:E16),E12:E16,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O13" s="77" t="str">
+      <c r="O13" s="68" t="str">
         <f t="shared" ref="O13" si="28">INDEX($B$2:$B$6, MATCH(MIN(F12:F16),F12:F16,0))</f>
         <v>top2</v>
       </c>
@@ -21265,7 +21407,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -21305,7 +21447,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -21345,7 +21487,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -21385,7 +21527,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -21457,7 +21599,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -21475,25 +21617,25 @@
       <c r="F18" s="4">
         <v>-307.60326949</v>
       </c>
-      <c r="L18" s="77" t="str">
+      <c r="L18" s="68" t="str">
         <f t="shared" ref="L18" si="36">INDEX($B$2:$B$6, MATCH(MIN(C17:C21),C17:C21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M18" s="77" t="str">
+      <c r="M18" s="68" t="str">
         <f t="shared" ref="M18" si="37">INDEX($B$2:$B$6, MATCH(MIN(D17:D21),D17:D21,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N18" s="77" t="str">
+      <c r="N18" s="68" t="str">
         <f t="shared" ref="N18" si="38">INDEX($B$2:$B$6, MATCH(MIN(E17:E21),E17:E21,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="O18" s="77" t="str">
+      <c r="O18" s="68" t="str">
         <f t="shared" ref="O18" si="39">INDEX($B$2:$B$6, MATCH(MIN(F17:F21),F17:F21,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -21513,7 +21655,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -21533,7 +21675,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -21553,7 +21695,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -21605,7 +21747,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -21623,25 +21765,25 @@
       <c r="F23" s="4">
         <v>-303.60532695000001</v>
       </c>
-      <c r="L23" s="77" t="str">
+      <c r="L23" s="68" t="str">
         <f t="shared" ref="L23" si="47">INDEX($B$2:$B$6, MATCH(MIN(C22:C26),C22:C26,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M23" s="77" t="str">
+      <c r="M23" s="68" t="str">
         <f t="shared" ref="M23" si="48">INDEX($B$2:$B$6, MATCH(MIN(D22:D26),D22:D26,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N23" s="77" t="str">
+      <c r="N23" s="68" t="str">
         <f t="shared" ref="N23" si="49">INDEX($B$2:$B$6, MATCH(MIN(E22:E26),E22:E26,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="O23" s="77" t="str">
+      <c r="O23" s="68" t="str">
         <f t="shared" ref="O23" si="50">INDEX($B$2:$B$6, MATCH(MIN(F22:F26),F22:F26,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -21661,7 +21803,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -21681,7 +21823,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -21701,7 +21843,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -21753,7 +21895,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -21771,25 +21913,25 @@
       <c r="F28" s="4">
         <v>-299.90598245000001</v>
       </c>
-      <c r="L28" s="77" t="str">
+      <c r="L28" s="68" t="str">
         <f t="shared" ref="L28" si="58">INDEX($B$2:$B$6, MATCH(MIN(C27:C31),C27:C31,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M28" s="77" t="str">
+      <c r="M28" s="68" t="str">
         <f t="shared" ref="M28" si="59">INDEX($B$2:$B$6, MATCH(MIN(D27:D31),D27:D31,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N28" s="77" t="str">
+      <c r="N28" s="68" t="str">
         <f t="shared" ref="N28" si="60">INDEX($B$2:$B$6, MATCH(MIN(E27:E31),E27:E31,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O28" s="77" t="str">
+      <c r="O28" s="68" t="str">
         <f t="shared" ref="O28" si="61">INDEX($B$2:$B$6, MATCH(MIN(F27:F31),F27:F31,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -21809,7 +21951,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -21829,7 +21971,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -21849,7 +21991,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -21901,7 +22043,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -21919,25 +22061,25 @@
       <c r="F33" s="4">
         <v>-294.48741995</v>
       </c>
-      <c r="L33" s="77" t="str">
+      <c r="L33" s="68" t="str">
         <f t="shared" ref="L33" si="69">INDEX($B$2:$B$6, MATCH(MIN(C32:C36),C32:C36,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="M33" s="77" t="str">
+      <c r="M33" s="68" t="str">
         <f t="shared" ref="M33" si="70">INDEX($B$2:$B$6, MATCH(MIN(D32:D36),D32:D36,0))</f>
         <v>top</v>
       </c>
-      <c r="N33" s="77" t="str">
+      <c r="N33" s="68" t="str">
         <f t="shared" ref="N33" si="71">INDEX($B$2:$B$6, MATCH(MIN(E32:E36),E32:E36,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O33" s="77" t="str">
+      <c r="O33" s="68" t="str">
         <f t="shared" ref="O33" si="72">INDEX($B$2:$B$6, MATCH(MIN(F32:F36),F32:F36,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -21957,7 +22099,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -21977,7 +22119,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -21997,7 +22139,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -22049,7 +22191,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -22067,25 +22209,25 @@
       <c r="F38" s="4">
         <v>-286.42734840999998</v>
       </c>
-      <c r="L38" s="77" t="str">
+      <c r="L38" s="68" t="str">
         <f t="shared" ref="L38" si="80">INDEX($B$2:$B$6, MATCH(MIN(C37:C41),C37:C41,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="M38" s="77" t="str">
+      <c r="M38" s="68" t="str">
         <f t="shared" ref="M38" si="81">INDEX($B$2:$B$6, MATCH(MIN(D37:D41),D37:D41,0))</f>
         <v>top</v>
       </c>
-      <c r="N38" s="77" t="str">
+      <c r="N38" s="68" t="str">
         <f t="shared" ref="N38" si="82">INDEX($B$2:$B$6, MATCH(MIN(E37:E41),E37:E41,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="O38" s="77" t="str">
+      <c r="O38" s="68" t="str">
         <f t="shared" ref="O38" si="83">INDEX($B$2:$B$6, MATCH(MIN(F37:F41),F37:F41,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -22105,7 +22247,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -22125,7 +22267,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -22145,7 +22287,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -22197,7 +22339,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -22215,25 +22357,25 @@
       <c r="F43" s="4">
         <v>-278.16266567999998</v>
       </c>
-      <c r="L43" s="77" t="str">
+      <c r="L43" s="68" t="str">
         <f t="shared" ref="L43" si="91">INDEX($B$2:$B$6, MATCH(MIN(C42:C46),C42:C46,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M43" s="77" t="str">
+      <c r="M43" s="68" t="str">
         <f t="shared" ref="M43" si="92">INDEX($B$2:$B$6, MATCH(MIN(D42:D46),D42:D46,0))</f>
         <v>top2</v>
       </c>
-      <c r="N43" s="77" t="str">
+      <c r="N43" s="68" t="str">
         <f t="shared" ref="N43" si="93">INDEX($B$2:$B$6, MATCH(MIN(E42:E46),E42:E46,0))</f>
         <v>top</v>
       </c>
-      <c r="O43" s="77" t="str">
+      <c r="O43" s="68" t="str">
         <f t="shared" ref="O43" si="94">INDEX($B$2:$B$6, MATCH(MIN(F42:F46),F42:F46,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -22253,7 +22395,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -22273,7 +22415,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -22293,7 +22435,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -22345,7 +22487,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -22363,25 +22505,25 @@
       <c r="F48" s="4">
         <v>-312.66421664000001</v>
       </c>
-      <c r="L48" s="77" t="str">
+      <c r="L48" s="68" t="str">
         <f t="shared" ref="L48" si="102">INDEX($B$2:$B$6, MATCH(MIN(C47:C51),C47:C51,0))</f>
         <v>top2</v>
       </c>
-      <c r="M48" s="77" t="str">
+      <c r="M48" s="68" t="str">
         <f t="shared" ref="M48" si="103">INDEX($B$2:$B$6, MATCH(MIN(D47:D51),D47:D51,0))</f>
         <v>top2</v>
       </c>
-      <c r="N48" s="77" t="str">
+      <c r="N48" s="68" t="str">
         <f t="shared" ref="N48" si="104">INDEX($B$2:$B$6, MATCH(MIN(E47:E51),E47:E51,0))</f>
         <v>top2</v>
       </c>
-      <c r="O48" s="77" t="str">
+      <c r="O48" s="68" t="str">
         <f t="shared" ref="O48" si="105">INDEX($B$2:$B$6, MATCH(MIN(F47:F51),F47:F51,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -22401,7 +22543,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -22421,7 +22563,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -22441,7 +22583,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -22493,7 +22635,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -22511,25 +22653,25 @@
       <c r="F53" s="4">
         <v>-316.79198645000002</v>
       </c>
-      <c r="L53" s="77" t="str">
+      <c r="L53" s="68" t="str">
         <f t="shared" ref="L53" si="113">INDEX($B$2:$B$6, MATCH(MIN(C52:C56),C52:C56,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="M53" s="77" t="str">
+      <c r="M53" s="68" t="str">
         <f t="shared" ref="M53" si="114">INDEX($B$2:$B$6, MATCH(MIN(D52:D56),D52:D56,0))</f>
         <v>top</v>
       </c>
-      <c r="N53" s="77" t="str">
+      <c r="N53" s="68" t="str">
         <f t="shared" ref="N53" si="115">INDEX($B$2:$B$6, MATCH(MIN(E52:E56),E52:E56,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O53" s="77" t="str">
+      <c r="O53" s="68" t="str">
         <f t="shared" ref="O53" si="116">INDEX($B$2:$B$6, MATCH(MIN(F52:F56),F52:F56,0))</f>
         <v>hollow4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -22549,7 +22691,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -22569,7 +22711,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -22589,7 +22731,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -22641,7 +22783,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -22659,25 +22801,25 @@
       <c r="F58" s="4">
         <v>-317.38460947999999</v>
       </c>
-      <c r="L58" s="77" t="str">
+      <c r="L58" s="68" t="str">
         <f t="shared" ref="L58" si="124">INDEX($B$2:$B$6, MATCH(MIN(C57:C61),C57:C61,0))</f>
         <v>top</v>
       </c>
-      <c r="M58" s="77" t="str">
+      <c r="M58" s="68" t="str">
         <f t="shared" ref="M58" si="125">INDEX($B$2:$B$6, MATCH(MIN(D57:D61),D57:D61,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N58" s="77" t="str">
+      <c r="N58" s="68" t="str">
         <f t="shared" ref="N58" si="126">INDEX($B$2:$B$6, MATCH(MIN(E57:E61),E57:E61,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O58" s="77" t="str">
+      <c r="O58" s="68" t="str">
         <f t="shared" ref="O58" si="127">INDEX($B$2:$B$6, MATCH(MIN(F57:F61),F57:F61,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -22697,7 +22839,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -22717,7 +22859,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -22737,7 +22879,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -22789,7 +22931,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -22807,25 +22949,25 @@
       <c r="F63" s="4">
         <v>-317.52593746999997</v>
       </c>
-      <c r="L63" s="77" t="str">
+      <c r="L63" s="68" t="str">
         <f t="shared" ref="L63" si="135">INDEX($B$2:$B$6, MATCH(MIN(C62:C66),C62:C66,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M63" s="77" t="str">
+      <c r="M63" s="68" t="str">
         <f t="shared" ref="M63" si="136">INDEX($B$2:$B$6, MATCH(MIN(D62:D66),D62:D66,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N63" s="77" t="str">
+      <c r="N63" s="68" t="str">
         <f t="shared" ref="N63" si="137">INDEX($B$2:$B$6, MATCH(MIN(E62:E66),E62:E66,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O63" s="77" t="str">
+      <c r="O63" s="68" t="str">
         <f t="shared" ref="O63" si="138">INDEX($B$2:$B$6, MATCH(MIN(F62:F66),F62:F66,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -22845,7 +22987,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -22865,7 +23007,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -22885,7 +23027,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -22937,7 +23079,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -22955,25 +23097,25 @@
       <c r="F68" s="4">
         <v>-307.56831366</v>
       </c>
-      <c r="L68" s="77" t="str">
+      <c r="L68" s="68" t="str">
         <f t="shared" ref="L68" si="146">INDEX($B$2:$B$6, MATCH(MIN(C67:C71),C67:C71,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M68" s="77" t="str">
+      <c r="M68" s="68" t="str">
         <f t="shared" ref="M68" si="147">INDEX($B$2:$B$6, MATCH(MIN(D67:D71),D67:D71,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N68" s="77" t="str">
+      <c r="N68" s="68" t="str">
         <f t="shared" ref="N68" si="148">INDEX($B$2:$B$6, MATCH(MIN(E67:E71),E67:E71,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="O68" s="77" t="str">
+      <c r="O68" s="68" t="str">
         <f t="shared" ref="O68" si="149">INDEX($B$2:$B$6, MATCH(MIN(F67:F71),F67:F71,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -22993,7 +23135,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -23013,7 +23155,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -23033,7 +23175,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -23085,7 +23227,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -23103,25 +23245,25 @@
       <c r="F73" s="4">
         <v>-301.89335023000001</v>
       </c>
-      <c r="L73" s="77" t="str">
+      <c r="L73" s="68" t="str">
         <f t="shared" ref="L73" si="157">INDEX($B$2:$B$6, MATCH(MIN(C72:C76),C72:C76,0))</f>
         <v>top</v>
       </c>
-      <c r="M73" s="77" t="str">
+      <c r="M73" s="68" t="str">
         <f t="shared" ref="M73" si="158">INDEX($B$2:$B$6, MATCH(MIN(D72:D76),D72:D76,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N73" s="77" t="str">
+      <c r="N73" s="68" t="str">
         <f t="shared" ref="N73" si="159">INDEX($B$2:$B$6, MATCH(MIN(E72:E76),E72:E76,0))</f>
         <v>top</v>
       </c>
-      <c r="O73" s="77" t="str">
+      <c r="O73" s="68" t="str">
         <f t="shared" ref="O73" si="160">INDEX($B$2:$B$6, MATCH(MIN(F72:F76),F72:F76,0))</f>
         <v>hollow1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -23141,7 +23283,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -23161,7 +23303,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -23181,7 +23323,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -23233,7 +23375,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -23251,25 +23393,25 @@
       <c r="F78" s="4">
         <v>-283.99426796</v>
       </c>
-      <c r="L78" s="77" t="str">
+      <c r="L78" s="68" t="str">
         <f t="shared" ref="L78" si="166">INDEX($B$2:$B$6, MATCH(MIN(C77:C81),C77:C81,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="M78" s="77" t="str">
+      <c r="M78" s="68" t="str">
         <f t="shared" ref="M78" si="167">INDEX($B$2:$B$6, MATCH(MIN(D77:D81),D77:D81,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="N78" s="77" t="str">
+      <c r="N78" s="68" t="str">
         <f t="shared" ref="N78" si="168">INDEX($B$2:$B$6, MATCH(MIN(E77:E81),E77:E81,0))</f>
         <v>hollow4</v>
       </c>
-      <c r="O78" s="77" t="str">
+      <c r="O78" s="68" t="str">
         <f t="shared" ref="O78" si="169">INDEX($B$2:$B$6, MATCH(MIN(F77:F81),F77:F81,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -23289,7 +23431,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -23309,7 +23451,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -23355,29 +23497,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="Q1" s="72" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="Q1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="T1" s="71" t="s">
+      <c r="R1" s="71"/>
+      <c r="T1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
@@ -23453,16 +23595,20 @@
         <v>-285.37088276999998</v>
       </c>
       <c r="D3">
-        <v>-306.97920599000003</v>
+        <f>single!L54</f>
+        <v>-307.00320395</v>
       </c>
       <c r="E3">
+        <f>single!M54</f>
         <v>-297.85147833000002</v>
       </c>
       <c r="F3">
-        <v>-288.55203122</v>
+        <f>single!N54</f>
+        <v>-288.60726597000001</v>
       </c>
       <c r="G3">
-        <v>-293.14565368000001</v>
+        <f>single!O54</f>
+        <v>-293.37647772999998</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>36</v>
@@ -23475,7 +23621,7 @@
       </c>
       <c r="L3">
         <f>D3-C3-$J$4-0.5*$J$3</f>
-        <v>0.42967677999995457</v>
+        <v>0.40567881999998034</v>
       </c>
       <c r="M3">
         <f>E3-C3-$J$6</f>
@@ -23483,15 +23629,15 @@
       </c>
       <c r="N3">
         <f>F3-C3-0.5*$J$3</f>
-        <v>0.39785154999997685</v>
+        <v>0.34261679999996586</v>
       </c>
       <c r="O3">
         <f>G3-C3-$J$5+0.5*$J$3</f>
-        <v>1.4792290899999707</v>
+        <v>1.2484050400000037</v>
       </c>
       <c r="Q3" s="15">
         <f>D3+$Y$33</f>
-        <v>-306.49320599000004</v>
+        <v>-306.51720395000001</v>
       </c>
       <c r="R3" s="15">
         <f>E3+$Y$34</f>
@@ -23505,7 +23651,7 @@
       </c>
       <c r="U3" s="14">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="V3" s="16">
         <f>R3+$Y$27-C3-$Y$25-$Y$26</f>
@@ -23517,7 +23663,7 @@
       </c>
       <c r="Y3" s="15">
         <f>Q3-C3-0.5*$Y$25-$Y$26</f>
-        <v>0.84367677999994584</v>
+        <v>0.81967881999997161</v>
       </c>
       <c r="Z3" s="15">
         <f>R3+$Y$27-$Y$26-$Y$25-C3</f>
@@ -23525,15 +23671,15 @@
       </c>
       <c r="AA3" s="15">
         <f>F3+$Y$32-C3-0.5*$Y$25</f>
-        <v>0.55585154999999808</v>
+        <v>0.50061679999998709</v>
       </c>
       <c r="AB3" s="15">
         <f>G3+$Y$35+0.5*$Y$25-C3-$Y$27</f>
-        <v>1.8122290899999616</v>
+        <v>1.5814050399999946</v>
       </c>
       <c r="AC3" s="15">
         <f>Y3-AA3</f>
-        <v>0.28782522999994775</v>
+        <v>0.31906201999998451</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -24983,17 +25129,17 @@
       <c r="V21" s="15"/>
     </row>
     <row r="23" spans="2:29" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="Q23" s="73" t="s">
+      <c r="Q23" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Q24" s="24"/>
@@ -25323,8 +25469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25363,7 +25509,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -25439,7 +25585,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -25455,19 +25601,19 @@
       <c r="F3" s="4">
         <v>-310.90350074999998</v>
       </c>
-      <c r="L3" s="77" t="str">
+      <c r="L3" s="68" t="str">
         <f>INDEX($B$2:$B$6, MATCH(MIN(C2:C6),C2:C6,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M3" s="77" t="str">
+      <c r="M3" s="68" t="str">
         <f t="shared" ref="M3:O3" si="2">INDEX($B$2:$B$6, MATCH(MIN(D2:D6),D2:D6,0))</f>
         <v>top</v>
       </c>
-      <c r="N3" s="77" t="str">
+      <c r="N3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>top3</v>
       </c>
-      <c r="O3" s="77" t="str">
+      <c r="O3" s="68" t="str">
         <f t="shared" si="2"/>
         <v>top3</v>
       </c>
@@ -25499,7 +25645,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -25543,7 +25689,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -25587,7 +25733,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
@@ -25631,7 +25777,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -25703,7 +25849,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -25719,19 +25865,19 @@
       <c r="F8" s="4">
         <v>-315.34076635999998</v>
       </c>
-      <c r="L8" s="77" t="str">
+      <c r="L8" s="68" t="str">
         <f t="shared" ref="L8" si="14">INDEX($B$2:$B$6, MATCH(MIN(C7:C11),C7:C11,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M8" s="77" t="str">
+      <c r="M8" s="68" t="str">
         <f t="shared" ref="M8" si="15">INDEX($B$2:$B$6, MATCH(MIN(D7:D11),D7:D11,0))</f>
         <v>top3</v>
       </c>
-      <c r="N8" s="77" t="str">
+      <c r="N8" s="68" t="str">
         <f t="shared" ref="N8" si="16">INDEX($B$2:$B$6, MATCH(MIN(E7:E11),E7:E11,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O8" s="77" t="str">
+      <c r="O8" s="68" t="str">
         <f t="shared" ref="O8" si="17">INDEX($B$2:$B$6, MATCH(MIN(F7:F11),F7:F11,0))</f>
         <v>top3</v>
       </c>
@@ -25757,7 +25903,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="70"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
@@ -25795,7 +25941,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -25833,7 +25979,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -25871,7 +26017,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -25943,7 +26089,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -25961,19 +26107,19 @@
       <c r="F13" s="4">
         <v>-313.23595986999999</v>
       </c>
-      <c r="L13" s="77" t="str">
+      <c r="L13" s="68" t="str">
         <f t="shared" ref="L13" si="25">INDEX($B$2:$B$6, MATCH(MIN(C12:C16),C12:C16,0))</f>
         <v>top</v>
       </c>
-      <c r="M13" s="77" t="str">
+      <c r="M13" s="68" t="str">
         <f t="shared" ref="M13" si="26">INDEX($B$2:$B$6, MATCH(MIN(D12:D16),D12:D16,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N13" s="77" t="str">
+      <c r="N13" s="68" t="str">
         <f t="shared" ref="N13" si="27">INDEX($B$2:$B$6, MATCH(MIN(E12:E16),E12:E16,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="O13" s="77" t="str">
+      <c r="O13" s="68" t="str">
         <f t="shared" ref="O13" si="28">INDEX($B$2:$B$6, MATCH(MIN(F12:F16),F12:F16,0))</f>
         <v>top2</v>
       </c>
@@ -25999,7 +26145,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -26039,7 +26185,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26079,7 +26225,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -26119,7 +26265,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -26191,7 +26337,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -26209,25 +26355,25 @@
       <c r="F18" s="4">
         <v>-307.81955155999998</v>
       </c>
-      <c r="L18" s="77" t="str">
+      <c r="L18" s="68" t="str">
         <f t="shared" ref="L18" si="36">INDEX($B$2:$B$6, MATCH(MIN(C17:C21),C17:C21,0))</f>
         <v>top2</v>
       </c>
-      <c r="M18" s="77" t="str">
+      <c r="M18" s="68" t="str">
         <f t="shared" ref="M18" si="37">INDEX($B$2:$B$6, MATCH(MIN(D17:D21),D17:D21,0))</f>
         <v>top2</v>
       </c>
-      <c r="N18" s="77" t="str">
+      <c r="N18" s="68" t="str">
         <f t="shared" ref="N18" si="38">INDEX($B$2:$B$6, MATCH(MIN(E17:E21),E17:E21,0))</f>
         <v>top3</v>
       </c>
-      <c r="O18" s="77" t="str">
+      <c r="O18" s="68" t="str">
         <f t="shared" ref="O18" si="39">INDEX($B$2:$B$6, MATCH(MIN(F17:F21),F17:F21,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -26247,7 +26393,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -26267,7 +26413,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -26287,7 +26433,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -26339,7 +26485,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -26357,25 +26503,25 @@
       <c r="F23" s="4">
         <v>-304.07776733999998</v>
       </c>
-      <c r="L23" s="77" t="str">
+      <c r="L23" s="68" t="str">
         <f t="shared" ref="L23" si="47">INDEX($B$2:$B$6, MATCH(MIN(C22:C26),C22:C26,0))</f>
         <v>top</v>
       </c>
-      <c r="M23" s="77" t="str">
+      <c r="M23" s="68" t="str">
         <f t="shared" ref="M23" si="48">INDEX($B$2:$B$6, MATCH(MIN(D22:D26),D22:D26,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N23" s="77" t="str">
+      <c r="N23" s="68" t="str">
         <f t="shared" ref="N23" si="49">INDEX($B$2:$B$6, MATCH(MIN(E22:E26),E22:E26,0))</f>
         <v>top2</v>
       </c>
-      <c r="O23" s="77" t="str">
+      <c r="O23" s="68" t="str">
         <f t="shared" ref="O23" si="50">INDEX($B$2:$B$6, MATCH(MIN(F22:F26),F22:F26,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -26395,7 +26541,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -26415,7 +26561,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -26435,7 +26581,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -26487,7 +26633,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -26505,25 +26651,25 @@
       <c r="F28" s="4">
         <v>-300.28667474000002</v>
       </c>
-      <c r="L28" s="77" t="str">
+      <c r="L28" s="68" t="str">
         <f t="shared" ref="L28" si="58">INDEX($B$2:$B$6, MATCH(MIN(C27:C31),C27:C31,0))</f>
         <v>top2</v>
       </c>
-      <c r="M28" s="77" t="str">
+      <c r="M28" s="68" t="str">
         <f t="shared" ref="M28" si="59">INDEX($B$2:$B$6, MATCH(MIN(D27:D31),D27:D31,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N28" s="77" t="str">
+      <c r="N28" s="68" t="str">
         <f t="shared" ref="N28" si="60">INDEX($B$2:$B$6, MATCH(MIN(E27:E31),E27:E31,0))</f>
         <v>top2</v>
       </c>
-      <c r="O28" s="77" t="str">
+      <c r="O28" s="68" t="str">
         <f t="shared" ref="O28" si="61">INDEX($B$2:$B$6, MATCH(MIN(F27:F31),F27:F31,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -26543,7 +26689,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -26563,7 +26709,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -26583,7 +26729,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -26635,7 +26781,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -26653,25 +26799,25 @@
       <c r="F33" s="4">
         <v>-294.76065149999999</v>
       </c>
-      <c r="L33" s="77" t="str">
+      <c r="L33" s="68" t="str">
         <f t="shared" ref="L33" si="67">INDEX($B$2:$B$6, MATCH(MIN(C32:C36),C32:C36,0))</f>
         <v>top3</v>
       </c>
-      <c r="M33" s="77" t="str">
+      <c r="M33" s="68" t="str">
         <f t="shared" ref="M33" si="68">INDEX($B$2:$B$6, MATCH(MIN(D32:D36),D32:D36,0))</f>
         <v>top</v>
       </c>
-      <c r="N33" s="77" t="str">
+      <c r="N33" s="68" t="str">
         <f t="shared" ref="N33" si="69">INDEX($B$2:$B$6, MATCH(MIN(E32:E36),E32:E36,0))</f>
         <v>top2</v>
       </c>
-      <c r="O33" s="77" t="str">
+      <c r="O33" s="68" t="str">
         <f t="shared" ref="O33" si="70">INDEX($B$2:$B$6, MATCH(MIN(F32:F36),F32:F36,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -26691,7 +26837,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -26711,7 +26857,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -26731,7 +26877,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -26783,7 +26929,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -26801,25 +26947,25 @@
       <c r="F38" s="4">
         <v>-286.81296337999999</v>
       </c>
-      <c r="L38" s="77" t="str">
+      <c r="L38" s="68" t="str">
         <f t="shared" ref="L38" si="76">INDEX($B$2:$B$6, MATCH(MIN(C37:C41),C37:C41,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M38" s="77" t="str">
+      <c r="M38" s="68" t="str">
         <f t="shared" ref="M38" si="77">INDEX($B$2:$B$6, MATCH(MIN(D37:D41),D37:D41,0))</f>
         <v>top</v>
       </c>
-      <c r="N38" s="77" t="str">
+      <c r="N38" s="68" t="str">
         <f t="shared" ref="N38" si="78">INDEX($B$2:$B$6, MATCH(MIN(E37:E41),E37:E41,0))</f>
         <v>top2</v>
       </c>
-      <c r="O38" s="77" t="str">
+      <c r="O38" s="68" t="str">
         <f t="shared" ref="O38" si="79">INDEX($B$2:$B$6, MATCH(MIN(F37:F41),F37:F41,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -26839,7 +26985,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -26859,7 +27005,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -26879,7 +27025,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -26931,7 +27077,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -26949,25 +27095,25 @@
       <c r="F43" s="4">
         <v>-278.50689238000001</v>
       </c>
-      <c r="L43" s="77" t="str">
+      <c r="L43" s="68" t="str">
         <f t="shared" ref="L43" si="87">INDEX($B$2:$B$6, MATCH(MIN(C42:C46),C42:C46,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M43" s="77" t="str">
+      <c r="M43" s="68" t="str">
         <f t="shared" ref="M43" si="88">INDEX($B$2:$B$6, MATCH(MIN(D42:D46),D42:D46,0))</f>
         <v>top3</v>
       </c>
-      <c r="N43" s="77" t="str">
+      <c r="N43" s="68" t="str">
         <f t="shared" ref="N43" si="89">INDEX($B$2:$B$6, MATCH(MIN(E42:E46),E42:E46,0))</f>
         <v>top2</v>
       </c>
-      <c r="O43" s="77" t="str">
+      <c r="O43" s="68" t="str">
         <f t="shared" ref="O43" si="90">INDEX($B$2:$B$6, MATCH(MIN(F42:F46),F42:F46,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -26987,7 +27133,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -27007,7 +27153,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -27027,7 +27173,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -27079,7 +27225,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -27097,25 +27243,25 @@
       <c r="F48" s="4">
         <v>-313.13820571999997</v>
       </c>
-      <c r="L48" s="77" t="str">
+      <c r="L48" s="68" t="str">
         <f t="shared" ref="L48" si="97">INDEX($B$2:$B$6, MATCH(MIN(C47:C51),C47:C51,0))</f>
         <v>top</v>
       </c>
-      <c r="M48" s="77" t="str">
+      <c r="M48" s="68" t="str">
         <f t="shared" ref="M48" si="98">INDEX($B$2:$B$6, MATCH(MIN(D47:D51),D47:D51,0))</f>
         <v>top3</v>
       </c>
-      <c r="N48" s="77" t="str">
+      <c r="N48" s="68" t="str">
         <f t="shared" ref="N48" si="99">INDEX($B$2:$B$6, MATCH(MIN(E47:E51),E47:E51,0))</f>
         <v>top2</v>
       </c>
-      <c r="O48" s="77" t="str">
+      <c r="O48" s="68" t="str">
         <f t="shared" ref="O48" si="100">INDEX($B$2:$B$6, MATCH(MIN(F47:F51),F47:F51,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -27135,7 +27281,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -27155,7 +27301,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -27175,7 +27321,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -27227,7 +27373,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -27245,25 +27391,25 @@
       <c r="F53" s="4">
         <v>-317.88029949000003</v>
       </c>
-      <c r="L53" s="77" t="str">
+      <c r="L53" s="68" t="str">
         <f t="shared" ref="L53" si="108">INDEX($B$2:$B$6, MATCH(MIN(C52:C56),C52:C56,0))</f>
         <v>top</v>
       </c>
-      <c r="M53" s="77" t="str">
+      <c r="M53" s="68" t="str">
         <f t="shared" ref="M53" si="109">INDEX($B$2:$B$6, MATCH(MIN(D52:D56),D52:D56,0))</f>
         <v>top3</v>
       </c>
-      <c r="N53" s="77" t="str">
+      <c r="N53" s="68" t="str">
         <f t="shared" ref="N53" si="110">INDEX($B$2:$B$6, MATCH(MIN(E52:E56),E52:E56,0))</f>
         <v>top</v>
       </c>
-      <c r="O53" s="77" t="str">
+      <c r="O53" s="68" t="str">
         <f t="shared" ref="O53" si="111">INDEX($B$2:$B$6, MATCH(MIN(F52:F56),F52:F56,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -27283,7 +27429,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -27303,7 +27449,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -27323,7 +27469,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -27375,7 +27521,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -27393,25 +27539,25 @@
       <c r="F58" s="4">
         <v>-317.45357997000002</v>
       </c>
-      <c r="L58" s="77" t="str">
+      <c r="L58" s="68" t="str">
         <f t="shared" ref="L58" si="119">INDEX($B$2:$B$6, MATCH(MIN(C57:C61),C57:C61,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M58" s="77" t="str">
+      <c r="M58" s="68" t="str">
         <f t="shared" ref="M58" si="120">INDEX($B$2:$B$6, MATCH(MIN(D57:D61),D57:D61,0))</f>
         <v>top</v>
       </c>
-      <c r="N58" s="77" t="str">
+      <c r="N58" s="68" t="str">
         <f t="shared" ref="N58" si="121">INDEX($B$2:$B$6, MATCH(MIN(E57:E61),E57:E61,0))</f>
         <v>top3</v>
       </c>
-      <c r="O58" s="77" t="str">
+      <c r="O58" s="68" t="str">
         <f t="shared" ref="O58" si="122">INDEX($B$2:$B$6, MATCH(MIN(F57:F61),F57:F61,0))</f>
         <v>top</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -27431,7 +27577,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -27451,7 +27597,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -27471,7 +27617,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -27523,7 +27669,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -27541,25 +27687,25 @@
       <c r="F63" s="4">
         <v>-316.61140311999998</v>
       </c>
-      <c r="L63" s="77" t="str">
+      <c r="L63" s="68" t="str">
         <f t="shared" ref="L63" si="130">INDEX($B$2:$B$6, MATCH(MIN(C62:C66),C62:C66,0))</f>
         <v>top3</v>
       </c>
-      <c r="M63" s="77" t="str">
+      <c r="M63" s="68" t="str">
         <f t="shared" ref="M63" si="131">INDEX($B$2:$B$6, MATCH(MIN(D62:D66),D62:D66,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N63" s="77" t="str">
+      <c r="N63" s="68" t="str">
         <f t="shared" ref="N63" si="132">INDEX($B$2:$B$6, MATCH(MIN(E62:E66),E62:E66,0))</f>
         <v>top2</v>
       </c>
-      <c r="O63" s="77" t="str">
+      <c r="O63" s="68" t="str">
         <f t="shared" ref="O63" si="133">INDEX($B$2:$B$6, MATCH(MIN(F62:F66),F62:F66,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -27579,7 +27725,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -27599,7 +27745,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -27619,7 +27765,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -27671,7 +27817,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -27689,25 +27835,25 @@
       <c r="F68" s="4">
         <v>-307.75995463999999</v>
       </c>
-      <c r="L68" s="77" t="str">
+      <c r="L68" s="68" t="str">
         <f t="shared" ref="L68" si="141">INDEX($B$2:$B$6, MATCH(MIN(C67:C71),C67:C71,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="M68" s="77" t="str">
+      <c r="M68" s="68" t="str">
         <f t="shared" ref="M68" si="142">INDEX($B$2:$B$6, MATCH(MIN(D67:D71),D67:D71,0))</f>
         <v>hollow2</v>
       </c>
-      <c r="N68" s="77" t="str">
+      <c r="N68" s="68" t="str">
         <f t="shared" ref="N68" si="143">INDEX($B$2:$B$6, MATCH(MIN(E67:E71),E67:E71,0))</f>
         <v>top3</v>
       </c>
-      <c r="O68" s="77" t="str">
+      <c r="O68" s="68" t="str">
         <f t="shared" ref="O68" si="144">INDEX($B$2:$B$6, MATCH(MIN(F67:F71),F67:F71,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -27727,7 +27873,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -27747,7 +27893,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -27767,7 +27913,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -27819,7 +27965,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -27837,25 +27983,25 @@
       <c r="F73" s="4">
         <v>-302.23807476000002</v>
       </c>
-      <c r="L73" s="77" t="str">
+      <c r="L73" s="68" t="str">
         <f t="shared" ref="L73" si="152">INDEX($B$2:$B$6, MATCH(MIN(C72:C76),C72:C76,0))</f>
         <v>top2</v>
       </c>
-      <c r="M73" s="77" t="str">
+      <c r="M73" s="68" t="str">
         <f t="shared" ref="M73" si="153">INDEX($B$2:$B$6, MATCH(MIN(D72:D76),D72:D76,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N73" s="77" t="str">
+      <c r="N73" s="68" t="str">
         <f t="shared" ref="N73" si="154">INDEX($B$2:$B$6, MATCH(MIN(E72:E76),E72:E76,0))</f>
         <v>top2</v>
       </c>
-      <c r="O73" s="77" t="str">
+      <c r="O73" s="68" t="str">
         <f t="shared" ref="O73" si="155">INDEX($B$2:$B$6, MATCH(MIN(F72:F76),F72:F76,0))</f>
         <v>hollow2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -27875,7 +28021,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -27895,7 +28041,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="73" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -27915,7 +28061,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -27967,7 +28113,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -27985,25 +28131,25 @@
       <c r="F78" s="4">
         <v>-284.13356513000002</v>
       </c>
-      <c r="L78" s="77" t="str">
+      <c r="L78" s="68" t="str">
         <f t="shared" ref="L78" si="162">INDEX($B$2:$B$6, MATCH(MIN(C77:C81),C77:C81,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="M78" s="77" t="str">
+      <c r="M78" s="68" t="str">
         <f t="shared" ref="M78" si="163">INDEX($B$2:$B$6, MATCH(MIN(D77:D81),D77:D81,0))</f>
         <v>hollow1</v>
       </c>
-      <c r="N78" s="77" t="str">
+      <c r="N78" s="68" t="str">
         <f t="shared" ref="N78" si="164">INDEX($B$2:$B$6, MATCH(MIN(E77:E81),E77:E81,0))</f>
         <v>top2</v>
       </c>
-      <c r="O78" s="77" t="str">
+      <c r="O78" s="68" t="str">
         <f t="shared" ref="O78" si="165">INDEX($B$2:$B$6, MATCH(MIN(F77:F81),F77:F81,0))</f>
         <v>top2</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -28023,7 +28169,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -28043,7 +28189,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="4" t="s">

--- a/plotpackage/myproject/sites/sites.xlsx
+++ b/plotpackage/myproject/sites/sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="12" r:id="rId1"/>
@@ -805,6 +805,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,12 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -1272,7 +1272,7 @@
         <f t="shared" ref="AA2:AA49" si="2">INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="73" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1362,7 @@
         <f t="shared" si="2"/>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC3" s="78"/>
+      <c r="AC3" s="75"/>
       <c r="AD3" s="73" t="s">
         <v>84</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="64" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1434,7 @@
         <f t="shared" si="2"/>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC4" s="78"/>
+      <c r="AC4" s="75"/>
       <c r="AD4" s="73" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -1540,7 +1540,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC5" s="78" t="s">
+      <c r="AC5" s="75" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="73" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="64" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1630,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC6" s="78"/>
+      <c r="AC6" s="75"/>
       <c r="AD6" s="73" t="s">
         <v>84</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="64" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1696,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC7" s="78"/>
+      <c r="AC7" s="75"/>
       <c r="AD7" s="73" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
@@ -1796,7 +1796,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC8" s="78" t="s">
+      <c r="AC8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AD8" s="73" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="64" t="s">
@@ -1882,7 +1882,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC9" s="78" t="s">
+      <c r="AC9" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="73" t="s">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="64" t="s">
@@ -1952,7 +1952,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC10" s="78" t="s">
+      <c r="AC10" s="75" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="73" t="s">
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="64" t="s">
@@ -2054,7 +2054,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC11" s="78" t="s">
+      <c r="AC11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="73" t="s">
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
@@ -2140,7 +2140,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC12" s="78" t="s">
+      <c r="AC12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AD12" s="73" t="s">
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="64" t="s">
@@ -2210,7 +2210,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC13" s="78" t="s">
+      <c r="AC13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="AD13" s="73" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="64" t="s">
@@ -2312,7 +2312,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC14" s="78" t="s">
+      <c r="AC14" s="75" t="s">
         <v>12</v>
       </c>
       <c r="AD14" s="73" t="s">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="64" t="s">
@@ -2398,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC15" s="78" t="s">
+      <c r="AC15" s="75" t="s">
         <v>12</v>
       </c>
       <c r="AD15" s="73" t="s">
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="64" t="s">
@@ -2468,7 +2468,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC16" s="78" t="s">
+      <c r="AC16" s="75" t="s">
         <v>12</v>
       </c>
       <c r="AD16" s="73" t="s">
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="64" t="s">
@@ -2570,7 +2570,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC17" s="78" t="s">
+      <c r="AC17" s="75" t="s">
         <v>13</v>
       </c>
       <c r="AD17" s="73" t="s">
@@ -2594,7 +2594,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="64" t="s">
@@ -2632,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC18" s="78" t="s">
+      <c r="AC18" s="75" t="s">
         <v>13</v>
       </c>
       <c r="AD18" s="73" t="s">
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="64" t="s">
@@ -2678,7 +2678,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC19" s="78" t="s">
+      <c r="AC19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="AD19" s="73" t="s">
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
@@ -2756,7 +2756,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC20" s="78" t="s">
+      <c r="AC20" s="75" t="s">
         <v>14</v>
       </c>
       <c r="AD20" s="73" t="s">
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -2818,7 +2818,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC21" s="78" t="s">
+      <c r="AC21" s="75" t="s">
         <v>14</v>
       </c>
       <c r="AD21" s="73" t="s">
@@ -2842,7 +2842,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="64" t="s">
@@ -2864,7 +2864,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC22" s="78" t="s">
+      <c r="AC22" s="75" t="s">
         <v>14</v>
       </c>
       <c r="AD22" s="73" t="s">
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="77" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="64" t="s">
@@ -2942,7 +2942,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC23" s="78" t="s">
+      <c r="AC23" s="75" t="s">
         <v>15</v>
       </c>
       <c r="AD23" s="73" t="s">
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="77" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -3004,7 +3004,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC24" s="78" t="s">
+      <c r="AC24" s="75" t="s">
         <v>15</v>
       </c>
       <c r="AD24" s="73" t="s">
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="77" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -3050,7 +3050,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC25" s="78" t="s">
+      <c r="AC25" s="75" t="s">
         <v>15</v>
       </c>
       <c r="AD25" s="73" t="s">
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -3128,7 +3128,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC26" s="78" t="s">
+      <c r="AC26" s="75" t="s">
         <v>16</v>
       </c>
       <c r="AD26" s="73" t="s">
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -3190,7 +3190,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC27" s="78" t="s">
+      <c r="AC27" s="75" t="s">
         <v>16</v>
       </c>
       <c r="AD27" s="73" t="s">
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="77" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -3236,7 +3236,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC28" s="78" t="s">
+      <c r="AC28" s="75" t="s">
         <v>16</v>
       </c>
       <c r="AD28" s="73" t="s">
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -3314,7 +3314,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC29" s="78" t="s">
+      <c r="AC29" s="75" t="s">
         <v>17</v>
       </c>
       <c r="AD29" s="73" t="s">
@@ -3338,7 +3338,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -3376,7 +3376,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC30" s="78" t="s">
+      <c r="AC30" s="75" t="s">
         <v>17</v>
       </c>
       <c r="AD30" s="73" t="s">
@@ -3400,7 +3400,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -3422,7 +3422,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC31" s="78" t="s">
+      <c r="AC31" s="75" t="s">
         <v>17</v>
       </c>
       <c r="AD31" s="73" t="s">
@@ -3446,7 +3446,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -3500,7 +3500,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC32" s="78" t="s">
+      <c r="AC32" s="75" t="s">
         <v>18</v>
       </c>
       <c r="AD32" s="73" t="s">
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -3562,7 +3562,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC33" s="78" t="s">
+      <c r="AC33" s="75" t="s">
         <v>18</v>
       </c>
       <c r="AD33" s="73" t="s">
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -3608,7 +3608,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC34" s="78" t="s">
+      <c r="AC34" s="75" t="s">
         <v>18</v>
       </c>
       <c r="AD34" s="73" t="s">
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -3686,7 +3686,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC35" s="78" t="s">
+      <c r="AC35" s="75" t="s">
         <v>19</v>
       </c>
       <c r="AD35" s="73" t="s">
@@ -3710,7 +3710,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -3748,7 +3748,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC36" s="78" t="s">
+      <c r="AC36" s="75" t="s">
         <v>19</v>
       </c>
       <c r="AD36" s="73" t="s">
@@ -3772,7 +3772,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="64" t="s">
@@ -3794,7 +3794,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC37" s="78" t="s">
+      <c r="AC37" s="75" t="s">
         <v>19</v>
       </c>
       <c r="AD37" s="73" t="s">
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="64" t="s">
@@ -3872,7 +3872,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC38" s="78" t="s">
+      <c r="AC38" s="75" t="s">
         <v>20</v>
       </c>
       <c r="AD38" s="73" t="s">
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -3934,7 +3934,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC39" s="78" t="s">
+      <c r="AC39" s="75" t="s">
         <v>20</v>
       </c>
       <c r="AD39" s="73" t="s">
@@ -3958,7 +3958,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -3980,7 +3980,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC40" s="78" t="s">
+      <c r="AC40" s="75" t="s">
         <v>20</v>
       </c>
       <c r="AD40" s="73" t="s">
@@ -4004,7 +4004,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="77" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="64" t="s">
@@ -4058,7 +4058,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC41" s="78" t="s">
+      <c r="AC41" s="75" t="s">
         <v>21</v>
       </c>
       <c r="AD41" s="73" t="s">
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -4120,7 +4120,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC42" s="78" t="s">
+      <c r="AC42" s="75" t="s">
         <v>21</v>
       </c>
       <c r="AD42" s="73" t="s">
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="77" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="64" t="s">
@@ -4166,7 +4166,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC43" s="78" t="s">
+      <c r="AC43" s="75" t="s">
         <v>21</v>
       </c>
       <c r="AD43" s="73" t="s">
@@ -4190,7 +4190,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="64" t="s">
@@ -4244,7 +4244,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC44" s="78" t="s">
+      <c r="AC44" s="75" t="s">
         <v>22</v>
       </c>
       <c r="AD44" s="73" t="s">
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -4306,7 +4306,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC45" s="78" t="s">
+      <c r="AC45" s="75" t="s">
         <v>22</v>
       </c>
       <c r="AD45" s="73" t="s">
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="64" t="s">
@@ -4352,7 +4352,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC46" s="78" t="s">
+      <c r="AC46" s="75" t="s">
         <v>22</v>
       </c>
       <c r="AD46" s="73" t="s">
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="64" t="s">
@@ -4430,7 +4430,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC47" s="78" t="s">
+      <c r="AC47" s="75" t="s">
         <v>23</v>
       </c>
       <c r="AD47" s="73" t="s">
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="64" t="s">
@@ -4492,7 +4492,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC48" s="78" t="s">
+      <c r="AC48" s="75" t="s">
         <v>23</v>
       </c>
       <c r="AD48" s="73" t="s">
@@ -4516,7 +4516,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="64" t="s">
@@ -4538,7 +4538,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC49" s="78" t="s">
+      <c r="AC49" s="75" t="s">
         <v>23</v>
       </c>
       <c r="AD49" s="73" t="s">
@@ -4592,7 +4592,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4645,7 +4645,7 @@
       <c r="AA54">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC54" s="79" t="s">
+      <c r="AC54" s="76" t="s">
         <v>70</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="AA55">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC55" s="79"/>
+      <c r="AC55" s="76"/>
       <c r="AD55" s="70" t="s">
         <v>84</v>
       </c>
@@ -4723,24 +4723,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AC38:AC40"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="AC44:AC46"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AC29:AC31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A54:A55"/>
@@ -4757,6 +4739,24 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AC40"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="AC44:AC46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6930,7 +6930,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z1)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -7020,7 +7020,7 @@
         <f t="shared" ref="AA3:AA33" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="76"/>
       <c r="AD3" s="70" t="s">
         <v>84</v>
       </c>
@@ -7126,7 +7126,7 @@
         <f t="shared" si="7"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC4" s="79" t="s">
+      <c r="AC4" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="70" t="s">
@@ -7216,7 +7216,7 @@
         <f t="shared" si="7"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC5" s="79"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="70" t="s">
         <v>84</v>
       </c>
@@ -7322,7 +7322,7 @@
         <f t="shared" si="7"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC6" s="79" t="s">
+      <c r="AC6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -7408,7 +7408,7 @@
         <f t="shared" si="7"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC7" s="79" t="s">
+      <c r="AC7" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -7510,7 +7510,7 @@
         <f t="shared" si="7"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC8" s="79" t="s">
+      <c r="AC8" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD8" s="70" t="s">
@@ -7596,7 +7596,7 @@
         <f t="shared" si="7"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC9" s="79" t="s">
+      <c r="AC9" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD9" s="70" t="s">
@@ -7698,7 +7698,7 @@
         <f t="shared" si="7"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC10" s="79" t="s">
+      <c r="AC10" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -7784,7 +7784,7 @@
         <f t="shared" si="7"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC11" s="79" t="s">
+      <c r="AC11" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -7886,7 +7886,7 @@
         <f t="shared" si="7"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -7972,7 +7972,7 @@
         <f t="shared" si="7"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -8074,7 +8074,7 @@
         <f t="shared" si="7"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC14" s="79" t="s">
+      <c r="AC14" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -8160,7 +8160,7 @@
         <f t="shared" si="7"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC15" s="79" t="s">
+      <c r="AC15" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -8262,7 +8262,7 @@
         <f t="shared" si="7"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC16" s="79" t="s">
+      <c r="AC16" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -8348,7 +8348,7 @@
         <f t="shared" si="7"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC17" s="79" t="s">
+      <c r="AC17" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -8426,7 +8426,7 @@
         <f t="shared" si="7"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC18" s="79" t="s">
+      <c r="AC18" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -8488,7 +8488,7 @@
         <f t="shared" si="7"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC19" s="79" t="s">
+      <c r="AC19" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -8566,7 +8566,7 @@
         <f t="shared" si="7"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC20" s="79" t="s">
+      <c r="AC20" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -8628,7 +8628,7 @@
         <f t="shared" si="7"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC21" s="79" t="s">
+      <c r="AC21" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -8706,7 +8706,7 @@
         <f t="shared" si="7"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -8768,7 +8768,7 @@
         <f t="shared" si="7"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC23" s="79" t="s">
+      <c r="AC23" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -8846,7 +8846,7 @@
         <f t="shared" si="7"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC24" s="79" t="s">
+      <c r="AC24" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -8908,7 +8908,7 @@
         <f t="shared" si="7"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC25" s="79" t="s">
+      <c r="AC25" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -8986,7 +8986,7 @@
         <f t="shared" si="7"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC26" s="79" t="s">
+      <c r="AC26" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -9048,7 +9048,7 @@
         <f t="shared" si="7"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC27" s="79" t="s">
+      <c r="AC27" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -9126,7 +9126,7 @@
         <f t="shared" si="7"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC28" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -9188,7 +9188,7 @@
         <f t="shared" si="7"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC29" s="79" t="s">
+      <c r="AC29" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -9266,7 +9266,7 @@
         <f t="shared" si="7"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC30" s="79" t="s">
+      <c r="AC30" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -9328,7 +9328,7 @@
         <f t="shared" si="7"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AC31" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -9406,7 +9406,7 @@
         <f t="shared" si="7"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -9468,7 +9468,7 @@
         <f t="shared" si="7"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC33" s="79" t="s">
+      <c r="AC33" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -9493,22 +9493,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -9519,12 +9509,22 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC30:AC31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14499,7 +14499,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -14588,7 +14588,7 @@
         <f t="shared" ref="AA3:AA65" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="76"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -14659,7 +14659,7 @@
         <f t="shared" si="7"/>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -14730,7 +14730,7 @@
         <f t="shared" si="7"/>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC5" s="79"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -14835,7 +14835,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC6" s="79" t="s">
+      <c r="AC6" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -14918,7 +14918,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC7" s="79"/>
+      <c r="AC7" s="76"/>
       <c r="AD7" s="70" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14983,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC8" s="79"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="70" t="s">
         <v>8</v>
       </c>
@@ -15048,7 +15048,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC9" s="79"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="70" t="s">
         <v>26</v>
       </c>
@@ -15147,7 +15147,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC10" s="79" t="s">
+      <c r="AC10" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -15232,7 +15232,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC11" s="79" t="s">
+      <c r="AC11" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -15301,7 +15301,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -15370,7 +15370,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -15471,7 +15471,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC14" s="79" t="s">
+      <c r="AC14" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -15556,7 +15556,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC15" s="79" t="s">
+      <c r="AC15" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -15625,7 +15625,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC16" s="79" t="s">
+      <c r="AC16" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -15694,7 +15694,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC17" s="79" t="s">
+      <c r="AC17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -15773,7 +15773,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC18" s="79" t="s">
+      <c r="AC18" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -15835,7 +15835,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC19" s="79" t="s">
+      <c r="AC19" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -15881,7 +15881,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC20" s="79" t="s">
+      <c r="AC20" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -15927,7 +15927,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC21" s="79" t="s">
+      <c r="AC21" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -16005,7 +16005,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -16067,7 +16067,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC23" s="79" t="s">
+      <c r="AC23" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -16113,7 +16113,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC24" s="79" t="s">
+      <c r="AC24" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -16159,7 +16159,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC25" s="79" t="s">
+      <c r="AC25" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -16237,7 +16237,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC26" s="79" t="s">
+      <c r="AC26" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -16299,7 +16299,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC27" s="79" t="s">
+      <c r="AC27" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -16348,7 +16348,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC28" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -16394,7 +16394,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC29" s="79" t="s">
+      <c r="AC29" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -16472,7 +16472,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC30" s="79" t="s">
+      <c r="AC30" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -16534,7 +16534,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AC31" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -16580,7 +16580,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -16629,7 +16629,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC33" s="79" t="s">
+      <c r="AC33" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -16707,7 +16707,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC34" s="79" t="s">
+      <c r="AC34" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -16769,7 +16769,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC35" s="79" t="s">
+      <c r="AC35" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -16815,7 +16815,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC36" s="79" t="s">
+      <c r="AC36" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -16861,7 +16861,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC37" s="79" t="s">
+      <c r="AC37" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -16939,7 +16939,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC38" s="79" t="s">
+      <c r="AC38" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -17001,7 +17001,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC39" s="79" t="s">
+      <c r="AC39" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -17047,7 +17047,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC40" s="79" t="s">
+      <c r="AC40" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -17093,7 +17093,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC41" s="79" t="s">
+      <c r="AC41" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -17171,7 +17171,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC42" s="79" t="s">
+      <c r="AC42" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -17233,7 +17233,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC43" s="79" t="s">
+      <c r="AC43" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -17279,7 +17279,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC44" s="79" t="s">
+      <c r="AC44" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -17325,7 +17325,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC45" s="79" t="s">
+      <c r="AC45" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -17403,7 +17403,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC46" s="79" t="s">
+      <c r="AC46" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -17465,7 +17465,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC47" s="79" t="s">
+      <c r="AC47" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -17511,7 +17511,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC48" s="79" t="s">
+      <c r="AC48" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -17557,7 +17557,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC49" s="79" t="s">
+      <c r="AC49" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -17635,7 +17635,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC50" s="79" t="s">
+      <c r="AC50" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -17697,7 +17697,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC51" s="79" t="s">
+      <c r="AC51" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -17743,7 +17743,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC52" s="79" t="s">
+      <c r="AC52" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -17789,7 +17789,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC53" s="79" t="s">
+      <c r="AC53" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -17867,7 +17867,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC54" s="79" t="s">
+      <c r="AC54" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -17929,7 +17929,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC55" s="79" t="s">
+      <c r="AC55" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -17975,7 +17975,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC56" s="79" t="s">
+      <c r="AC56" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -18021,7 +18021,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC57" s="79" t="s">
+      <c r="AC57" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -18095,7 +18095,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC58" s="79" t="s">
+      <c r="AC58" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -18157,7 +18157,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC59" s="79" t="s">
+      <c r="AC59" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -18203,7 +18203,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC60" s="79" t="s">
+      <c r="AC60" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -18249,7 +18249,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC61" s="79" t="s">
+      <c r="AC61" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -18327,7 +18327,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC62" s="79" t="s">
+      <c r="AC62" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -18389,7 +18389,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC63" s="79" t="s">
+      <c r="AC63" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -18435,7 +18435,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC64" s="79" t="s">
+      <c r="AC64" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -18481,7 +18481,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC65" s="79" t="s">
+      <c r="AC65" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -18506,22 +18506,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
@@ -18532,12 +18522,22 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20755,7 +20755,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -20845,7 +20845,7 @@
         <f t="shared" ref="AA3:AA65" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="76"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -20917,7 +20917,7 @@
         <f t="shared" si="7"/>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -20989,7 +20989,7 @@
         <f t="shared" si="7"/>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC5" s="79"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -21095,7 +21095,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC6" s="79" t="s">
+      <c r="AC6" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -21179,7 +21179,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC7" s="79"/>
+      <c r="AC7" s="76"/>
       <c r="AD7" s="70" t="s">
         <v>25</v>
       </c>
@@ -21245,7 +21245,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC8" s="79"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="70" t="s">
         <v>8</v>
       </c>
@@ -21311,7 +21311,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC9" s="79"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="70" t="s">
         <v>26</v>
       </c>
@@ -21411,7 +21411,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC10" s="79" t="s">
+      <c r="AC10" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -21497,7 +21497,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC11" s="79" t="s">
+      <c r="AC11" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -21567,7 +21567,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -21637,7 +21637,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -21739,7 +21739,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC14" s="79" t="s">
+      <c r="AC14" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -21825,7 +21825,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC15" s="79" t="s">
+      <c r="AC15" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -21895,7 +21895,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC16" s="79" t="s">
+      <c r="AC16" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -21965,7 +21965,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC17" s="79" t="s">
+      <c r="AC17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -22043,7 +22043,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC18" s="79" t="s">
+      <c r="AC18" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -22105,7 +22105,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC19" s="79" t="s">
+      <c r="AC19" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -22151,7 +22151,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC20" s="79" t="s">
+      <c r="AC20" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -22197,7 +22197,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC21" s="79" t="s">
+      <c r="AC21" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -22275,7 +22275,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -22337,7 +22337,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC23" s="79" t="s">
+      <c r="AC23" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -22383,7 +22383,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC24" s="79" t="s">
+      <c r="AC24" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -22429,7 +22429,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC25" s="79" t="s">
+      <c r="AC25" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -22507,7 +22507,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC26" s="79" t="s">
+      <c r="AC26" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -22569,7 +22569,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC27" s="79" t="s">
+      <c r="AC27" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -22615,7 +22615,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC28" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -22661,7 +22661,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC29" s="79" t="s">
+      <c r="AC29" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -22739,7 +22739,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC30" s="79" t="s">
+      <c r="AC30" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -22801,7 +22801,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AC31" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -22847,7 +22847,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -22893,7 +22893,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC33" s="79" t="s">
+      <c r="AC33" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -22971,7 +22971,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC34" s="79" t="s">
+      <c r="AC34" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -23033,7 +23033,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC35" s="79" t="s">
+      <c r="AC35" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -23079,7 +23079,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC36" s="79" t="s">
+      <c r="AC36" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -23125,7 +23125,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC37" s="79" t="s">
+      <c r="AC37" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -23203,7 +23203,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC38" s="79" t="s">
+      <c r="AC38" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -23265,7 +23265,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC39" s="79" t="s">
+      <c r="AC39" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -23311,7 +23311,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC40" s="79" t="s">
+      <c r="AC40" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -23357,7 +23357,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC41" s="79" t="s">
+      <c r="AC41" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -23435,7 +23435,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC42" s="79" t="s">
+      <c r="AC42" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -23497,7 +23497,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC43" s="79" t="s">
+      <c r="AC43" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -23543,7 +23543,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC44" s="79" t="s">
+      <c r="AC44" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -23589,7 +23589,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC45" s="79" t="s">
+      <c r="AC45" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -23667,7 +23667,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC46" s="79" t="s">
+      <c r="AC46" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -23729,7 +23729,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC47" s="79" t="s">
+      <c r="AC47" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -23775,7 +23775,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC48" s="79" t="s">
+      <c r="AC48" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -23821,7 +23821,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC49" s="79" t="s">
+      <c r="AC49" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -23899,7 +23899,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC50" s="79" t="s">
+      <c r="AC50" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -23961,7 +23961,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC51" s="79" t="s">
+      <c r="AC51" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -24007,7 +24007,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC52" s="79" t="s">
+      <c r="AC52" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -24053,7 +24053,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC53" s="79" t="s">
+      <c r="AC53" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -24131,7 +24131,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC54" s="79" t="s">
+      <c r="AC54" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -24193,7 +24193,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC55" s="79" t="s">
+      <c r="AC55" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -24239,7 +24239,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC56" s="79" t="s">
+      <c r="AC56" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -24285,7 +24285,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC57" s="79" t="s">
+      <c r="AC57" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -24363,7 +24363,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC58" s="79" t="s">
+      <c r="AC58" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -24425,7 +24425,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC59" s="79" t="s">
+      <c r="AC59" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -24471,7 +24471,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC60" s="79" t="s">
+      <c r="AC60" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -24517,7 +24517,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC61" s="79" t="s">
+      <c r="AC61" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -24595,7 +24595,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC62" s="79" t="s">
+      <c r="AC62" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -24657,7 +24657,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC63" s="79" t="s">
+      <c r="AC63" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -24703,7 +24703,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC64" s="79" t="s">
+      <c r="AC64" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -24749,7 +24749,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC65" s="79" t="s">
+      <c r="AC65" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -24774,22 +24774,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
@@ -24800,12 +24790,22 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26877,8 +26877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27023,7 +27023,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -27113,7 +27113,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z4)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="76"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -27185,7 +27185,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -27257,7 +27257,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC5" s="79"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -27329,7 +27329,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC6" s="79"/>
+      <c r="AC6" s="76"/>
       <c r="AD6" s="70" t="s">
         <v>28</v>
       </c>
@@ -27429,7 +27429,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC7" s="79" t="s">
+      <c r="AC7" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -27513,7 +27513,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC8" s="79"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="70" t="s">
         <v>25</v>
       </c>
@@ -27579,7 +27579,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC9" s="79"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="70" t="s">
         <v>8</v>
       </c>
@@ -27645,7 +27645,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC10" s="79"/>
+      <c r="AC10" s="76"/>
       <c r="AD10" s="70" t="s">
         <v>26</v>
       </c>
@@ -27711,7 +27711,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC11" s="79"/>
+      <c r="AC11" s="76"/>
       <c r="AD11" s="70" t="s">
         <v>28</v>
       </c>
@@ -27811,7 +27811,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -27897,7 +27897,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -27967,7 +27967,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC14" s="79" t="s">
+      <c r="AC14" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -28037,7 +28037,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC15" s="79" t="s">
+      <c r="AC15" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -28107,7 +28107,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC16" s="79" t="s">
+      <c r="AC16" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -28209,7 +28209,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC17" s="79" t="s">
+      <c r="AC17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -28271,7 +28271,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC18" s="79" t="s">
+      <c r="AC18" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -28317,7 +28317,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC19" s="79" t="s">
+      <c r="AC19" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -28363,7 +28363,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC20" s="79" t="s">
+      <c r="AC20" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -28409,7 +28409,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC21" s="79" t="s">
+      <c r="AC21" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -28487,7 +28487,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -28549,7 +28549,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC23" s="79" t="s">
+      <c r="AC23" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -28595,7 +28595,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC24" s="79" t="s">
+      <c r="AC24" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -28641,7 +28641,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC25" s="79" t="s">
+      <c r="AC25" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -28687,7 +28687,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC26" s="79" t="s">
+      <c r="AC26" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -28765,7 +28765,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC27" s="79" t="s">
+      <c r="AC27" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -28827,7 +28827,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC28" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -28873,7 +28873,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC29" s="79" t="s">
+      <c r="AC29" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -28919,7 +28919,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC30" s="79" t="s">
+      <c r="AC30" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -28965,7 +28965,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AC31" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -29043,7 +29043,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -29105,7 +29105,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC33" s="79" t="s">
+      <c r="AC33" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -29151,7 +29151,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC34" s="79" t="s">
+      <c r="AC34" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -29197,7 +29197,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC35" s="79" t="s">
+      <c r="AC35" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -29243,7 +29243,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC36" s="79" t="s">
+      <c r="AC36" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -29321,7 +29321,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC37" s="79" t="s">
+      <c r="AC37" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -29383,7 +29383,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC38" s="79" t="s">
+      <c r="AC38" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -29429,7 +29429,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC39" s="79" t="s">
+      <c r="AC39" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -29475,7 +29475,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC40" s="79" t="s">
+      <c r="AC40" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -29521,7 +29521,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC41" s="79" t="s">
+      <c r="AC41" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -29599,7 +29599,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC42" s="79" t="s">
+      <c r="AC42" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -29661,7 +29661,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC43" s="79" t="s">
+      <c r="AC43" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -29707,7 +29707,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC44" s="79" t="s">
+      <c r="AC44" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -29753,7 +29753,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC45" s="79" t="s">
+      <c r="AC45" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -29799,7 +29799,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC46" s="79" t="s">
+      <c r="AC46" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -29877,7 +29877,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC47" s="79" t="s">
+      <c r="AC47" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -29939,7 +29939,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC48" s="79" t="s">
+      <c r="AC48" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -29985,7 +29985,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC49" s="79" t="s">
+      <c r="AC49" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -30031,7 +30031,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC50" s="79" t="s">
+      <c r="AC50" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -30077,7 +30077,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC51" s="79" t="s">
+      <c r="AC51" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -30155,7 +30155,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC52" s="79" t="s">
+      <c r="AC52" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -30217,7 +30217,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC53" s="79" t="s">
+      <c r="AC53" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -30263,7 +30263,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC54" s="79" t="s">
+      <c r="AC54" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -30309,7 +30309,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC55" s="79" t="s">
+      <c r="AC55" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -30355,7 +30355,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC56" s="79" t="s">
+      <c r="AC56" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -30433,7 +30433,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC57" s="79" t="s">
+      <c r="AC57" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -30495,7 +30495,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC58" s="79" t="s">
+      <c r="AC58" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -30541,7 +30541,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC59" s="79" t="s">
+      <c r="AC59" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -30587,7 +30587,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC60" s="79" t="s">
+      <c r="AC60" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -30633,7 +30633,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC61" s="79" t="s">
+      <c r="AC61" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -30711,7 +30711,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC62" s="79" t="s">
+      <c r="AC62" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -30773,7 +30773,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC63" s="79" t="s">
+      <c r="AC63" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -30819,7 +30819,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC64" s="79" t="s">
+      <c r="AC64" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -30865,7 +30865,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC65" s="79" t="s">
+      <c r="AC65" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -30911,7 +30911,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC66" s="79" t="s">
+      <c r="AC66" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD66" s="70" t="s">
@@ -30989,7 +30989,7 @@
         <f t="shared" ref="AA67:AA81" si="151">INDEX($Z$2:$Z$17,ROUND(ROW(Z68)/5, 0))</f>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC67" s="79" t="s">
+      <c r="AC67" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD67" s="70" t="s">
@@ -31051,7 +31051,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC68" s="79" t="s">
+      <c r="AC68" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD68" s="70" t="s">
@@ -31097,7 +31097,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC69" s="79" t="s">
+      <c r="AC69" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD69" s="70" t="s">
@@ -31143,7 +31143,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC70" s="79" t="s">
+      <c r="AC70" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD70" s="70" t="s">
@@ -31189,7 +31189,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC71" s="79" t="s">
+      <c r="AC71" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD71" s="70" t="s">
@@ -31267,7 +31267,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC72" s="79" t="s">
+      <c r="AC72" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD72" s="70" t="s">
@@ -31329,7 +31329,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC73" s="79" t="s">
+      <c r="AC73" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD73" s="70" t="s">
@@ -31375,7 +31375,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC74" s="79" t="s">
+      <c r="AC74" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD74" s="70" t="s">
@@ -31421,7 +31421,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC75" s="79" t="s">
+      <c r="AC75" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD75" s="70" t="s">
@@ -31467,7 +31467,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC76" s="79" t="s">
+      <c r="AC76" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD76" s="70" t="s">
@@ -31545,7 +31545,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC77" s="79" t="s">
+      <c r="AC77" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD77" s="70" t="s">
@@ -31607,7 +31607,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC78" s="79" t="s">
+      <c r="AC78" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD78" s="70" t="s">
@@ -31653,7 +31653,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC79" s="79" t="s">
+      <c r="AC79" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD79" s="70" t="s">
@@ -31699,7 +31699,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC80" s="79" t="s">
+      <c r="AC80" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD80" s="70" t="s">
@@ -31745,7 +31745,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC81" s="79" t="s">
+      <c r="AC81" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD81" s="70" t="s">
@@ -31770,22 +31770,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
@@ -31796,12 +31786,22 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31811,7 +31811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
@@ -33980,7 +33980,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC2" s="79" t="s">
+      <c r="AC2" s="76" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -34070,7 +34070,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z4)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="76"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -34142,7 +34142,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="70" t="s">
         <v>32</v>
       </c>
@@ -34214,7 +34214,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC5" s="79"/>
+      <c r="AC5" s="76"/>
       <c r="AD5" s="70" t="s">
         <v>8</v>
       </c>
@@ -34286,7 +34286,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC6" s="79"/>
+      <c r="AC6" s="76"/>
       <c r="AD6" s="70" t="s">
         <v>26</v>
       </c>
@@ -34386,7 +34386,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC7" s="79" t="s">
+      <c r="AC7" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -34470,7 +34470,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC8" s="79"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="70" t="s">
         <v>25</v>
       </c>
@@ -34536,7 +34536,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC9" s="79"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="70" t="s">
         <v>32</v>
       </c>
@@ -34602,7 +34602,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC10" s="79"/>
+      <c r="AC10" s="76"/>
       <c r="AD10" s="70" t="s">
         <v>8</v>
       </c>
@@ -34668,7 +34668,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC11" s="79"/>
+      <c r="AC11" s="76"/>
       <c r="AD11" s="70" t="s">
         <v>26</v>
       </c>
@@ -34768,7 +34768,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC12" s="79" t="s">
+      <c r="AC12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -34854,7 +34854,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC13" s="79" t="s">
+      <c r="AC13" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -34924,7 +34924,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC14" s="79" t="s">
+      <c r="AC14" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -34994,7 +34994,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC15" s="79" t="s">
+      <c r="AC15" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -35064,7 +35064,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC16" s="79" t="s">
+      <c r="AC16" s="76" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -35166,7 +35166,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC17" s="79" t="s">
+      <c r="AC17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -35228,7 +35228,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC18" s="79" t="s">
+      <c r="AC18" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -35274,7 +35274,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC19" s="79" t="s">
+      <c r="AC19" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -35320,7 +35320,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC20" s="79" t="s">
+      <c r="AC20" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -35366,7 +35366,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC21" s="79" t="s">
+      <c r="AC21" s="76" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -35444,7 +35444,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC22" s="79" t="s">
+      <c r="AC22" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -35506,7 +35506,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC23" s="79" t="s">
+      <c r="AC23" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -35552,7 +35552,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC24" s="79" t="s">
+      <c r="AC24" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -35598,7 +35598,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC25" s="79" t="s">
+      <c r="AC25" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -35644,7 +35644,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC26" s="79" t="s">
+      <c r="AC26" s="76" t="s">
         <v>12</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -35722,7 +35722,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC27" s="79" t="s">
+      <c r="AC27" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -35784,7 +35784,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC28" s="79" t="s">
+      <c r="AC28" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -35830,7 +35830,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC29" s="79" t="s">
+      <c r="AC29" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -35876,7 +35876,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC30" s="79" t="s">
+      <c r="AC30" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -35922,7 +35922,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC31" s="79" t="s">
+      <c r="AC31" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -36000,7 +36000,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC32" s="79" t="s">
+      <c r="AC32" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -36062,7 +36062,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC33" s="79" t="s">
+      <c r="AC33" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -36108,7 +36108,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC34" s="79" t="s">
+      <c r="AC34" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -36154,7 +36154,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC35" s="79" t="s">
+      <c r="AC35" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -36200,7 +36200,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC36" s="79" t="s">
+      <c r="AC36" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -36278,7 +36278,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC37" s="79" t="s">
+      <c r="AC37" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -36340,7 +36340,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC38" s="79" t="s">
+      <c r="AC38" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -36386,7 +36386,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC39" s="79" t="s">
+      <c r="AC39" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -36432,7 +36432,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC40" s="79" t="s">
+      <c r="AC40" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -36478,7 +36478,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC41" s="79" t="s">
+      <c r="AC41" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -36556,7 +36556,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC42" s="79" t="s">
+      <c r="AC42" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -36618,7 +36618,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC43" s="79" t="s">
+      <c r="AC43" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -36664,7 +36664,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC44" s="79" t="s">
+      <c r="AC44" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -36710,7 +36710,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC45" s="79" t="s">
+      <c r="AC45" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -36756,7 +36756,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC46" s="79" t="s">
+      <c r="AC46" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -36834,7 +36834,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC47" s="79" t="s">
+      <c r="AC47" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -36896,7 +36896,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC48" s="79" t="s">
+      <c r="AC48" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -36942,7 +36942,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC49" s="79" t="s">
+      <c r="AC49" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -36988,7 +36988,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC50" s="79" t="s">
+      <c r="AC50" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -37034,7 +37034,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC51" s="79" t="s">
+      <c r="AC51" s="76" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -37112,7 +37112,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC52" s="79" t="s">
+      <c r="AC52" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -37174,7 +37174,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC53" s="79" t="s">
+      <c r="AC53" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -37220,7 +37220,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC54" s="79" t="s">
+      <c r="AC54" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -37266,7 +37266,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC55" s="79" t="s">
+      <c r="AC55" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -37312,7 +37312,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC56" s="79" t="s">
+      <c r="AC56" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -37390,7 +37390,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC57" s="79" t="s">
+      <c r="AC57" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -37452,7 +37452,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC58" s="79" t="s">
+      <c r="AC58" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -37498,7 +37498,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC59" s="79" t="s">
+      <c r="AC59" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -37544,7 +37544,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC60" s="79" t="s">
+      <c r="AC60" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -37590,7 +37590,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC61" s="79" t="s">
+      <c r="AC61" s="76" t="s">
         <v>19</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -37668,7 +37668,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC62" s="79" t="s">
+      <c r="AC62" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -37730,7 +37730,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC63" s="79" t="s">
+      <c r="AC63" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -37776,7 +37776,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC64" s="79" t="s">
+      <c r="AC64" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -37822,7 +37822,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC65" s="79" t="s">
+      <c r="AC65" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -37868,7 +37868,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC66" s="79" t="s">
+      <c r="AC66" s="76" t="s">
         <v>20</v>
       </c>
       <c r="AD66" s="70" t="s">
@@ -37946,7 +37946,7 @@
         <f t="shared" ref="AA67:AA81" si="146">INDEX($Z$2:$Z$17,ROUND(ROW(Z68)/5, 0))</f>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC67" s="79" t="s">
+      <c r="AC67" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD67" s="70" t="s">
@@ -38008,7 +38008,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC68" s="79" t="s">
+      <c r="AC68" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD68" s="70" t="s">
@@ -38054,7 +38054,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC69" s="79" t="s">
+      <c r="AC69" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD69" s="70" t="s">
@@ -38100,7 +38100,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC70" s="79" t="s">
+      <c r="AC70" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD70" s="70" t="s">
@@ -38146,7 +38146,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC71" s="79" t="s">
+      <c r="AC71" s="76" t="s">
         <v>21</v>
       </c>
       <c r="AD71" s="70" t="s">
@@ -38224,7 +38224,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC72" s="79" t="s">
+      <c r="AC72" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD72" s="70" t="s">
@@ -38286,7 +38286,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC73" s="79" t="s">
+      <c r="AC73" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD73" s="70" t="s">
@@ -38332,7 +38332,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC74" s="79" t="s">
+      <c r="AC74" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD74" s="70" t="s">
@@ -38378,7 +38378,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC75" s="79" t="s">
+      <c r="AC75" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD75" s="70" t="s">
@@ -38424,7 +38424,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC76" s="79" t="s">
+      <c r="AC76" s="76" t="s">
         <v>22</v>
       </c>
       <c r="AD76" s="70" t="s">
@@ -38502,7 +38502,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC77" s="79" t="s">
+      <c r="AC77" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD77" s="70" t="s">
@@ -38564,7 +38564,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC78" s="79" t="s">
+      <c r="AC78" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD78" s="70" t="s">
@@ -38610,7 +38610,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC79" s="79" t="s">
+      <c r="AC79" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD79" s="70" t="s">
@@ -38656,7 +38656,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC80" s="79" t="s">
+      <c r="AC80" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD80" s="70" t="s">
@@ -38702,7 +38702,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC81" s="79" t="s">
+      <c r="AC81" s="76" t="s">
         <v>23</v>
       </c>
       <c r="AD81" s="70" t="s">
@@ -38727,22 +38727,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
@@ -38753,12 +38743,22 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC22:AC26"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plotpackage/myproject/sites/sites.xlsx
+++ b/plotpackage/myproject/sites/sites.xlsx
@@ -805,12 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -818,6 +812,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -1272,7 +1272,7 @@
         <f t="shared" ref="AA2:AA49" si="2">INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/3, 0))</f>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC2" s="75" t="s">
+      <c r="AC2" s="78" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="73" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1362,7 @@
         <f t="shared" si="2"/>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC3" s="75"/>
+      <c r="AC3" s="78"/>
       <c r="AD3" s="73" t="s">
         <v>84</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="64" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1434,7 @@
         <f t="shared" si="2"/>
         <v>-289.72874337000002</v>
       </c>
-      <c r="AC4" s="75"/>
+      <c r="AC4" s="78"/>
       <c r="AD4" s="73" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -1540,7 +1540,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC5" s="75" t="s">
+      <c r="AC5" s="78" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="73" t="s">
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="64" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1630,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC6" s="75"/>
+      <c r="AC6" s="78"/>
       <c r="AD6" s="73" t="s">
         <v>84</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="64" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1696,7 @@
         <f t="shared" si="2"/>
         <v>-290.57792719999998</v>
       </c>
-      <c r="AC7" s="75"/>
+      <c r="AC7" s="78"/>
       <c r="AD7" s="73" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
@@ -1796,7 +1796,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC8" s="75" t="s">
+      <c r="AC8" s="78" t="s">
         <v>10</v>
       </c>
       <c r="AD8" s="73" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="64" t="s">
@@ -1882,7 +1882,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC9" s="75" t="s">
+      <c r="AC9" s="78" t="s">
         <v>10</v>
       </c>
       <c r="AD9" s="73" t="s">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="64" t="s">
@@ -1952,7 +1952,7 @@
         <f t="shared" si="2"/>
         <v>-290.01870248</v>
       </c>
-      <c r="AC10" s="75" t="s">
+      <c r="AC10" s="78" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="73" t="s">
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="64" t="s">
@@ -2054,7 +2054,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC11" s="75" t="s">
+      <c r="AC11" s="78" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="73" t="s">
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
@@ -2140,7 +2140,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC12" s="75" t="s">
+      <c r="AC12" s="78" t="s">
         <v>11</v>
       </c>
       <c r="AD12" s="73" t="s">
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="64" t="s">
@@ -2210,7 +2210,7 @@
         <f t="shared" si="2"/>
         <v>-288.80757864999998</v>
       </c>
-      <c r="AC13" s="75" t="s">
+      <c r="AC13" s="78" t="s">
         <v>11</v>
       </c>
       <c r="AD13" s="73" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="64" t="s">
@@ -2312,7 +2312,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC14" s="75" t="s">
+      <c r="AC14" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AD14" s="73" t="s">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="64" t="s">
@@ -2398,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC15" s="75" t="s">
+      <c r="AC15" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AD15" s="73" t="s">
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="64" t="s">
@@ -2468,7 +2468,7 @@
         <f t="shared" si="2"/>
         <v>-288.0872263</v>
       </c>
-      <c r="AC16" s="75" t="s">
+      <c r="AC16" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AD16" s="73" t="s">
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="64" t="s">
@@ -2570,7 +2570,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC17" s="75" t="s">
+      <c r="AC17" s="78" t="s">
         <v>13</v>
       </c>
       <c r="AD17" s="73" t="s">
@@ -2594,7 +2594,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="64" t="s">
@@ -2632,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC18" s="75" t="s">
+      <c r="AC18" s="78" t="s">
         <v>13</v>
       </c>
       <c r="AD18" s="73" t="s">
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="64" t="s">
@@ -2678,7 +2678,7 @@
         <f t="shared" si="2"/>
         <v>-287.21830326999998</v>
       </c>
-      <c r="AC19" s="75" t="s">
+      <c r="AC19" s="78" t="s">
         <v>13</v>
       </c>
       <c r="AD19" s="73" t="s">
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="64" t="s">
@@ -2756,7 +2756,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC20" s="75" t="s">
+      <c r="AC20" s="78" t="s">
         <v>14</v>
       </c>
       <c r="AD20" s="73" t="s">
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -2818,7 +2818,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC21" s="75" t="s">
+      <c r="AC21" s="78" t="s">
         <v>14</v>
       </c>
       <c r="AD21" s="73" t="s">
@@ -2842,7 +2842,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="75" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="64" t="s">
@@ -2864,7 +2864,7 @@
         <f t="shared" si="2"/>
         <v>-285.89770778000002</v>
       </c>
-      <c r="AC22" s="75" t="s">
+      <c r="AC22" s="78" t="s">
         <v>14</v>
       </c>
       <c r="AD22" s="73" t="s">
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="64" t="s">
@@ -2942,7 +2942,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC23" s="75" t="s">
+      <c r="AC23" s="78" t="s">
         <v>15</v>
       </c>
       <c r="AD23" s="73" t="s">
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="64" t="s">
@@ -3004,7 +3004,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC24" s="75" t="s">
+      <c r="AC24" s="78" t="s">
         <v>15</v>
       </c>
       <c r="AD24" s="73" t="s">
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -3050,7 +3050,7 @@
         <f t="shared" si="2"/>
         <v>-284.05826666000002</v>
       </c>
-      <c r="AC25" s="75" t="s">
+      <c r="AC25" s="78" t="s">
         <v>15</v>
       </c>
       <c r="AD25" s="73" t="s">
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -3128,7 +3128,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC26" s="75" t="s">
+      <c r="AC26" s="78" t="s">
         <v>16</v>
       </c>
       <c r="AD26" s="73" t="s">
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -3190,7 +3190,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC27" s="75" t="s">
+      <c r="AC27" s="78" t="s">
         <v>16</v>
       </c>
       <c r="AD27" s="73" t="s">
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -3236,7 +3236,7 @@
         <f t="shared" si="2"/>
         <v>-281.80560274999999</v>
       </c>
-      <c r="AC28" s="75" t="s">
+      <c r="AC28" s="78" t="s">
         <v>16</v>
       </c>
       <c r="AD28" s="73" t="s">
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -3314,7 +3314,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC29" s="75" t="s">
+      <c r="AC29" s="78" t="s">
         <v>17</v>
       </c>
       <c r="AD29" s="73" t="s">
@@ -3338,7 +3338,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="64" t="s">
@@ -3376,7 +3376,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC30" s="75" t="s">
+      <c r="AC30" s="78" t="s">
         <v>17</v>
       </c>
       <c r="AD30" s="73" t="s">
@@ -3400,7 +3400,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="64" t="s">
@@ -3422,7 +3422,7 @@
         <f t="shared" si="2"/>
         <v>-290.40232599000001</v>
       </c>
-      <c r="AC31" s="75" t="s">
+      <c r="AC31" s="78" t="s">
         <v>17</v>
       </c>
       <c r="AD31" s="73" t="s">
@@ -3446,7 +3446,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="75" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="64" t="s">
@@ -3500,7 +3500,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC32" s="75" t="s">
+      <c r="AC32" s="78" t="s">
         <v>18</v>
       </c>
       <c r="AD32" s="73" t="s">
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="75" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="64" t="s">
@@ -3562,7 +3562,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC33" s="75" t="s">
+      <c r="AC33" s="78" t="s">
         <v>18</v>
       </c>
       <c r="AD33" s="73" t="s">
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="75" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="64" t="s">
@@ -3608,7 +3608,7 @@
         <f t="shared" si="2"/>
         <v>-291.25230219000002</v>
       </c>
-      <c r="AC34" s="75" t="s">
+      <c r="AC34" s="78" t="s">
         <v>18</v>
       </c>
       <c r="AD34" s="73" t="s">
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -3686,7 +3686,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC35" s="75" t="s">
+      <c r="AC35" s="78" t="s">
         <v>19</v>
       </c>
       <c r="AD35" s="73" t="s">
@@ -3710,7 +3710,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="64" t="s">
@@ -3748,7 +3748,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC36" s="75" t="s">
+      <c r="AC36" s="78" t="s">
         <v>19</v>
       </c>
       <c r="AD36" s="73" t="s">
@@ -3772,7 +3772,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="64" t="s">
@@ -3794,7 +3794,7 @@
         <f t="shared" si="2"/>
         <v>-291.10294408999999</v>
       </c>
-      <c r="AC37" s="75" t="s">
+      <c r="AC37" s="78" t="s">
         <v>19</v>
       </c>
       <c r="AD37" s="73" t="s">
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="64" t="s">
@@ -3872,7 +3872,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC38" s="75" t="s">
+      <c r="AC38" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AD38" s="73" t="s">
@@ -3896,7 +3896,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="64" t="s">
@@ -3934,7 +3934,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC39" s="75" t="s">
+      <c r="AC39" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AD39" s="73" t="s">
@@ -3958,7 +3958,7 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="75" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -3980,7 +3980,7 @@
         <f t="shared" si="2"/>
         <v>-290.87909450000001</v>
       </c>
-      <c r="AC40" s="75" t="s">
+      <c r="AC40" s="78" t="s">
         <v>20</v>
       </c>
       <c r="AD40" s="73" t="s">
@@ -4004,7 +4004,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="75" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="64" t="s">
@@ -4058,7 +4058,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC41" s="75" t="s">
+      <c r="AC41" s="78" t="s">
         <v>21</v>
       </c>
       <c r="AD41" s="73" t="s">
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="75" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="64" t="s">
@@ -4120,7 +4120,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC42" s="75" t="s">
+      <c r="AC42" s="78" t="s">
         <v>21</v>
       </c>
       <c r="AD42" s="73" t="s">
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="75" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="64" t="s">
@@ -4166,7 +4166,7 @@
         <f t="shared" si="2"/>
         <v>-289.12599057</v>
       </c>
-      <c r="AC43" s="75" t="s">
+      <c r="AC43" s="78" t="s">
         <v>21</v>
       </c>
       <c r="AD43" s="73" t="s">
@@ -4190,7 +4190,7 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="64" t="s">
@@ -4244,7 +4244,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC44" s="75" t="s">
+      <c r="AC44" s="78" t="s">
         <v>22</v>
       </c>
       <c r="AD44" s="73" t="s">
@@ -4268,7 +4268,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -4306,7 +4306,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC45" s="75" t="s">
+      <c r="AC45" s="78" t="s">
         <v>22</v>
       </c>
       <c r="AD45" s="73" t="s">
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="64" t="s">
@@ -4352,7 +4352,7 @@
         <f t="shared" si="2"/>
         <v>-287.8558931</v>
       </c>
-      <c r="AC46" s="75" t="s">
+      <c r="AC46" s="78" t="s">
         <v>22</v>
       </c>
       <c r="AD46" s="73" t="s">
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="64" t="s">
@@ -4430,7 +4430,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC47" s="75" t="s">
+      <c r="AC47" s="78" t="s">
         <v>23</v>
       </c>
       <c r="AD47" s="73" t="s">
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="64" t="s">
@@ -4492,7 +4492,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC48" s="75" t="s">
+      <c r="AC48" s="78" t="s">
         <v>23</v>
       </c>
       <c r="AD48" s="73" t="s">
@@ -4516,7 +4516,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="64" t="s">
@@ -4538,7 +4538,7 @@
         <f t="shared" si="2"/>
         <v>-282.91038247</v>
       </c>
-      <c r="AC49" s="75" t="s">
+      <c r="AC49" s="78" t="s">
         <v>23</v>
       </c>
       <c r="AD49" s="73" t="s">
@@ -4592,7 +4592,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="76" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4645,7 +4645,7 @@
       <c r="AA54">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC54" s="76" t="s">
+      <c r="AC54" s="79" t="s">
         <v>70</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A55" s="79"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="AA55">
         <v>-285.37088276999998</v>
       </c>
-      <c r="AC55" s="76"/>
+      <c r="AC55" s="79"/>
       <c r="AD55" s="70" t="s">
         <v>84</v>
       </c>
@@ -4723,6 +4723,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="AC35:AC37"/>
+    <mergeCell ref="AC38:AC40"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="AC44:AC46"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AC23:AC25"/>
+    <mergeCell ref="AC26:AC28"/>
+    <mergeCell ref="AC29:AC31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A54:A55"/>
@@ -4739,24 +4757,6 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AC23:AC25"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="AC35:AC37"/>
-    <mergeCell ref="AC38:AC40"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="AC44:AC46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6930,7 +6930,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z1)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -7020,7 +7020,7 @@
         <f t="shared" ref="AA3:AA33" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/2, 0))</f>
         <v>-310.00375278000001</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="79"/>
       <c r="AD3" s="70" t="s">
         <v>84</v>
       </c>
@@ -7126,7 +7126,7 @@
         <f t="shared" si="7"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="70" t="s">
@@ -7216,7 +7216,7 @@
         <f t="shared" si="7"/>
         <v>-330.03709393999998</v>
       </c>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="70" t="s">
         <v>84</v>
       </c>
@@ -7322,7 +7322,7 @@
         <f t="shared" si="7"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC6" s="76" t="s">
+      <c r="AC6" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -7408,7 +7408,7 @@
         <f t="shared" si="7"/>
         <v>-328.98640502000001</v>
       </c>
-      <c r="AC7" s="76" t="s">
+      <c r="AC7" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -7510,7 +7510,7 @@
         <f t="shared" si="7"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC8" s="76" t="s">
+      <c r="AC8" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD8" s="70" t="s">
@@ -7596,7 +7596,7 @@
         <f t="shared" si="7"/>
         <v>-315.96698997999999</v>
       </c>
-      <c r="AC9" s="76" t="s">
+      <c r="AC9" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD9" s="70" t="s">
@@ -7698,7 +7698,7 @@
         <f t="shared" si="7"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC10" s="76" t="s">
+      <c r="AC10" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -7784,7 +7784,7 @@
         <f t="shared" si="7"/>
         <v>-307.01223512000001</v>
       </c>
-      <c r="AC11" s="76" t="s">
+      <c r="AC11" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -7886,7 +7886,7 @@
         <f t="shared" si="7"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC12" s="76" t="s">
+      <c r="AC12" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -7972,7 +7972,7 @@
         <f t="shared" si="7"/>
         <v>-298.14920612999998</v>
       </c>
-      <c r="AC13" s="76" t="s">
+      <c r="AC13" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -8074,7 +8074,7 @@
         <f t="shared" si="7"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC14" s="76" t="s">
+      <c r="AC14" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -8160,7 +8160,7 @@
         <f t="shared" si="7"/>
         <v>-287.20426621000001</v>
       </c>
-      <c r="AC15" s="76" t="s">
+      <c r="AC15" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -8262,7 +8262,7 @@
         <f t="shared" si="7"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC16" s="76" t="s">
+      <c r="AC16" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -8348,7 +8348,7 @@
         <f t="shared" si="7"/>
         <v>-270.06781725000002</v>
       </c>
-      <c r="AC17" s="76" t="s">
+      <c r="AC17" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -8426,7 +8426,7 @@
         <f t="shared" si="7"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC18" s="76" t="s">
+      <c r="AC18" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -8488,7 +8488,7 @@
         <f t="shared" si="7"/>
         <v>-244.73097322000001</v>
       </c>
-      <c r="AC19" s="76" t="s">
+      <c r="AC19" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -8566,7 +8566,7 @@
         <f t="shared" si="7"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC20" s="76" t="s">
+      <c r="AC20" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -8628,7 +8628,7 @@
         <f t="shared" si="7"/>
         <v>-304.61279636</v>
       </c>
-      <c r="AC21" s="76" t="s">
+      <c r="AC21" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -8706,7 +8706,7 @@
         <f t="shared" si="7"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC22" s="76" t="s">
+      <c r="AC22" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -8768,7 +8768,7 @@
         <f t="shared" si="7"/>
         <v>-327.63376549999998</v>
       </c>
-      <c r="AC23" s="76" t="s">
+      <c r="AC23" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -8846,7 +8846,7 @@
         <f t="shared" si="7"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC24" s="76" t="s">
+      <c r="AC24" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -8908,7 +8908,7 @@
         <f t="shared" si="7"/>
         <v>-336.29197413000003</v>
       </c>
-      <c r="AC25" s="76" t="s">
+      <c r="AC25" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -8986,7 +8986,7 @@
         <f t="shared" si="7"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -9048,7 +9048,7 @@
         <f t="shared" si="7"/>
         <v>-336.94878917</v>
       </c>
-      <c r="AC27" s="76" t="s">
+      <c r="AC27" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -9126,7 +9126,7 @@
         <f t="shared" si="7"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC28" s="76" t="s">
+      <c r="AC28" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -9188,7 +9188,7 @@
         <f t="shared" si="7"/>
         <v>-316.56662510000001</v>
       </c>
-      <c r="AC29" s="76" t="s">
+      <c r="AC29" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -9266,7 +9266,7 @@
         <f t="shared" si="7"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC30" s="76" t="s">
+      <c r="AC30" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -9328,7 +9328,7 @@
         <f t="shared" si="7"/>
         <v>-304.33515631</v>
       </c>
-      <c r="AC31" s="76" t="s">
+      <c r="AC31" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -9406,7 +9406,7 @@
         <f t="shared" si="7"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -9468,7 +9468,7 @@
         <f t="shared" si="7"/>
         <v>-257.67476336999999</v>
       </c>
-      <c r="AC33" s="76" t="s">
+      <c r="AC33" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -9493,12 +9493,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -9509,22 +9519,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -14499,7 +14499,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -14588,7 +14588,7 @@
         <f t="shared" ref="AA3:AA65" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/4, 0))</f>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="79"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -14659,7 +14659,7 @@
         <f t="shared" si="7"/>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -14730,7 +14730,7 @@
         <f t="shared" si="7"/>
         <v>-293.35039803000001</v>
       </c>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -14835,7 +14835,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC6" s="76" t="s">
+      <c r="AC6" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -14918,7 +14918,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC7" s="76"/>
+      <c r="AC7" s="79"/>
       <c r="AD7" s="70" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14983,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC8" s="76"/>
+      <c r="AC8" s="79"/>
       <c r="AD8" s="70" t="s">
         <v>8</v>
       </c>
@@ -15048,7 +15048,7 @@
         <f t="shared" si="7"/>
         <v>-295.58632627999998</v>
       </c>
-      <c r="AC9" s="76"/>
+      <c r="AC9" s="79"/>
       <c r="AD9" s="70" t="s">
         <v>26</v>
       </c>
@@ -15147,7 +15147,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC10" s="76" t="s">
+      <c r="AC10" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -15232,7 +15232,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC11" s="76" t="s">
+      <c r="AC11" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -15301,7 +15301,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC12" s="76" t="s">
+      <c r="AC12" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -15370,7 +15370,7 @@
         <f t="shared" si="7"/>
         <v>-294.60246881</v>
       </c>
-      <c r="AC13" s="76" t="s">
+      <c r="AC13" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -15471,7 +15471,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC14" s="76" t="s">
+      <c r="AC14" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -15556,7 +15556,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC15" s="76" t="s">
+      <c r="AC15" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -15625,7 +15625,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC16" s="76" t="s">
+      <c r="AC16" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -15694,7 +15694,7 @@
         <f t="shared" si="7"/>
         <v>-292.37869689000001</v>
       </c>
-      <c r="AC17" s="76" t="s">
+      <c r="AC17" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -15773,7 +15773,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC18" s="76" t="s">
+      <c r="AC18" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -15835,7 +15835,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC19" s="76" t="s">
+      <c r="AC19" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -15881,7 +15881,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC20" s="76" t="s">
+      <c r="AC20" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -15927,7 +15927,7 @@
         <f t="shared" si="7"/>
         <v>-290.75830592</v>
       </c>
-      <c r="AC21" s="76" t="s">
+      <c r="AC21" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -16005,7 +16005,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC22" s="76" t="s">
+      <c r="AC22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -16067,7 +16067,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC23" s="76" t="s">
+      <c r="AC23" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -16113,7 +16113,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC24" s="76" t="s">
+      <c r="AC24" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -16159,7 +16159,7 @@
         <f t="shared" si="7"/>
         <v>-288.95021006000002</v>
       </c>
-      <c r="AC25" s="76" t="s">
+      <c r="AC25" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -16237,7 +16237,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -16299,7 +16299,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC27" s="76" t="s">
+      <c r="AC27" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -16348,7 +16348,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC28" s="76" t="s">
+      <c r="AC28" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -16394,7 +16394,7 @@
         <f t="shared" si="7"/>
         <v>-286.25359058999999</v>
       </c>
-      <c r="AC29" s="76" t="s">
+      <c r="AC29" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -16472,7 +16472,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC30" s="76" t="s">
+      <c r="AC30" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -16534,7 +16534,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC31" s="76" t="s">
+      <c r="AC31" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -16580,7 +16580,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -16629,7 +16629,7 @@
         <f t="shared" si="7"/>
         <v>-282.50032442000003</v>
       </c>
-      <c r="AC33" s="76" t="s">
+      <c r="AC33" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -16707,7 +16707,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC34" s="76" t="s">
+      <c r="AC34" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -16769,7 +16769,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC35" s="76" t="s">
+      <c r="AC35" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -16815,7 +16815,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC36" s="76" t="s">
+      <c r="AC36" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -16861,7 +16861,7 @@
         <f t="shared" si="7"/>
         <v>-277.79529903999997</v>
       </c>
-      <c r="AC37" s="76" t="s">
+      <c r="AC37" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -16939,7 +16939,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC38" s="76" t="s">
+      <c r="AC38" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -17001,7 +17001,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC39" s="76" t="s">
+      <c r="AC39" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -17047,7 +17047,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC40" s="76" t="s">
+      <c r="AC40" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -17093,7 +17093,7 @@
         <f t="shared" si="7"/>
         <v>-294.26010859000002</v>
       </c>
-      <c r="AC41" s="76" t="s">
+      <c r="AC41" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -17171,7 +17171,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC42" s="76" t="s">
+      <c r="AC42" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -17233,7 +17233,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC43" s="76" t="s">
+      <c r="AC43" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -17279,7 +17279,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC44" s="76" t="s">
+      <c r="AC44" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -17325,7 +17325,7 @@
         <f t="shared" si="7"/>
         <v>-296.55986614</v>
       </c>
-      <c r="AC45" s="76" t="s">
+      <c r="AC45" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -17403,7 +17403,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC46" s="76" t="s">
+      <c r="AC46" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -17465,7 +17465,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC47" s="76" t="s">
+      <c r="AC47" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -17511,7 +17511,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC48" s="76" t="s">
+      <c r="AC48" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -17557,7 +17557,7 @@
         <f t="shared" si="7"/>
         <v>-296.65121391999998</v>
       </c>
-      <c r="AC49" s="76" t="s">
+      <c r="AC49" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -17635,7 +17635,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC50" s="76" t="s">
+      <c r="AC50" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -17697,7 +17697,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC51" s="76" t="s">
+      <c r="AC51" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -17743,7 +17743,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC52" s="76" t="s">
+      <c r="AC52" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -17789,7 +17789,7 @@
         <f t="shared" si="7"/>
         <v>-296.62848849</v>
       </c>
-      <c r="AC53" s="76" t="s">
+      <c r="AC53" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -17867,7 +17867,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC54" s="76" t="s">
+      <c r="AC54" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -17929,7 +17929,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC55" s="76" t="s">
+      <c r="AC55" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -17975,7 +17975,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC56" s="76" t="s">
+      <c r="AC56" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -18021,7 +18021,7 @@
         <f t="shared" si="7"/>
         <v>-292.72810299999998</v>
       </c>
-      <c r="AC57" s="76" t="s">
+      <c r="AC57" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -18095,7 +18095,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC58" s="76" t="s">
+      <c r="AC58" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -18157,7 +18157,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC59" s="76" t="s">
+      <c r="AC59" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -18203,7 +18203,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC60" s="76" t="s">
+      <c r="AC60" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -18249,7 +18249,7 @@
         <f t="shared" si="7"/>
         <v>-290.08258510000002</v>
       </c>
-      <c r="AC61" s="76" t="s">
+      <c r="AC61" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -18327,7 +18327,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC62" s="76" t="s">
+      <c r="AC62" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -18389,7 +18389,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC63" s="76" t="s">
+      <c r="AC63" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -18435,7 +18435,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC64" s="76" t="s">
+      <c r="AC64" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -18481,7 +18481,7 @@
         <f t="shared" si="7"/>
         <v>-280.17143047000002</v>
       </c>
-      <c r="AC65" s="76" t="s">
+      <c r="AC65" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -18506,12 +18506,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC18:AC21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
@@ -18522,22 +18532,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20755,7 +20755,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z2)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -20845,7 +20845,7 @@
         <f t="shared" ref="AA3:AA65" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/4, 0))</f>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="79"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -20917,7 +20917,7 @@
         <f t="shared" si="7"/>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -20989,7 +20989,7 @@
         <f t="shared" si="7"/>
         <v>-296.83300179000003</v>
       </c>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -21095,7 +21095,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC6" s="76" t="s">
+      <c r="AC6" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="70" t="s">
@@ -21179,7 +21179,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC7" s="76"/>
+      <c r="AC7" s="79"/>
       <c r="AD7" s="70" t="s">
         <v>25</v>
       </c>
@@ -21245,7 +21245,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC8" s="76"/>
+      <c r="AC8" s="79"/>
       <c r="AD8" s="70" t="s">
         <v>8</v>
       </c>
@@ -21311,7 +21311,7 @@
         <f t="shared" si="7"/>
         <v>-300.41434888999999</v>
       </c>
-      <c r="AC9" s="76"/>
+      <c r="AC9" s="79"/>
       <c r="AD9" s="70" t="s">
         <v>26</v>
       </c>
@@ -21411,7 +21411,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC10" s="76" t="s">
+      <c r="AC10" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD10" s="70" t="s">
@@ -21497,7 +21497,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC11" s="76" t="s">
+      <c r="AC11" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD11" s="70" t="s">
@@ -21567,7 +21567,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC12" s="76" t="s">
+      <c r="AC12" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -21637,7 +21637,7 @@
         <f t="shared" si="7"/>
         <v>-299.20091115999998</v>
       </c>
-      <c r="AC13" s="76" t="s">
+      <c r="AC13" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -21739,7 +21739,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC14" s="76" t="s">
+      <c r="AC14" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -21825,7 +21825,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC15" s="76" t="s">
+      <c r="AC15" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -21895,7 +21895,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC16" s="76" t="s">
+      <c r="AC16" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -21965,7 +21965,7 @@
         <f t="shared" si="7"/>
         <v>-295.69485178999997</v>
       </c>
-      <c r="AC17" s="76" t="s">
+      <c r="AC17" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -22043,7 +22043,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC18" s="76" t="s">
+      <c r="AC18" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -22105,7 +22105,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC19" s="76" t="s">
+      <c r="AC19" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -22151,7 +22151,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC20" s="76" t="s">
+      <c r="AC20" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -22197,7 +22197,7 @@
         <f t="shared" si="7"/>
         <v>-293.22814670999998</v>
       </c>
-      <c r="AC21" s="76" t="s">
+      <c r="AC21" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -22275,7 +22275,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC22" s="76" t="s">
+      <c r="AC22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -22337,7 +22337,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC23" s="76" t="s">
+      <c r="AC23" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -22383,7 +22383,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC24" s="76" t="s">
+      <c r="AC24" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -22429,7 +22429,7 @@
         <f t="shared" si="7"/>
         <v>-290.52983123000001</v>
       </c>
-      <c r="AC25" s="76" t="s">
+      <c r="AC25" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -22507,7 +22507,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -22569,7 +22569,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC27" s="76" t="s">
+      <c r="AC27" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -22615,7 +22615,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC28" s="76" t="s">
+      <c r="AC28" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -22661,7 +22661,7 @@
         <f t="shared" si="7"/>
         <v>-286.47120063</v>
       </c>
-      <c r="AC29" s="76" t="s">
+      <c r="AC29" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -22739,7 +22739,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC30" s="76" t="s">
+      <c r="AC30" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -22801,7 +22801,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC31" s="76" t="s">
+      <c r="AC31" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -22847,7 +22847,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -22893,7 +22893,7 @@
         <f t="shared" si="7"/>
         <v>-280.70768591000001</v>
       </c>
-      <c r="AC33" s="76" t="s">
+      <c r="AC33" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -22971,7 +22971,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC34" s="76" t="s">
+      <c r="AC34" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -23033,7 +23033,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC35" s="76" t="s">
+      <c r="AC35" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -23079,7 +23079,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC36" s="76" t="s">
+      <c r="AC36" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -23125,7 +23125,7 @@
         <f t="shared" si="7"/>
         <v>-273.44428147000002</v>
       </c>
-      <c r="AC37" s="76" t="s">
+      <c r="AC37" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -23203,7 +23203,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC38" s="76" t="s">
+      <c r="AC38" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -23265,7 +23265,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC39" s="76" t="s">
+      <c r="AC39" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -23311,7 +23311,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC40" s="76" t="s">
+      <c r="AC40" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -23357,7 +23357,7 @@
         <f t="shared" si="7"/>
         <v>-297.57701394999998</v>
       </c>
-      <c r="AC41" s="76" t="s">
+      <c r="AC41" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -23435,7 +23435,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC42" s="76" t="s">
+      <c r="AC42" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -23497,7 +23497,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC43" s="76" t="s">
+      <c r="AC43" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -23543,7 +23543,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC44" s="76" t="s">
+      <c r="AC44" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -23589,7 +23589,7 @@
         <f t="shared" si="7"/>
         <v>-301.57916668000001</v>
       </c>
-      <c r="AC45" s="76" t="s">
+      <c r="AC45" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -23667,7 +23667,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC46" s="76" t="s">
+      <c r="AC46" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -23729,7 +23729,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC47" s="76" t="s">
+      <c r="AC47" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -23775,7 +23775,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC48" s="76" t="s">
+      <c r="AC48" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -23821,7 +23821,7 @@
         <f t="shared" si="7"/>
         <v>-301.97490397000001</v>
       </c>
-      <c r="AC49" s="76" t="s">
+      <c r="AC49" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -23899,7 +23899,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC50" s="76" t="s">
+      <c r="AC50" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -23961,7 +23961,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC51" s="76" t="s">
+      <c r="AC51" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -24007,7 +24007,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC52" s="76" t="s">
+      <c r="AC52" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -24053,7 +24053,7 @@
         <f t="shared" si="7"/>
         <v>-302.03550769999998</v>
       </c>
-      <c r="AC53" s="76" t="s">
+      <c r="AC53" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -24131,7 +24131,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC54" s="76" t="s">
+      <c r="AC54" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -24193,7 +24193,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC55" s="76" t="s">
+      <c r="AC55" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -24239,7 +24239,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC56" s="76" t="s">
+      <c r="AC56" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -24285,7 +24285,7 @@
         <f t="shared" si="7"/>
         <v>-296.21280115000002</v>
       </c>
-      <c r="AC57" s="76" t="s">
+      <c r="AC57" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -24363,7 +24363,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC58" s="76" t="s">
+      <c r="AC58" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -24425,7 +24425,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC59" s="76" t="s">
+      <c r="AC59" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -24471,7 +24471,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC60" s="76" t="s">
+      <c r="AC60" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -24517,7 +24517,7 @@
         <f t="shared" si="7"/>
         <v>-292.26745045000001</v>
       </c>
-      <c r="AC61" s="76" t="s">
+      <c r="AC61" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -24595,7 +24595,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC62" s="76" t="s">
+      <c r="AC62" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -24657,7 +24657,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC63" s="76" t="s">
+      <c r="AC63" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -24703,7 +24703,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC64" s="76" t="s">
+      <c r="AC64" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -24749,7 +24749,7 @@
         <f t="shared" si="7"/>
         <v>-277.19962347000001</v>
       </c>
-      <c r="AC65" s="76" t="s">
+      <c r="AC65" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -24774,12 +24774,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="AC62:AC65"/>
+    <mergeCell ref="AC42:AC45"/>
+    <mergeCell ref="AC46:AC49"/>
+    <mergeCell ref="AC50:AC53"/>
+    <mergeCell ref="AC54:AC57"/>
+    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="AC22:AC25"/>
+    <mergeCell ref="AC26:AC29"/>
+    <mergeCell ref="AC30:AC33"/>
+    <mergeCell ref="AC34:AC37"/>
+    <mergeCell ref="AC38:AC41"/>
+    <mergeCell ref="AC2:AC5"/>
+    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AC10:AC13"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC18:AC21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
@@ -24790,22 +24800,12 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="AC2:AC5"/>
-    <mergeCell ref="AC6:AC9"/>
-    <mergeCell ref="AC10:AC13"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC18:AC21"/>
-    <mergeCell ref="AC22:AC25"/>
-    <mergeCell ref="AC26:AC29"/>
-    <mergeCell ref="AC30:AC33"/>
-    <mergeCell ref="AC34:AC37"/>
-    <mergeCell ref="AC38:AC41"/>
-    <mergeCell ref="AC62:AC65"/>
-    <mergeCell ref="AC42:AC45"/>
-    <mergeCell ref="AC46:AC49"/>
-    <mergeCell ref="AC50:AC53"/>
-    <mergeCell ref="AC54:AC57"/>
-    <mergeCell ref="AC58:AC61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27023,7 +27023,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -27113,7 +27113,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z4)/5, 0))</f>
         <v>-299.98412642</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="79"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -27185,7 +27185,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="70" t="s">
         <v>8</v>
       </c>
@@ -27257,7 +27257,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="70" t="s">
         <v>26</v>
       </c>
@@ -27329,7 +27329,7 @@
         <f t="shared" si="7"/>
         <v>-299.98412642</v>
       </c>
-      <c r="AC6" s="76"/>
+      <c r="AC6" s="79"/>
       <c r="AD6" s="70" t="s">
         <v>28</v>
       </c>
@@ -27429,7 +27429,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC7" s="76" t="s">
+      <c r="AC7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -27513,7 +27513,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC8" s="76"/>
+      <c r="AC8" s="79"/>
       <c r="AD8" s="70" t="s">
         <v>25</v>
       </c>
@@ -27579,7 +27579,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC9" s="76"/>
+      <c r="AC9" s="79"/>
       <c r="AD9" s="70" t="s">
         <v>8</v>
       </c>
@@ -27645,7 +27645,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC10" s="76"/>
+      <c r="AC10" s="79"/>
       <c r="AD10" s="70" t="s">
         <v>26</v>
       </c>
@@ -27711,7 +27711,7 @@
         <f t="shared" si="7"/>
         <v>-305.32634389999998</v>
       </c>
-      <c r="AC11" s="76"/>
+      <c r="AC11" s="79"/>
       <c r="AD11" s="70" t="s">
         <v>28</v>
       </c>
@@ -27811,7 +27811,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC12" s="76" t="s">
+      <c r="AC12" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -27897,7 +27897,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC13" s="76" t="s">
+      <c r="AC13" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -27967,7 +27967,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC14" s="76" t="s">
+      <c r="AC14" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -28037,7 +28037,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC15" s="76" t="s">
+      <c r="AC15" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -28107,7 +28107,7 @@
         <f t="shared" si="7"/>
         <v>-303.95748456000001</v>
       </c>
-      <c r="AC16" s="76" t="s">
+      <c r="AC16" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -28209,7 +28209,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC17" s="76" t="s">
+      <c r="AC17" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -28271,7 +28271,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC18" s="76" t="s">
+      <c r="AC18" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -28317,7 +28317,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC19" s="76" t="s">
+      <c r="AC19" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -28363,7 +28363,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC20" s="76" t="s">
+      <c r="AC20" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -28409,7 +28409,7 @@
         <f t="shared" si="7"/>
         <v>-299.54830048000002</v>
       </c>
-      <c r="AC21" s="76" t="s">
+      <c r="AC21" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -28487,7 +28487,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC22" s="76" t="s">
+      <c r="AC22" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -28549,7 +28549,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC23" s="76" t="s">
+      <c r="AC23" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -28595,7 +28595,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC24" s="76" t="s">
+      <c r="AC24" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -28641,7 +28641,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC25" s="76" t="s">
+      <c r="AC25" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -28687,7 +28687,7 @@
         <f t="shared" si="7"/>
         <v>-296.03595534999999</v>
       </c>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -28765,7 +28765,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC27" s="76" t="s">
+      <c r="AC27" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -28827,7 +28827,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC28" s="76" t="s">
+      <c r="AC28" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -28873,7 +28873,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC29" s="76" t="s">
+      <c r="AC29" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -28919,7 +28919,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC30" s="76" t="s">
+      <c r="AC30" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -28965,7 +28965,7 @@
         <f t="shared" si="7"/>
         <v>-292.04746401</v>
       </c>
-      <c r="AC31" s="76" t="s">
+      <c r="AC31" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -29043,7 +29043,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -29105,7 +29105,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC33" s="76" t="s">
+      <c r="AC33" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -29151,7 +29151,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC34" s="76" t="s">
+      <c r="AC34" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -29197,7 +29197,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC35" s="76" t="s">
+      <c r="AC35" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -29243,7 +29243,7 @@
         <f t="shared" si="7"/>
         <v>-286.78248882999998</v>
       </c>
-      <c r="AC36" s="76" t="s">
+      <c r="AC36" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -29321,7 +29321,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC37" s="76" t="s">
+      <c r="AC37" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -29383,7 +29383,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC38" s="76" t="s">
+      <c r="AC38" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -29429,7 +29429,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC39" s="76" t="s">
+      <c r="AC39" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -29475,7 +29475,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC40" s="76" t="s">
+      <c r="AC40" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -29521,7 +29521,7 @@
         <f t="shared" si="7"/>
         <v>-278.84469228</v>
       </c>
-      <c r="AC41" s="76" t="s">
+      <c r="AC41" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -29599,7 +29599,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC42" s="76" t="s">
+      <c r="AC42" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -29661,7 +29661,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC43" s="76" t="s">
+      <c r="AC43" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -29707,7 +29707,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC44" s="76" t="s">
+      <c r="AC44" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -29753,7 +29753,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC45" s="76" t="s">
+      <c r="AC45" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -29799,7 +29799,7 @@
         <f t="shared" si="7"/>
         <v>-269.41707740999999</v>
       </c>
-      <c r="AC46" s="76" t="s">
+      <c r="AC46" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -29877,7 +29877,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC47" s="76" t="s">
+      <c r="AC47" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -29939,7 +29939,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC48" s="76" t="s">
+      <c r="AC48" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -29985,7 +29985,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC49" s="76" t="s">
+      <c r="AC49" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -30031,7 +30031,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC50" s="76" t="s">
+      <c r="AC50" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -30077,7 +30077,7 @@
         <f t="shared" si="7"/>
         <v>-302.18925858</v>
       </c>
-      <c r="AC51" s="76" t="s">
+      <c r="AC51" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -30155,7 +30155,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC52" s="76" t="s">
+      <c r="AC52" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -30217,7 +30217,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC53" s="76" t="s">
+      <c r="AC53" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -30263,7 +30263,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC54" s="76" t="s">
+      <c r="AC54" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -30309,7 +30309,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC55" s="76" t="s">
+      <c r="AC55" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -30355,7 +30355,7 @@
         <f t="shared" si="7"/>
         <v>-306.98385192000001</v>
       </c>
-      <c r="AC56" s="76" t="s">
+      <c r="AC56" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -30433,7 +30433,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC57" s="76" t="s">
+      <c r="AC57" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -30495,7 +30495,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC58" s="76" t="s">
+      <c r="AC58" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -30541,7 +30541,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC59" s="76" t="s">
+      <c r="AC59" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -30587,7 +30587,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC60" s="76" t="s">
+      <c r="AC60" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -30633,7 +30633,7 @@
         <f t="shared" si="7"/>
         <v>-307.56603160999998</v>
       </c>
-      <c r="AC61" s="76" t="s">
+      <c r="AC61" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -30711,7 +30711,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC62" s="76" t="s">
+      <c r="AC62" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -30773,7 +30773,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC63" s="76" t="s">
+      <c r="AC63" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -30819,7 +30819,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC64" s="76" t="s">
+      <c r="AC64" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -30865,7 +30865,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC65" s="76" t="s">
+      <c r="AC65" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -30911,7 +30911,7 @@
         <f t="shared" si="7"/>
         <v>-307.86431127999998</v>
       </c>
-      <c r="AC66" s="76" t="s">
+      <c r="AC66" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD66" s="70" t="s">
@@ -30989,7 +30989,7 @@
         <f t="shared" ref="AA67:AA81" si="151">INDEX($Z$2:$Z$17,ROUND(ROW(Z68)/5, 0))</f>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC67" s="76" t="s">
+      <c r="AC67" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD67" s="70" t="s">
@@ -31051,7 +31051,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC68" s="76" t="s">
+      <c r="AC68" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD68" s="70" t="s">
@@ -31097,7 +31097,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC69" s="76" t="s">
+      <c r="AC69" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD69" s="70" t="s">
@@ -31143,7 +31143,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC70" s="76" t="s">
+      <c r="AC70" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD70" s="70" t="s">
@@ -31189,7 +31189,7 @@
         <f t="shared" si="151"/>
         <v>-299.79063910999997</v>
       </c>
-      <c r="AC71" s="76" t="s">
+      <c r="AC71" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD71" s="70" t="s">
@@ -31267,7 +31267,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC72" s="76" t="s">
+      <c r="AC72" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD72" s="70" t="s">
@@ -31329,7 +31329,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC73" s="76" t="s">
+      <c r="AC73" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD73" s="70" t="s">
@@ -31375,7 +31375,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC74" s="76" t="s">
+      <c r="AC74" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD74" s="70" t="s">
@@ -31421,7 +31421,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC75" s="76" t="s">
+      <c r="AC75" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD75" s="70" t="s">
@@ -31467,7 +31467,7 @@
         <f t="shared" si="151"/>
         <v>-294.44890693999997</v>
       </c>
-      <c r="AC76" s="76" t="s">
+      <c r="AC76" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD76" s="70" t="s">
@@ -31545,7 +31545,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC77" s="76" t="s">
+      <c r="AC77" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD77" s="70" t="s">
@@ -31607,7 +31607,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC78" s="76" t="s">
+      <c r="AC78" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD78" s="70" t="s">
@@ -31653,7 +31653,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC79" s="76" t="s">
+      <c r="AC79" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD79" s="70" t="s">
@@ -31699,7 +31699,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC80" s="76" t="s">
+      <c r="AC80" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD80" s="70" t="s">
@@ -31745,7 +31745,7 @@
         <f t="shared" si="151"/>
         <v>-274.17038107000002</v>
       </c>
-      <c r="AC81" s="76" t="s">
+      <c r="AC81" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD81" s="70" t="s">
@@ -31770,12 +31770,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC22:AC26"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
@@ -31786,22 +31796,12 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33834,7 +33834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView topLeftCell="C38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AH81"/>
     </sheetView>
   </sheetViews>
@@ -33980,7 +33980,7 @@
         <f>INDEX($Z$2:$Z$17,ROUND(ROW(Z3)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AC2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AD2" s="70" t="s">
@@ -34070,7 +34070,7 @@
         <f t="shared" ref="AA3:AA66" si="7">INDEX($Z$2:$Z$17,ROUND(ROW(Z4)/5, 0))</f>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC3" s="76"/>
+      <c r="AC3" s="79"/>
       <c r="AD3" s="70" t="s">
         <v>25</v>
       </c>
@@ -34142,7 +34142,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="70" t="s">
         <v>32</v>
       </c>
@@ -34214,7 +34214,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="70" t="s">
         <v>8</v>
       </c>
@@ -34286,7 +34286,7 @@
         <f t="shared" si="7"/>
         <v>-300.79528972999998</v>
       </c>
-      <c r="AC6" s="76"/>
+      <c r="AC6" s="79"/>
       <c r="AD6" s="70" t="s">
         <v>26</v>
       </c>
@@ -34386,7 +34386,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC7" s="76" t="s">
+      <c r="AC7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="70" t="s">
@@ -34470,7 +34470,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC8" s="76"/>
+      <c r="AC8" s="79"/>
       <c r="AD8" s="70" t="s">
         <v>25</v>
       </c>
@@ -34536,7 +34536,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC9" s="76"/>
+      <c r="AC9" s="79"/>
       <c r="AD9" s="70" t="s">
         <v>32</v>
       </c>
@@ -34602,7 +34602,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC10" s="76"/>
+      <c r="AC10" s="79"/>
       <c r="AD10" s="70" t="s">
         <v>8</v>
       </c>
@@ -34668,7 +34668,7 @@
         <f t="shared" si="7"/>
         <v>-305.52389717</v>
       </c>
-      <c r="AC11" s="76"/>
+      <c r="AC11" s="79"/>
       <c r="AD11" s="70" t="s">
         <v>26</v>
       </c>
@@ -34768,7 +34768,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC12" s="76" t="s">
+      <c r="AC12" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="70" t="s">
@@ -34854,7 +34854,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC13" s="76" t="s">
+      <c r="AC13" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD13" s="70" t="s">
@@ -34924,7 +34924,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC14" s="76" t="s">
+      <c r="AC14" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="70" t="s">
@@ -34994,7 +34994,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC15" s="76" t="s">
+      <c r="AC15" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD15" s="70" t="s">
@@ -35064,7 +35064,7 @@
         <f t="shared" si="7"/>
         <v>-303.55907509000002</v>
       </c>
-      <c r="AC16" s="76" t="s">
+      <c r="AC16" s="79" t="s">
         <v>10</v>
       </c>
       <c r="AD16" s="70" t="s">
@@ -35166,7 +35166,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC17" s="76" t="s">
+      <c r="AC17" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="70" t="s">
@@ -35228,7 +35228,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC18" s="76" t="s">
+      <c r="AC18" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="70" t="s">
@@ -35274,7 +35274,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC19" s="76" t="s">
+      <c r="AC19" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="70" t="s">
@@ -35320,7 +35320,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC20" s="76" t="s">
+      <c r="AC20" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="70" t="s">
@@ -35366,7 +35366,7 @@
         <f t="shared" si="7"/>
         <v>-298.49017321000002</v>
       </c>
-      <c r="AC21" s="76" t="s">
+      <c r="AC21" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="70" t="s">
@@ -35444,7 +35444,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC22" s="76" t="s">
+      <c r="AC22" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD22" s="70" t="s">
@@ -35506,7 +35506,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC23" s="76" t="s">
+      <c r="AC23" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD23" s="70" t="s">
@@ -35552,7 +35552,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC24" s="76" t="s">
+      <c r="AC24" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD24" s="70" t="s">
@@ -35598,7 +35598,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC25" s="76" t="s">
+      <c r="AC25" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD25" s="70" t="s">
@@ -35644,7 +35644,7 @@
         <f t="shared" si="7"/>
         <v>-295.25725147999998</v>
       </c>
-      <c r="AC26" s="76" t="s">
+      <c r="AC26" s="79" t="s">
         <v>12</v>
       </c>
       <c r="AD26" s="70" t="s">
@@ -35722,7 +35722,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC27" s="76" t="s">
+      <c r="AC27" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="70" t="s">
@@ -35784,7 +35784,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC28" s="76" t="s">
+      <c r="AC28" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD28" s="70" t="s">
@@ -35830,7 +35830,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC29" s="76" t="s">
+      <c r="AC29" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD29" s="70" t="s">
@@ -35876,7 +35876,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC30" s="76" t="s">
+      <c r="AC30" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD30" s="70" t="s">
@@ -35922,7 +35922,7 @@
         <f t="shared" si="7"/>
         <v>-291.82972609000001</v>
       </c>
-      <c r="AC31" s="76" t="s">
+      <c r="AC31" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AD31" s="70" t="s">
@@ -36000,7 +36000,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC32" s="76" t="s">
+      <c r="AC32" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD32" s="70" t="s">
@@ -36062,7 +36062,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC33" s="76" t="s">
+      <c r="AC33" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD33" s="70" t="s">
@@ -36108,7 +36108,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC34" s="76" t="s">
+      <c r="AC34" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD34" s="70" t="s">
@@ -36154,7 +36154,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC35" s="76" t="s">
+      <c r="AC35" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD35" s="70" t="s">
@@ -36200,7 +36200,7 @@
         <f t="shared" si="7"/>
         <v>-286.82059679999998</v>
       </c>
-      <c r="AC36" s="76" t="s">
+      <c r="AC36" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AD36" s="70" t="s">
@@ -36278,7 +36278,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC37" s="76" t="s">
+      <c r="AC37" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="70" t="s">
@@ -36340,7 +36340,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC38" s="76" t="s">
+      <c r="AC38" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD38" s="70" t="s">
@@ -36386,7 +36386,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC39" s="76" t="s">
+      <c r="AC39" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD39" s="70" t="s">
@@ -36432,7 +36432,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC40" s="76" t="s">
+      <c r="AC40" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD40" s="70" t="s">
@@ -36478,7 +36478,7 @@
         <f t="shared" si="7"/>
         <v>-278.77933356</v>
       </c>
-      <c r="AC41" s="76" t="s">
+      <c r="AC41" s="79" t="s">
         <v>15</v>
       </c>
       <c r="AD41" s="70" t="s">
@@ -36556,7 +36556,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC42" s="76" t="s">
+      <c r="AC42" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD42" s="70" t="s">
@@ -36618,7 +36618,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC43" s="76" t="s">
+      <c r="AC43" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD43" s="70" t="s">
@@ -36664,7 +36664,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC44" s="76" t="s">
+      <c r="AC44" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD44" s="70" t="s">
@@ -36710,7 +36710,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC45" s="76" t="s">
+      <c r="AC45" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD45" s="70" t="s">
@@ -36756,7 +36756,7 @@
         <f t="shared" si="7"/>
         <v>-269.51454509000001</v>
       </c>
-      <c r="AC46" s="76" t="s">
+      <c r="AC46" s="79" t="s">
         <v>16</v>
       </c>
       <c r="AD46" s="70" t="s">
@@ -36834,7 +36834,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC47" s="76" t="s">
+      <c r="AC47" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD47" s="70" t="s">
@@ -36896,7 +36896,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC48" s="76" t="s">
+      <c r="AC48" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD48" s="70" t="s">
@@ -36942,7 +36942,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC49" s="76" t="s">
+      <c r="AC49" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD49" s="70" t="s">
@@ -36988,7 +36988,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC50" s="76" t="s">
+      <c r="AC50" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD50" s="70" t="s">
@@ -37034,7 +37034,7 @@
         <f t="shared" si="7"/>
         <v>-301.71272728000002</v>
       </c>
-      <c r="AC51" s="76" t="s">
+      <c r="AC51" s="79" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="70" t="s">
@@ -37112,7 +37112,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC52" s="76" t="s">
+      <c r="AC52" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="70" t="s">
@@ -37174,7 +37174,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC53" s="76" t="s">
+      <c r="AC53" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD53" s="70" t="s">
@@ -37220,7 +37220,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC54" s="76" t="s">
+      <c r="AC54" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD54" s="70" t="s">
@@ -37266,7 +37266,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC55" s="76" t="s">
+      <c r="AC55" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD55" s="70" t="s">
@@ -37312,7 +37312,7 @@
         <f t="shared" si="7"/>
         <v>-307.14237258999998</v>
       </c>
-      <c r="AC56" s="76" t="s">
+      <c r="AC56" s="79" t="s">
         <v>18</v>
       </c>
       <c r="AD56" s="70" t="s">
@@ -37390,7 +37390,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC57" s="76" t="s">
+      <c r="AC57" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD57" s="70" t="s">
@@ -37452,7 +37452,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC58" s="76" t="s">
+      <c r="AC58" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD58" s="70" t="s">
@@ -37498,7 +37498,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC59" s="76" t="s">
+      <c r="AC59" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD59" s="70" t="s">
@@ -37544,7 +37544,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC60" s="76" t="s">
+      <c r="AC60" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD60" s="70" t="s">
@@ -37590,7 +37590,7 @@
         <f t="shared" si="7"/>
         <v>-307.79129583000002</v>
       </c>
-      <c r="AC61" s="76" t="s">
+      <c r="AC61" s="79" t="s">
         <v>19</v>
       </c>
       <c r="AD61" s="70" t="s">
@@ -37668,7 +37668,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC62" s="76" t="s">
+      <c r="AC62" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD62" s="70" t="s">
@@ -37730,7 +37730,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC63" s="76" t="s">
+      <c r="AC63" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD63" s="70" t="s">
@@ -37776,7 +37776,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC64" s="76" t="s">
+      <c r="AC64" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD64" s="70" t="s">
@@ -37822,7 +37822,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC65" s="76" t="s">
+      <c r="AC65" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD65" s="70" t="s">
@@ -37868,7 +37868,7 @@
         <f t="shared" si="7"/>
         <v>-307.06911029000003</v>
       </c>
-      <c r="AC66" s="76" t="s">
+      <c r="AC66" s="79" t="s">
         <v>20</v>
       </c>
       <c r="AD66" s="70" t="s">
@@ -37946,7 +37946,7 @@
         <f t="shared" ref="AA67:AA81" si="146">INDEX($Z$2:$Z$17,ROUND(ROW(Z68)/5, 0))</f>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC67" s="76" t="s">
+      <c r="AC67" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD67" s="70" t="s">
@@ -38008,7 +38008,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC68" s="76" t="s">
+      <c r="AC68" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD68" s="70" t="s">
@@ -38054,7 +38054,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC69" s="76" t="s">
+      <c r="AC69" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD69" s="70" t="s">
@@ -38100,7 +38100,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC70" s="76" t="s">
+      <c r="AC70" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD70" s="70" t="s">
@@ -38146,7 +38146,7 @@
         <f t="shared" si="146"/>
         <v>-299.45600268999999</v>
       </c>
-      <c r="AC71" s="76" t="s">
+      <c r="AC71" s="79" t="s">
         <v>21</v>
       </c>
       <c r="AD71" s="70" t="s">
@@ -38224,7 +38224,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC72" s="76" t="s">
+      <c r="AC72" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD72" s="70" t="s">
@@ -38286,7 +38286,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC73" s="76" t="s">
+      <c r="AC73" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD73" s="70" t="s">
@@ -38332,7 +38332,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC74" s="76" t="s">
+      <c r="AC74" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD74" s="70" t="s">
@@ -38378,7 +38378,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC75" s="76" t="s">
+      <c r="AC75" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD75" s="70" t="s">
@@ -38424,7 +38424,7 @@
         <f t="shared" si="146"/>
         <v>-294.27183764</v>
       </c>
-      <c r="AC76" s="76" t="s">
+      <c r="AC76" s="79" t="s">
         <v>22</v>
       </c>
       <c r="AD76" s="70" t="s">
@@ -38502,7 +38502,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC77" s="76" t="s">
+      <c r="AC77" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD77" s="70" t="s">
@@ -38564,7 +38564,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC78" s="76" t="s">
+      <c r="AC78" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD78" s="70" t="s">
@@ -38610,7 +38610,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC79" s="76" t="s">
+      <c r="AC79" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD79" s="70" t="s">
@@ -38656,7 +38656,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC80" s="76" t="s">
+      <c r="AC80" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD80" s="70" t="s">
@@ -38702,7 +38702,7 @@
         <f t="shared" si="146"/>
         <v>-274.32544483999999</v>
       </c>
-      <c r="AC81" s="76" t="s">
+      <c r="AC81" s="79" t="s">
         <v>23</v>
       </c>
       <c r="AD81" s="70" t="s">
@@ -38727,12 +38727,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="AC77:AC81"/>
+    <mergeCell ref="AC52:AC56"/>
+    <mergeCell ref="AC57:AC61"/>
+    <mergeCell ref="AC62:AC66"/>
+    <mergeCell ref="AC67:AC71"/>
+    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="AC27:AC31"/>
+    <mergeCell ref="AC32:AC36"/>
+    <mergeCell ref="AC37:AC41"/>
+    <mergeCell ref="AC42:AC46"/>
+    <mergeCell ref="AC47:AC51"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AC12:AC16"/>
+    <mergeCell ref="AC17:AC21"/>
+    <mergeCell ref="AC22:AC26"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
@@ -38743,22 +38753,12 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="AC7:AC11"/>
-    <mergeCell ref="AC12:AC16"/>
-    <mergeCell ref="AC17:AC21"/>
-    <mergeCell ref="AC22:AC26"/>
-    <mergeCell ref="AC27:AC31"/>
-    <mergeCell ref="AC32:AC36"/>
-    <mergeCell ref="AC37:AC41"/>
-    <mergeCell ref="AC42:AC46"/>
-    <mergeCell ref="AC47:AC51"/>
-    <mergeCell ref="AC77:AC81"/>
-    <mergeCell ref="AC52:AC56"/>
-    <mergeCell ref="AC57:AC61"/>
-    <mergeCell ref="AC62:AC66"/>
-    <mergeCell ref="AC67:AC71"/>
-    <mergeCell ref="AC72:AC76"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
